--- a/right_elbow_Data.xlsx
+++ b/right_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>375.6290283203125</v>
+        <v>261.5791625976562</v>
       </c>
       <c r="C2" t="n">
-        <v>377.3575134277344</v>
+        <v>259.659423828125</v>
       </c>
       <c r="D2" t="n">
-        <v>379.3025512695312</v>
+        <v>269.712646484375</v>
       </c>
       <c r="E2" t="n">
-        <v>379.49072265625</v>
+        <v>267.8492736816406</v>
       </c>
       <c r="F2" t="n">
-        <v>380.2192687988281</v>
+        <v>261.2960205078125</v>
       </c>
       <c r="G2" t="n">
-        <v>379.9793090820312</v>
+        <v>271.4861450195312</v>
       </c>
       <c r="H2" t="n">
-        <v>379.9850769042969</v>
+        <v>272.9010925292969</v>
       </c>
       <c r="I2" t="n">
-        <v>380.1165161132812</v>
+        <v>261.4904479980469</v>
       </c>
       <c r="J2" t="n">
-        <v>379.9637451171875</v>
+        <v>272.6317138671875</v>
       </c>
       <c r="K2" t="n">
-        <v>379.7997436523438</v>
+        <v>271.6446228027344</v>
       </c>
       <c r="L2" t="n">
-        <v>379.1641540527344</v>
+        <v>260.9612121582031</v>
       </c>
       <c r="M2" t="n">
-        <v>377.1359558105469</v>
+        <v>272.7429504394531</v>
       </c>
       <c r="N2" t="n">
-        <v>373.96923828125</v>
+        <v>273.0702819824219</v>
       </c>
       <c r="O2" t="n">
-        <v>371.7522888183594</v>
+        <v>259.9421081542969</v>
       </c>
       <c r="P2" t="n">
-        <v>369.9455261230469</v>
+        <v>259.5075073242188</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.4699401855469</v>
+        <v>259.6827697753906</v>
       </c>
       <c r="R2" t="n">
-        <v>369.7783203125</v>
+        <v>259.8472595214844</v>
       </c>
       <c r="S2" t="n">
-        <v>368.6755981445312</v>
+        <v>280.6221313476562</v>
       </c>
       <c r="T2" t="n">
-        <v>365.9870910644531</v>
+        <v>275.9849548339844</v>
       </c>
       <c r="U2" t="n">
-        <v>361.4026489257812</v>
+        <v>260.3081970214844</v>
       </c>
       <c r="V2" t="n">
-        <v>358.6072998046875</v>
+        <v>272.5117797851562</v>
       </c>
       <c r="W2" t="n">
-        <v>357.7654724121094</v>
+        <v>273.4046936035156</v>
       </c>
       <c r="X2" t="n">
-        <v>356.7235107421875</v>
+        <v>260.4693603515625</v>
       </c>
       <c r="Y2" t="n">
-        <v>354.1151123046875</v>
+        <v>273.3892822265625</v>
       </c>
       <c r="Z2" t="n">
-        <v>350.7305297851562</v>
+        <v>273.1520080566406</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7843627929688</v>
+        <v>260.6803588867188</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.346435546875</v>
+        <v>273.5824890136719</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.9016723632812</v>
+        <v>273.4819946289062</v>
       </c>
       <c r="AD2" t="n">
-        <v>344.0416259765625</v>
+        <v>261.0239868164062</v>
       </c>
       <c r="AE2" t="n">
-        <v>343.1079711914062</v>
+        <v>274.0544738769531</v>
       </c>
       <c r="AF2" t="n">
-        <v>340.2975158691406</v>
+        <v>274.119873046875</v>
       </c>
       <c r="AG2" t="n">
-        <v>339.060302734375</v>
+        <v>260.9570007324219</v>
       </c>
       <c r="AH2" t="n">
-        <v>336.9491271972656</v>
+        <v>261.0091857910156</v>
       </c>
       <c r="AI2" t="n">
-        <v>334.8828735351562</v>
+        <v>261.033935546875</v>
       </c>
       <c r="AJ2" t="n">
-        <v>333.000732421875</v>
+        <v>260.8882141113281</v>
       </c>
       <c r="AK2" t="n">
-        <v>331.4187622070312</v>
+        <v>279.8106994628906</v>
       </c>
       <c r="AL2" t="n">
-        <v>330.1660766601562</v>
+        <v>260.8294067382812</v>
       </c>
       <c r="AM2" t="n">
-        <v>330.6439208984375</v>
+        <v>274.941650390625</v>
       </c>
       <c r="AN2" t="n">
-        <v>330.3719482421875</v>
+        <v>260.8310546875</v>
       </c>
       <c r="AO2" t="n">
-        <v>330.3558959960938</v>
+        <v>273.9496459960938</v>
       </c>
       <c r="AP2" t="n">
-        <v>330.4370422363281</v>
+        <v>260.9495544433594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>330.3931274414062</v>
+        <v>272.3442077636719</v>
       </c>
       <c r="AR2" t="n">
-        <v>330.2040405273438</v>
+        <v>264.3577880859375</v>
       </c>
       <c r="AS2" t="n">
-        <v>330.0358276367188</v>
+        <v>268.0765991210938</v>
       </c>
       <c r="AT2" t="n">
-        <v>329.9779052734375</v>
+        <v>290.2173461914062</v>
       </c>
       <c r="AU2" t="n">
-        <v>329.8215026855469</v>
+        <v>296.8173828125</v>
       </c>
       <c r="AV2" t="n">
-        <v>329.8640747070312</v>
+        <v>305.5261840820312</v>
       </c>
       <c r="AW2" t="n">
-        <v>329.9541625976562</v>
+        <v>312.4027099609375</v>
       </c>
       <c r="AX2" t="n">
-        <v>330.132080078125</v>
+        <v>318.7843627929688</v>
       </c>
       <c r="AY2" t="n">
-        <v>330.2921142578125</v>
+        <v>329.4198303222656</v>
       </c>
       <c r="AZ2" t="n">
-        <v>330.4170532226562</v>
+        <v>336.7998657226562</v>
       </c>
       <c r="BA2" t="n">
-        <v>330.7266235351562</v>
+        <v>342.7840881347656</v>
       </c>
       <c r="BB2" t="n">
-        <v>331.2289733886719</v>
+        <v>347.8677978515625</v>
       </c>
       <c r="BC2" t="n">
-        <v>331.835693359375</v>
+        <v>350.3994445800781</v>
       </c>
       <c r="BD2" t="n">
-        <v>332.0857543945312</v>
+        <v>353.1967468261719</v>
       </c>
       <c r="BE2" t="n">
-        <v>332.8046875</v>
+        <v>355.3937377929688</v>
       </c>
       <c r="BF2" t="n">
-        <v>332.3037109375</v>
+        <v>356.2069091796875</v>
       </c>
       <c r="BG2" t="n">
-        <v>331.6885681152344</v>
+        <v>356.7547607421875</v>
       </c>
       <c r="BH2" t="n">
-        <v>330.9588012695312</v>
+        <v>357.2418212890625</v>
       </c>
       <c r="BI2" t="n">
-        <v>329.9944458007812</v>
+        <v>357.2587585449219</v>
       </c>
       <c r="BJ2" t="n">
-        <v>328.3505554199219</v>
+        <v>353.4932861328125</v>
       </c>
       <c r="BK2" t="n">
-        <v>325.7281799316406</v>
+        <v>334.720947265625</v>
       </c>
       <c r="BL2" t="n">
-        <v>321.594970703125</v>
+        <v>327.1536254882812</v>
       </c>
       <c r="BM2" t="n">
-        <v>319.0611877441406</v>
+        <v>310.031005859375</v>
       </c>
       <c r="BN2" t="n">
-        <v>316.8341064453125</v>
+        <v>300.6112976074219</v>
       </c>
       <c r="BO2" t="n">
-        <v>314.2889404296875</v>
+        <v>293.3773498535156</v>
       </c>
       <c r="BP2" t="n">
-        <v>311.2996826171875</v>
+        <v>286.0207214355469</v>
       </c>
       <c r="BQ2" t="n">
-        <v>307.7220764160156</v>
+        <v>281.2711181640625</v>
       </c>
       <c r="BR2" t="n">
-        <v>303.4282836914062</v>
+        <v>275.057373046875</v>
       </c>
       <c r="BS2" t="n">
-        <v>298.7026062011719</v>
+        <v>264.1456298828125</v>
       </c>
       <c r="BT2" t="n">
-        <v>295.3112182617188</v>
+        <v>253.9221496582031</v>
       </c>
       <c r="BU2" t="n">
-        <v>291.0939025878906</v>
+        <v>247.4739990234375</v>
       </c>
       <c r="BV2" t="n">
-        <v>285.6838684082031</v>
+        <v>244.4654235839844</v>
       </c>
       <c r="BW2" t="n">
-        <v>281.7914428710938</v>
+        <v>238.4680328369141</v>
       </c>
       <c r="BX2" t="n">
-        <v>278.5131530761719</v>
+        <v>230.5554809570312</v>
       </c>
       <c r="BY2" t="n">
-        <v>273.5424194335938</v>
+        <v>224.3087158203125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>265.1212768554688</v>
+        <v>219.4517517089844</v>
       </c>
       <c r="CA2" t="n">
-        <v>253.3299255371094</v>
+        <v>218.0893707275391</v>
       </c>
       <c r="CB2" t="n">
-        <v>240.9554748535156</v>
+        <v>216.0249938964844</v>
       </c>
       <c r="CC2" t="n">
-        <v>235.658447265625</v>
+        <v>214.0901489257812</v>
       </c>
       <c r="CD2" t="n">
-        <v>230.1626892089844</v>
+        <v>208.9317626953125</v>
       </c>
       <c r="CE2" t="n">
-        <v>225.3759918212891</v>
+        <v>200.0062408447266</v>
       </c>
       <c r="CF2" t="n">
-        <v>216.1133117675781</v>
+        <v>190.322998046875</v>
       </c>
       <c r="CG2" t="n">
-        <v>212.3550720214844</v>
+        <v>184.7355499267578</v>
       </c>
       <c r="CH2" t="n">
-        <v>209.5845794677734</v>
+        <v>180.2309265136719</v>
       </c>
       <c r="CI2" t="n">
-        <v>208.7825012207031</v>
+        <v>179.901123046875</v>
       </c>
       <c r="CJ2" t="n">
-        <v>207.3507995605469</v>
+        <v>179.8890686035156</v>
       </c>
       <c r="CK2" t="n">
-        <v>204.9259643554688</v>
+        <v>186.3946533203125</v>
       </c>
       <c r="CL2" t="n">
-        <v>197.7733764648438</v>
+        <v>194.8629913330078</v>
       </c>
       <c r="CM2" t="n">
-        <v>193.7409820556641</v>
+        <v>198.0321044921875</v>
       </c>
       <c r="CN2" t="n">
-        <v>187.2403869628906</v>
+        <v>201.6028594970703</v>
       </c>
       <c r="CO2" t="n">
-        <v>176.0250549316406</v>
+        <v>206.5449829101562</v>
       </c>
       <c r="CP2" t="n">
-        <v>172.0647430419922</v>
+        <v>213.7343444824219</v>
       </c>
       <c r="CQ2" t="n">
-        <v>167.4765014648438</v>
+        <v>221.4915161132812</v>
       </c>
       <c r="CR2" t="n">
-        <v>160.6933746337891</v>
+        <v>235.37744140625</v>
       </c>
       <c r="CS2" t="n">
-        <v>155.6803283691406</v>
+        <v>242.8949890136719</v>
       </c>
       <c r="CT2" t="n">
-        <v>149.0560607910156</v>
+        <v>251.1392517089844</v>
       </c>
       <c r="CU2" t="n">
-        <v>146.9618530273438</v>
+        <v>259.0993347167969</v>
       </c>
       <c r="CV2" t="n">
-        <v>144.8916015625</v>
+        <v>266.7886352539062</v>
       </c>
       <c r="CW2" t="n">
-        <v>142.8637847900391</v>
+        <v>274.3060302734375</v>
       </c>
       <c r="CX2" t="n">
-        <v>142.5816192626953</v>
+        <v>279.7335510253906</v>
       </c>
       <c r="CY2" t="n">
-        <v>142.500732421875</v>
+        <v>286.1932373046875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>143.5426025390625</v>
+        <v>292.1301574707031</v>
       </c>
       <c r="DA2" t="n">
-        <v>145.0237579345703</v>
+        <v>297.6395263671875</v>
       </c>
       <c r="DB2" t="n">
-        <v>148.7044372558594</v>
+        <v>308.8896484375</v>
       </c>
       <c r="DC2" t="n">
-        <v>165.5152587890625</v>
+        <v>312.8479919433594</v>
       </c>
       <c r="DD2" t="n">
-        <v>171.5608215332031</v>
+        <v>316.595947265625</v>
       </c>
       <c r="DE2" t="n">
-        <v>177.8299102783203</v>
+        <v>320.399169921875</v>
       </c>
       <c r="DF2" t="n">
-        <v>195.1353454589844</v>
+        <v>323.776123046875</v>
       </c>
       <c r="DG2" t="n">
-        <v>201.7381286621094</v>
+        <v>325.9859619140625</v>
       </c>
       <c r="DH2" t="n">
-        <v>207.0963745117188</v>
+        <v>331.1236267089844</v>
       </c>
       <c r="DI2" t="n">
-        <v>213.0308532714844</v>
+        <v>332.2017211914062</v>
       </c>
       <c r="DJ2" t="n">
-        <v>212.7052612304688</v>
+        <v>332.2623291015625</v>
       </c>
       <c r="DK2" t="n">
-        <v>212.4298400878906</v>
+        <v>332.2644653320312</v>
       </c>
       <c r="DL2" t="n">
-        <v>204.8423767089844</v>
+        <v>332.1884155273438</v>
       </c>
       <c r="DM2" t="n">
-        <v>199.9765014648438</v>
+        <v>332.0122680664062</v>
       </c>
       <c r="DN2" t="n">
-        <v>184.6509399414062</v>
+        <v>330.6580810546875</v>
       </c>
       <c r="DO2" t="n">
-        <v>172.1544189453125</v>
+        <v>322.3828735351562</v>
       </c>
       <c r="DP2" t="n">
-        <v>171.2112121582031</v>
+        <v>317.450439453125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>160.3833312988281</v>
+        <v>306.2388610839844</v>
       </c>
       <c r="DR2" t="n">
-        <v>152.3036499023438</v>
+        <v>301.5320434570312</v>
       </c>
       <c r="DS2" t="n">
-        <v>150.2876586914062</v>
+        <v>297.276611328125</v>
       </c>
       <c r="DT2" t="n">
-        <v>149.5585784912109</v>
+        <v>290.9462280273438</v>
       </c>
       <c r="DU2" t="n">
-        <v>148.9793395996094</v>
+        <v>285.8804626464844</v>
       </c>
       <c r="DV2" t="n">
-        <v>148.5224304199219</v>
+        <v>283.6429138183594</v>
       </c>
       <c r="DW2" t="n">
-        <v>148.5693817138672</v>
+        <v>276.9415283203125</v>
       </c>
       <c r="DX2" t="n">
-        <v>148.4768524169922</v>
+        <v>273.7030029296875</v>
       </c>
       <c r="DY2" t="n">
-        <v>148.4809265136719</v>
+        <v>269.0321044921875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>148.7782287597656</v>
+        <v>266.5552368164062</v>
       </c>
       <c r="EA2" t="n">
-        <v>149.2413330078125</v>
+        <v>259.3729553222656</v>
       </c>
       <c r="EB2" t="n">
-        <v>149.3408660888672</v>
+        <v>255.2576904296875</v>
       </c>
       <c r="EC2" t="n">
-        <v>149.1048889160156</v>
+        <v>255.7621154785156</v>
       </c>
       <c r="ED2" t="n">
-        <v>154.9169921875</v>
+        <v>255.8508453369141</v>
       </c>
       <c r="EE2" t="n">
-        <v>163.6711883544922</v>
+        <v>262.0830688476562</v>
       </c>
       <c r="EF2" t="n">
-        <v>174.0359649658203</v>
+        <v>266.0986633300781</v>
       </c>
       <c r="EG2" t="n">
-        <v>188.8943786621094</v>
+        <v>272.3903198242188</v>
       </c>
       <c r="EH2" t="n">
-        <v>196.6987915039062</v>
+        <v>277.3916015625</v>
       </c>
       <c r="EI2" t="n">
-        <v>198.8795776367188</v>
+        <v>281.0817565917969</v>
       </c>
       <c r="EJ2" t="n">
-        <v>198.6587371826172</v>
+        <v>283.8136901855469</v>
       </c>
       <c r="EK2" t="n">
-        <v>198.0904846191406</v>
+        <v>289.7963562011719</v>
       </c>
       <c r="EL2" t="n">
-        <v>197.4618835449219</v>
+        <v>293.3347473144531</v>
       </c>
       <c r="EM2" t="n">
-        <v>195.9693603515625</v>
+        <v>297.0815734863281</v>
       </c>
       <c r="EN2" t="n">
-        <v>194.0115509033203</v>
+        <v>297.7040100097656</v>
       </c>
       <c r="EO2" t="n">
-        <v>193.1580200195312</v>
+        <v>301.4584350585938</v>
       </c>
       <c r="EP2" t="n">
-        <v>192.9624633789062</v>
+        <v>303.5831604003906</v>
       </c>
       <c r="EQ2" t="n">
-        <v>192.8501586914062</v>
+        <v>305.5073547363281</v>
       </c>
       <c r="ER2" t="n">
-        <v>192.7837982177734</v>
+        <v>305.9804992675781</v>
       </c>
       <c r="ES2" t="n">
-        <v>192.56494140625</v>
+        <v>305.8468017578125</v>
       </c>
       <c r="ET2" t="n">
-        <v>192.4362030029297</v>
+        <v>303.036376953125</v>
       </c>
       <c r="EU2" t="n">
-        <v>192.0943603515625</v>
+        <v>289.6396484375</v>
       </c>
       <c r="EV2" t="n">
-        <v>192.8653259277344</v>
+        <v>282.33837890625</v>
       </c>
       <c r="EW2" t="n">
-        <v>193.1773681640625</v>
+        <v>274.1985473632812</v>
       </c>
       <c r="EX2" t="n">
-        <v>193.12939453125</v>
+        <v>272.6887817382812</v>
       </c>
       <c r="EY2" t="n">
-        <v>192.6804351806641</v>
+        <v>272.5590515136719</v>
       </c>
       <c r="EZ2" t="n">
-        <v>192.5050506591797</v>
+        <v>333.9893188476562</v>
       </c>
       <c r="FA2" t="n">
-        <v>191.9581909179688</v>
+        <v>309.9877014160156</v>
       </c>
       <c r="FB2" t="n">
-        <v>191.7026519775391</v>
+        <v>250.7740173339844</v>
       </c>
       <c r="FC2" t="n">
-        <v>193.2646942138672</v>
+        <v>246.2837982177734</v>
       </c>
       <c r="FD2" t="n">
-        <v>195.2950286865234</v>
+        <v>247.0690612792969</v>
       </c>
       <c r="FE2" t="n">
-        <v>196.08837890625</v>
+        <v>242.1086120605469</v>
       </c>
       <c r="FF2" t="n">
-        <v>196.4029541015625</v>
+        <v>238.4887084960938</v>
       </c>
       <c r="FG2" t="n">
-        <v>196.1059875488281</v>
+        <v>236.2819061279297</v>
       </c>
       <c r="FH2" t="n">
-        <v>195.5715637207031</v>
+        <v>237.3619689941406</v>
       </c>
       <c r="FI2" t="n">
-        <v>193.7361907958984</v>
+        <v>229.5178070068359</v>
       </c>
       <c r="FJ2" t="n">
-        <v>192.4635620117188</v>
+        <v>226.0316162109375</v>
       </c>
       <c r="FK2" t="n">
-        <v>190.3133239746094</v>
+        <v>226.51611328125</v>
       </c>
       <c r="FL2" t="n">
-        <v>186.8338928222656</v>
+        <v>226.1382751464844</v>
       </c>
       <c r="FM2" t="n">
-        <v>185.2300872802734</v>
+        <v>228.2011413574219</v>
       </c>
       <c r="FN2" t="n">
-        <v>181.9572601318359</v>
+        <v>237.1652221679688</v>
       </c>
       <c r="FO2" t="n">
-        <v>183.1351013183594</v>
+        <v>240.8691711425781</v>
       </c>
       <c r="FP2" t="n">
-        <v>191.5877532958984</v>
+        <v>247.3046569824219</v>
       </c>
       <c r="FQ2" t="n">
-        <v>199.8924560546875</v>
+        <v>263.0748596191406</v>
       </c>
       <c r="FR2" t="n">
-        <v>203.9555358886719</v>
+        <v>270.8296203613281</v>
       </c>
       <c r="FS2" t="n">
-        <v>211.747314453125</v>
+        <v>277.8839111328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>223.9549560546875</v>
+        <v>281.3618774414062</v>
       </c>
       <c r="FU2" t="n">
-        <v>227.4293212890625</v>
+        <v>281.8535766601562</v>
       </c>
       <c r="FV2" t="n">
-        <v>235.8213653564453</v>
+        <v>281.6188049316406</v>
       </c>
       <c r="FW2" t="n">
-        <v>242.4642028808594</v>
+        <v>337.0591430664062</v>
       </c>
       <c r="FX2" t="n">
-        <v>249.7895812988281</v>
+        <v>284.5627746582031</v>
       </c>
       <c r="FY2" t="n">
-        <v>251.6009216308594</v>
+        <v>274.6191101074219</v>
       </c>
       <c r="FZ2" t="n">
-        <v>250.8464660644531</v>
+        <v>275.8099365234375</v>
       </c>
       <c r="GA2" t="n">
-        <v>249.8248291015625</v>
+        <v>274.6089477539062</v>
       </c>
       <c r="GB2" t="n">
-        <v>247.8626708984375</v>
+        <v>268.3627624511719</v>
       </c>
       <c r="GC2" t="n">
-        <v>246.0146789550781</v>
+        <v>248.9393463134766</v>
       </c>
       <c r="GD2" t="n">
-        <v>240.2533721923828</v>
+        <v>242.2796783447266</v>
       </c>
       <c r="GE2" t="n">
-        <v>234.1533813476562</v>
+        <v>238.56494140625</v>
       </c>
       <c r="GF2" t="n">
-        <v>222.8001098632812</v>
+        <v>230.7903442382812</v>
       </c>
       <c r="GG2" t="n">
-        <v>207.4065399169922</v>
+        <v>218.4983062744141</v>
       </c>
       <c r="GH2" t="n">
-        <v>194.8775939941406</v>
+        <v>208.7525329589844</v>
       </c>
       <c r="GI2" t="n">
-        <v>181.3789672851562</v>
+        <v>205.8311767578125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>166.451904296875</v>
+        <v>203.3162689208984</v>
       </c>
       <c r="GK2" t="n">
-        <v>149.3267822265625</v>
+        <v>192.0129699707031</v>
       </c>
       <c r="GL2" t="n">
-        <v>130.5351715087891</v>
+        <v>185.0227203369141</v>
       </c>
       <c r="GM2" t="n">
-        <v>112.8574829101562</v>
+        <v>173.0962829589844</v>
       </c>
       <c r="GN2" t="n">
-        <v>99.88645935058594</v>
+        <v>163.0657043457031</v>
       </c>
       <c r="GO2" t="n">
-        <v>102.330924987793</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>106.0584106445312</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>128.0866394042969</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>165.0738220214844</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>177.8511199951172</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>183.9054260253906</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>189.1502075195312</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>194.0832214355469</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>197.3640289306641</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>194.174560546875</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>207.1506042480469</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>219.3044281005859</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>226.0788879394531</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>237.1777038574219</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>279.3126831054688</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>262.8439025878906</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>298.1644287109375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>306.3615112304688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>314.2798767089844</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>315.646728515625</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>318.2690124511719</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>317.4177551269531</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>316.2076110839844</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>289.7654724121094</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>331.511962890625</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>297.4933471679688</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>280.9378356933594</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>272.5001220703125</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>270.28857421875</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>268.134765625</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>266.2225036621094</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>271.1050720214844</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>276.9735412597656</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>199.4155578613281</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>199.7234802246094</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>200.4170837402344</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>199.4435272216797</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>201.128662109375</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>205.7788391113281</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>216.8050231933594</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>222.5042114257812</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>223.8717498779297</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>222.0451507568359</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>222.4379119873047</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>224.3842163085938</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>227.7257385253906</v>
-      </c>
-      <c r="II2" t="n">
-        <v>222.3670043945312</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>221.4755554199219</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>221.6155395507812</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>221.6257934570312</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>222.0573577880859</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>222.4272155761719</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>222.8480529785156</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>222.85986328125</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>222.9375457763672</v>
+        <v>158.6684722900391</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>370.4701538085938</v>
+        <v>361.6618041992188</v>
       </c>
       <c r="C3" t="n">
-        <v>364.8111877441406</v>
+        <v>352.3507385253906</v>
       </c>
       <c r="D3" t="n">
-        <v>361.8001708984375</v>
+        <v>328.8105163574219</v>
       </c>
       <c r="E3" t="n">
-        <v>357.4429931640625</v>
+        <v>325.9020385742188</v>
       </c>
       <c r="F3" t="n">
-        <v>354.1460876464844</v>
+        <v>344.9071655273438</v>
       </c>
       <c r="G3" t="n">
-        <v>350.9019470214844</v>
+        <v>328.2665100097656</v>
       </c>
       <c r="H3" t="n">
-        <v>349.3062133789062</v>
+        <v>328.3273315429688</v>
       </c>
       <c r="I3" t="n">
-        <v>346.2295227050781</v>
+        <v>345.4179077148438</v>
       </c>
       <c r="J3" t="n">
-        <v>345.6224975585938</v>
+        <v>328.7630615234375</v>
       </c>
       <c r="K3" t="n">
-        <v>345.5709228515625</v>
+        <v>328.4669189453125</v>
       </c>
       <c r="L3" t="n">
-        <v>345.5919189453125</v>
+        <v>345.1156005859375</v>
       </c>
       <c r="M3" t="n">
-        <v>344.2427368164062</v>
+        <v>328.318359375</v>
       </c>
       <c r="N3" t="n">
-        <v>341.8714294433594</v>
+        <v>328.2130737304688</v>
       </c>
       <c r="O3" t="n">
-        <v>339.1001892089844</v>
+        <v>344.8714294433594</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7107238769531</v>
+        <v>344.8203430175781</v>
       </c>
       <c r="Q3" t="n">
-        <v>336.9080200195312</v>
+        <v>344.8034362792969</v>
       </c>
       <c r="R3" t="n">
-        <v>335.8986511230469</v>
+        <v>344.840576171875</v>
       </c>
       <c r="S3" t="n">
-        <v>334.2283935546875</v>
+        <v>329.8153381347656</v>
       </c>
       <c r="T3" t="n">
-        <v>332.8096923828125</v>
+        <v>329.1620788574219</v>
       </c>
       <c r="U3" t="n">
-        <v>329.9442749023438</v>
+        <v>345.3640441894531</v>
       </c>
       <c r="V3" t="n">
-        <v>328.931884765625</v>
+        <v>329.2460632324219</v>
       </c>
       <c r="W3" t="n">
-        <v>328.3370361328125</v>
+        <v>329.1525573730469</v>
       </c>
       <c r="X3" t="n">
-        <v>328.3935852050781</v>
+        <v>345.8180847167969</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.9532470703125</v>
+        <v>329.0231018066406</v>
       </c>
       <c r="Z3" t="n">
-        <v>326.0442504882812</v>
+        <v>328.9221801757812</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.1921691894531</v>
+        <v>345.8829040527344</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.4193725585938</v>
+        <v>328.9034729003906</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.0436401367188</v>
+        <v>328.74853515625</v>
       </c>
       <c r="AD3" t="n">
-        <v>330.6273498535156</v>
+        <v>345.7904663085938</v>
       </c>
       <c r="AE3" t="n">
-        <v>330.1793823242188</v>
+        <v>328.6897277832031</v>
       </c>
       <c r="AF3" t="n">
-        <v>329.7644348144531</v>
+        <v>328.5848999023438</v>
       </c>
       <c r="AG3" t="n">
-        <v>330.0580749511719</v>
+        <v>345.8228759765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>327.1737365722656</v>
+        <v>345.7988891601562</v>
       </c>
       <c r="AI3" t="n">
-        <v>325.478271484375</v>
+        <v>345.7543640136719</v>
       </c>
       <c r="AJ3" t="n">
-        <v>323.9059753417969</v>
+        <v>346.2524108886719</v>
       </c>
       <c r="AK3" t="n">
-        <v>320.9737243652344</v>
+        <v>329.2257385253906</v>
       </c>
       <c r="AL3" t="n">
-        <v>319.2416381835938</v>
+        <v>346.3017272949219</v>
       </c>
       <c r="AM3" t="n">
-        <v>319.15576171875</v>
+        <v>328.6329040527344</v>
       </c>
       <c r="AN3" t="n">
-        <v>317.1691284179688</v>
+        <v>346.921142578125</v>
       </c>
       <c r="AO3" t="n">
-        <v>315.7933654785156</v>
+        <v>328.4384460449219</v>
       </c>
       <c r="AP3" t="n">
-        <v>315.9639587402344</v>
+        <v>346.8985595703125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>316.0370178222656</v>
+        <v>328.8375244140625</v>
       </c>
       <c r="AR3" t="n">
-        <v>315.779052734375</v>
+        <v>347.6936340332031</v>
       </c>
       <c r="AS3" t="n">
-        <v>315.5488891601562</v>
+        <v>360.4277648925781</v>
       </c>
       <c r="AT3" t="n">
-        <v>315.0906372070312</v>
+        <v>379.5851745605469</v>
       </c>
       <c r="AU3" t="n">
-        <v>314.8276977539062</v>
+        <v>383.819580078125</v>
       </c>
       <c r="AV3" t="n">
-        <v>314.6001892089844</v>
+        <v>389.5506286621094</v>
       </c>
       <c r="AW3" t="n">
-        <v>314.2156982421875</v>
+        <v>387.3029174804688</v>
       </c>
       <c r="AX3" t="n">
-        <v>313.5906372070312</v>
+        <v>389.3441772460938</v>
       </c>
       <c r="AY3" t="n">
-        <v>313.0829162597656</v>
+        <v>390.5877990722656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>312.8077392578125</v>
+        <v>388.6882934570312</v>
       </c>
       <c r="BA3" t="n">
-        <v>312.8470764160156</v>
+        <v>387.3773803710938</v>
       </c>
       <c r="BB3" t="n">
-        <v>313.3941955566406</v>
+        <v>383.4471740722656</v>
       </c>
       <c r="BC3" t="n">
-        <v>314.0755004882812</v>
+        <v>380.0065002441406</v>
       </c>
       <c r="BD3" t="n">
-        <v>314.8200988769531</v>
+        <v>377.8438415527344</v>
       </c>
       <c r="BE3" t="n">
-        <v>313.848876953125</v>
+        <v>374.5923767089844</v>
       </c>
       <c r="BF3" t="n">
-        <v>314.81494140625</v>
+        <v>373.7460632324219</v>
       </c>
       <c r="BG3" t="n">
-        <v>315.8966064453125</v>
+        <v>373.733154296875</v>
       </c>
       <c r="BH3" t="n">
-        <v>317.1826171875</v>
+        <v>375.9310302734375</v>
       </c>
       <c r="BI3" t="n">
-        <v>318.3832397460938</v>
+        <v>376.0160522460938</v>
       </c>
       <c r="BJ3" t="n">
-        <v>319.5895690917969</v>
+        <v>382.681640625</v>
       </c>
       <c r="BK3" t="n">
-        <v>320.0920104980469</v>
+        <v>384.1004943847656</v>
       </c>
       <c r="BL3" t="n">
-        <v>319.6935729980469</v>
+        <v>385.5114440917969</v>
       </c>
       <c r="BM3" t="n">
-        <v>317.9555358886719</v>
+        <v>387.6818542480469</v>
       </c>
       <c r="BN3" t="n">
-        <v>316.3746643066406</v>
+        <v>386.2483825683594</v>
       </c>
       <c r="BO3" t="n">
-        <v>315.4442749023438</v>
+        <v>386.5270080566406</v>
       </c>
       <c r="BP3" t="n">
-        <v>316.1241455078125</v>
+        <v>389.0101318359375</v>
       </c>
       <c r="BQ3" t="n">
-        <v>315.5633544921875</v>
+        <v>392.1240844726562</v>
       </c>
       <c r="BR3" t="n">
-        <v>316.4121704101562</v>
+        <v>392.5791625976562</v>
       </c>
       <c r="BS3" t="n">
-        <v>319.2472534179688</v>
+        <v>392.4659423828125</v>
       </c>
       <c r="BT3" t="n">
-        <v>321.1577453613281</v>
+        <v>392.2565307617188</v>
       </c>
       <c r="BU3" t="n">
-        <v>321.7680969238281</v>
+        <v>393.8662414550781</v>
       </c>
       <c r="BV3" t="n">
-        <v>321.3765869140625</v>
+        <v>395.2421569824219</v>
       </c>
       <c r="BW3" t="n">
-        <v>319.0378723144531</v>
+        <v>395.1087036132812</v>
       </c>
       <c r="BX3" t="n">
-        <v>317.4986267089844</v>
+        <v>395.7983703613281</v>
       </c>
       <c r="BY3" t="n">
-        <v>316.2698364257812</v>
+        <v>396.534423828125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>315.5940856933594</v>
+        <v>396.3963623046875</v>
       </c>
       <c r="CA3" t="n">
-        <v>317.2969055175781</v>
+        <v>396.0752563476562</v>
       </c>
       <c r="CB3" t="n">
-        <v>316.2766723632812</v>
+        <v>397.3598022460938</v>
       </c>
       <c r="CC3" t="n">
-        <v>315.4736328125</v>
+        <v>396.0803527832031</v>
       </c>
       <c r="CD3" t="n">
-        <v>315.4195251464844</v>
+        <v>397.1646118164062</v>
       </c>
       <c r="CE3" t="n">
-        <v>315.4332275390625</v>
+        <v>397.6975708007812</v>
       </c>
       <c r="CF3" t="n">
-        <v>315.7959594726562</v>
+        <v>396.8458557128906</v>
       </c>
       <c r="CG3" t="n">
-        <v>316.2074890136719</v>
+        <v>395.7299194335938</v>
       </c>
       <c r="CH3" t="n">
-        <v>316.7837829589844</v>
+        <v>395.6318054199219</v>
       </c>
       <c r="CI3" t="n">
-        <v>317.2413635253906</v>
+        <v>396.3641357421875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>317.7484130859375</v>
+        <v>395.1847839355469</v>
       </c>
       <c r="CK3" t="n">
-        <v>317.2131042480469</v>
+        <v>393.9900817871094</v>
       </c>
       <c r="CL3" t="n">
-        <v>310.5432434082031</v>
+        <v>392.6878356933594</v>
       </c>
       <c r="CM3" t="n">
-        <v>305.2828674316406</v>
+        <v>391.831298828125</v>
       </c>
       <c r="CN3" t="n">
-        <v>298.6956481933594</v>
+        <v>389.4410400390625</v>
       </c>
       <c r="CO3" t="n">
-        <v>285.3478088378906</v>
+        <v>388.2099914550781</v>
       </c>
       <c r="CP3" t="n">
-        <v>278.2708740234375</v>
+        <v>389.0324401855469</v>
       </c>
       <c r="CQ3" t="n">
-        <v>271.2536926269531</v>
+        <v>387.4297180175781</v>
       </c>
       <c r="CR3" t="n">
-        <v>261.1036682128906</v>
+        <v>385.3959655761719</v>
       </c>
       <c r="CS3" t="n">
-        <v>251.4535064697266</v>
+        <v>384.9898071289062</v>
       </c>
       <c r="CT3" t="n">
-        <v>239.1462707519531</v>
+        <v>384.5288696289062</v>
       </c>
       <c r="CU3" t="n">
-        <v>239.0660247802734</v>
+        <v>381.9269104003906</v>
       </c>
       <c r="CV3" t="n">
-        <v>236.6721343994141</v>
+        <v>381.4830017089844</v>
       </c>
       <c r="CW3" t="n">
-        <v>235.4539642333984</v>
+        <v>379.3897399902344</v>
       </c>
       <c r="CX3" t="n">
-        <v>235.9908905029297</v>
+        <v>379.1275634765625</v>
       </c>
       <c r="CY3" t="n">
-        <v>238.9813385009766</v>
+        <v>379.28125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>246.0562133789062</v>
+        <v>378.0723266601562</v>
       </c>
       <c r="DA3" t="n">
-        <v>255.0634307861328</v>
+        <v>378.332763671875</v>
       </c>
       <c r="DB3" t="n">
-        <v>266.4037780761719</v>
+        <v>376.7645568847656</v>
       </c>
       <c r="DC3" t="n">
-        <v>287.7008056640625</v>
+        <v>377.6042785644531</v>
       </c>
       <c r="DD3" t="n">
-        <v>291.4353637695312</v>
+        <v>377.1489868164062</v>
       </c>
       <c r="DE3" t="n">
-        <v>296.2234497070312</v>
+        <v>377.3080139160156</v>
       </c>
       <c r="DF3" t="n">
-        <v>307.6781921386719</v>
+        <v>378.0779724121094</v>
       </c>
       <c r="DG3" t="n">
-        <v>313.8724365234375</v>
+        <v>378.7183227539062</v>
       </c>
       <c r="DH3" t="n">
-        <v>314.9118041992188</v>
+        <v>380.8489379882812</v>
       </c>
       <c r="DI3" t="n">
-        <v>314.9071655273438</v>
+        <v>382.5578308105469</v>
       </c>
       <c r="DJ3" t="n">
-        <v>314.0232543945312</v>
+        <v>383.9790954589844</v>
       </c>
       <c r="DK3" t="n">
-        <v>313.4324035644531</v>
+        <v>384.9384155273438</v>
       </c>
       <c r="DL3" t="n">
-        <v>311.7734985351562</v>
+        <v>385.8677978515625</v>
       </c>
       <c r="DM3" t="n">
-        <v>310.6815490722656</v>
+        <v>386.5285034179688</v>
       </c>
       <c r="DN3" t="n">
-        <v>301.4944458007812</v>
+        <v>389.6118469238281</v>
       </c>
       <c r="DO3" t="n">
-        <v>291.9828796386719</v>
+        <v>392.0086669921875</v>
       </c>
       <c r="DP3" t="n">
-        <v>286.8914489746094</v>
+        <v>389.2701416015625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>270.0850830078125</v>
+        <v>377.3786926269531</v>
       </c>
       <c r="DR3" t="n">
-        <v>252.8364410400391</v>
+        <v>370.3782958984375</v>
       </c>
       <c r="DS3" t="n">
-        <v>243.0496215820312</v>
+        <v>364.2394104003906</v>
       </c>
       <c r="DT3" t="n">
-        <v>232.7821807861328</v>
+        <v>345.7904052734375</v>
       </c>
       <c r="DU3" t="n">
-        <v>230.7034454345703</v>
+        <v>340.6445922851562</v>
       </c>
       <c r="DV3" t="n">
-        <v>225.6796112060547</v>
+        <v>332.3685302734375</v>
       </c>
       <c r="DW3" t="n">
-        <v>224.8935394287109</v>
+        <v>316.8515014648438</v>
       </c>
       <c r="DX3" t="n">
-        <v>224.775634765625</v>
+        <v>310.3484191894531</v>
       </c>
       <c r="DY3" t="n">
-        <v>228.2931365966797</v>
+        <v>303.0585632324219</v>
       </c>
       <c r="DZ3" t="n">
-        <v>233.1137084960938</v>
+        <v>302.6699523925781</v>
       </c>
       <c r="EA3" t="n">
-        <v>238.7042236328125</v>
+        <v>304.7420043945312</v>
       </c>
       <c r="EB3" t="n">
-        <v>249.6601867675781</v>
+        <v>318.2612915039062</v>
       </c>
       <c r="EC3" t="n">
-        <v>264.9923095703125</v>
+        <v>329.8946838378906</v>
       </c>
       <c r="ED3" t="n">
-        <v>276.8433837890625</v>
+        <v>355.0267333984375</v>
       </c>
       <c r="EE3" t="n">
-        <v>285.2413635253906</v>
+        <v>374.8759460449219</v>
       </c>
       <c r="EF3" t="n">
-        <v>295.2037658691406</v>
+        <v>380.1666870117188</v>
       </c>
       <c r="EG3" t="n">
-        <v>305.7822570800781</v>
+        <v>399.52392578125</v>
       </c>
       <c r="EH3" t="n">
-        <v>312.7018737792969</v>
+        <v>411.2754211425781</v>
       </c>
       <c r="EI3" t="n">
-        <v>314.1697387695312</v>
+        <v>409.3205261230469</v>
       </c>
       <c r="EJ3" t="n">
-        <v>317.5975952148438</v>
+        <v>410.212890625</v>
       </c>
       <c r="EK3" t="n">
-        <v>318.7256469726562</v>
+        <v>415.5122375488281</v>
       </c>
       <c r="EL3" t="n">
-        <v>320.3382568359375</v>
+        <v>413.5406494140625</v>
       </c>
       <c r="EM3" t="n">
-        <v>321.1384887695312</v>
+        <v>407.6759643554688</v>
       </c>
       <c r="EN3" t="n">
-        <v>320.1921997070312</v>
+        <v>406.3889465332031</v>
       </c>
       <c r="EO3" t="n">
-        <v>320.0208740234375</v>
+        <v>404.4981994628906</v>
       </c>
       <c r="EP3" t="n">
-        <v>320.0957641601562</v>
+        <v>403.1827087402344</v>
       </c>
       <c r="EQ3" t="n">
-        <v>320.4920654296875</v>
+        <v>403.6900329589844</v>
       </c>
       <c r="ER3" t="n">
-        <v>320.7041931152344</v>
+        <v>405.0803833007812</v>
       </c>
       <c r="ES3" t="n">
-        <v>321.2416076660156</v>
+        <v>406.4619140625</v>
       </c>
       <c r="ET3" t="n">
-        <v>321.5971069335938</v>
+        <v>411.754150390625</v>
       </c>
       <c r="EU3" t="n">
-        <v>322.4239501953125</v>
+        <v>416.3446655273438</v>
       </c>
       <c r="EV3" t="n">
-        <v>320.1215209960938</v>
+        <v>420.1252746582031</v>
       </c>
       <c r="EW3" t="n">
-        <v>318.78662109375</v>
+        <v>424.9652404785156</v>
       </c>
       <c r="EX3" t="n">
-        <v>318.452392578125</v>
+        <v>428.2518310546875</v>
       </c>
       <c r="EY3" t="n">
-        <v>319.4284362792969</v>
+        <v>430.9315490722656</v>
       </c>
       <c r="EZ3" t="n">
-        <v>320.4805297851562</v>
+        <v>403.0851135253906</v>
       </c>
       <c r="FA3" t="n">
-        <v>322.7128295898438</v>
+        <v>419.7621765136719</v>
       </c>
       <c r="FB3" t="n">
-        <v>324.6050720214844</v>
+        <v>433.9039001464844</v>
       </c>
       <c r="FC3" t="n">
-        <v>327.5981140136719</v>
+        <v>430.37939453125</v>
       </c>
       <c r="FD3" t="n">
-        <v>329.3372497558594</v>
+        <v>429.6451110839844</v>
       </c>
       <c r="FE3" t="n">
-        <v>329.884521484375</v>
+        <v>429.5333862304688</v>
       </c>
       <c r="FF3" t="n">
-        <v>330.0904541015625</v>
+        <v>428.3323364257812</v>
       </c>
       <c r="FG3" t="n">
-        <v>330.2332153320312</v>
+        <v>431.0911560058594</v>
       </c>
       <c r="FH3" t="n">
-        <v>327.8971252441406</v>
+        <v>428.3548278808594</v>
       </c>
       <c r="FI3" t="n">
-        <v>324.4686279296875</v>
+        <v>417.8002624511719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>321.2722778320312</v>
+        <v>415.2612915039062</v>
       </c>
       <c r="FK3" t="n">
-        <v>317.318115234375</v>
+        <v>410.4727172851562</v>
       </c>
       <c r="FL3" t="n">
-        <v>311.922119140625</v>
+        <v>411.7873840332031</v>
       </c>
       <c r="FM3" t="n">
-        <v>311.1094970703125</v>
+        <v>417.2947082519531</v>
       </c>
       <c r="FN3" t="n">
-        <v>307.0154724121094</v>
+        <v>420.0165100097656</v>
       </c>
       <c r="FO3" t="n">
-        <v>304.6448364257812</v>
+        <v>422.8004455566406</v>
       </c>
       <c r="FP3" t="n">
-        <v>305.0148010253906</v>
+        <v>426.4481811523438</v>
       </c>
       <c r="FQ3" t="n">
-        <v>303.7711486816406</v>
+        <v>432.8648376464844</v>
       </c>
       <c r="FR3" t="n">
-        <v>303.6593627929688</v>
+        <v>433.5260925292969</v>
       </c>
       <c r="FS3" t="n">
-        <v>301.575927734375</v>
+        <v>430.4515380859375</v>
       </c>
       <c r="FT3" t="n">
-        <v>304.1833801269531</v>
+        <v>426.8708801269531</v>
       </c>
       <c r="FU3" t="n">
-        <v>304.5689086914062</v>
+        <v>420.9762268066406</v>
       </c>
       <c r="FV3" t="n">
-        <v>303.9241333007812</v>
+        <v>418.0061950683594</v>
       </c>
       <c r="FW3" t="n">
-        <v>301.1918640136719</v>
+        <v>425.1925964355469</v>
       </c>
       <c r="FX3" t="n">
-        <v>292.7893371582031</v>
+        <v>412.4834289550781</v>
       </c>
       <c r="FY3" t="n">
-        <v>288.5751953125</v>
+        <v>404.603515625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>286.3602905273438</v>
+        <v>404.6442565917969</v>
       </c>
       <c r="GA3" t="n">
-        <v>287.6444396972656</v>
+        <v>405.6912536621094</v>
       </c>
       <c r="GB3" t="n">
-        <v>290.4300537109375</v>
+        <v>403.8975524902344</v>
       </c>
       <c r="GC3" t="n">
-        <v>292.8993225097656</v>
+        <v>397.9224853515625</v>
       </c>
       <c r="GD3" t="n">
-        <v>295.5238647460938</v>
+        <v>395.1173095703125</v>
       </c>
       <c r="GE3" t="n">
-        <v>291.9310302734375</v>
+        <v>399.5033569335938</v>
       </c>
       <c r="GF3" t="n">
-        <v>289.5310974121094</v>
+        <v>405.024658203125</v>
       </c>
       <c r="GG3" t="n">
-        <v>290.3378295898438</v>
+        <v>412.10595703125</v>
       </c>
       <c r="GH3" t="n">
-        <v>297.3640747070312</v>
+        <v>415.3427124023438</v>
       </c>
       <c r="GI3" t="n">
-        <v>300.7478332519531</v>
+        <v>416.4314880371094</v>
       </c>
       <c r="GJ3" t="n">
-        <v>305.5285034179688</v>
+        <v>416.0183410644531</v>
       </c>
       <c r="GK3" t="n">
-        <v>310.0341186523438</v>
+        <v>414.8853454589844</v>
       </c>
       <c r="GL3" t="n">
-        <v>313.8470764160156</v>
+        <v>414.9465637207031</v>
       </c>
       <c r="GM3" t="n">
-        <v>308.10546875</v>
+        <v>413.5394592285156</v>
       </c>
       <c r="GN3" t="n">
-        <v>311.3516235351562</v>
+        <v>411.8137512207031</v>
       </c>
       <c r="GO3" t="n">
-        <v>313.9263305664062</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>315.1647338867188</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>321.099853515625</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>325.4111022949219</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>329.5591125488281</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>338.4636840820312</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>341.3304138183594</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>345.5737609863281</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>352.1470642089844</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>361.7698974609375</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>402.3247985839844</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>445.4036560058594</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>447.6472778320312</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>491.6030578613281</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>520.451416015625</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>484.7759704589844</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>478.00244140625</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>473.6380004882812</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>470.508544921875</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>469.5525207519531</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>474.2944946289062</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>475.3750915527344</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>475.0839233398438</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>479.9703674316406</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>499.1580505371094</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>515.1034545898438</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>519.7452392578125</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>519.2903442382812</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>519.3531494140625</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>512.6350708007812</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>500.7947692871094</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>497.4440612792969</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>494.8526611328125</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>504.4210205078125</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>502.6818542480469</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>500.7333679199219</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>501.3045043945312</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>496.0827331542969</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>485.4058532714844</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>479.9558410644531</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>475.9613952636719</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>476.6983032226562</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>477.9310913085938</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>478.579345703125</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>481.50244140625</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>489.3934326171875</v>
-      </c>
-      <c r="II3" t="n">
-        <v>487.5810241699219</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>487.1604614257812</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>487.5421752929688</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>487.1488952636719</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>486.7013854980469</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>486.4215087890625</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>486.1033630371094</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>485.8492431640625</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>485.6303100585938</v>
+        <v>413.7876586914062</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1493.834228515625</v>
+        <v>750.2814331054688</v>
       </c>
       <c r="C4" t="n">
-        <v>1497.450805664062</v>
+        <v>776.5335693359375</v>
       </c>
       <c r="D4" t="n">
-        <v>1494.508056640625</v>
+        <v>776.896484375</v>
       </c>
       <c r="E4" t="n">
-        <v>1497.066162109375</v>
+        <v>781.0657348632812</v>
       </c>
       <c r="F4" t="n">
-        <v>1497.459106445312</v>
+        <v>787.035400390625</v>
       </c>
       <c r="G4" t="n">
-        <v>1498.535522460938</v>
+        <v>782.9500122070312</v>
       </c>
       <c r="H4" t="n">
-        <v>1497.475463867188</v>
+        <v>783.7056884765625</v>
       </c>
       <c r="I4" t="n">
-        <v>1495.015014648438</v>
+        <v>790.39697265625</v>
       </c>
       <c r="J4" t="n">
-        <v>1490.780151367188</v>
+        <v>785.2294921875</v>
       </c>
       <c r="K4" t="n">
-        <v>1483.623291015625</v>
+        <v>785.9290771484375</v>
       </c>
       <c r="L4" t="n">
-        <v>1472.285400390625</v>
+        <v>792.5064697265625</v>
       </c>
       <c r="M4" t="n">
-        <v>1468.918701171875</v>
+        <v>786.6743774414062</v>
       </c>
       <c r="N4" t="n">
-        <v>1466.3115234375</v>
+        <v>787.0030517578125</v>
       </c>
       <c r="O4" t="n">
-        <v>1465.816162109375</v>
+        <v>794.1502685546875</v>
       </c>
       <c r="P4" t="n">
-        <v>1467.478637695312</v>
+        <v>794.675048828125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1469.620483398438</v>
+        <v>794.9613037109375</v>
       </c>
       <c r="R4" t="n">
-        <v>1474.783569335938</v>
+        <v>795.2528076171875</v>
       </c>
       <c r="S4" t="n">
-        <v>1479.989501953125</v>
+        <v>787.9276733398438</v>
       </c>
       <c r="T4" t="n">
-        <v>1487.5654296875</v>
+        <v>788.5272827148438</v>
       </c>
       <c r="U4" t="n">
-        <v>1496.590454101562</v>
+        <v>796.2206420898438</v>
       </c>
       <c r="V4" t="n">
-        <v>1489.861572265625</v>
+        <v>789.570068359375</v>
       </c>
       <c r="W4" t="n">
-        <v>1475.885009765625</v>
+        <v>789.6844482421875</v>
       </c>
       <c r="X4" t="n">
-        <v>1462.893676757812</v>
+        <v>797.236083984375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1469.556640625</v>
+        <v>790.2105102539062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1464.238891601562</v>
+        <v>790.5113525390625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1450.634643554688</v>
+        <v>798.091796875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1418.561889648438</v>
+        <v>790.9995727539062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1388.6875</v>
+        <v>791.290771484375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1366.873046875</v>
+        <v>798.8860473632812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1346.065063476562</v>
+        <v>791.7906494140625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1328.579467773438</v>
+        <v>792.07958984375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1316.766845703125</v>
+        <v>799.931884765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1314.369018554688</v>
+        <v>800.2509155273438</v>
       </c>
       <c r="AI4" t="n">
-        <v>1306.325927734375</v>
+        <v>800.5802001953125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1290.796875</v>
+        <v>801.1968994140625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1277.359252929688</v>
+        <v>793.1282958984375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1264.833618164062</v>
+        <v>802.3670654296875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1249.3515625</v>
+        <v>794.9705810546875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1245.288208007812</v>
+        <v>803.7743530273438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1239.092895507812</v>
+        <v>795.8169555664062</v>
       </c>
       <c r="AP4" t="n">
-        <v>1230.823974609375</v>
+        <v>804.93359375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1227.08056640625</v>
+        <v>797.0874633789062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1228.474975585938</v>
+        <v>817.7796630859375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1229.692138671875</v>
+        <v>840.5853271484375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1231.472778320312</v>
+        <v>892.0736083984375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1233.078857421875</v>
+        <v>917.39794921875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1234.701782226562</v>
+        <v>944.5524291992188</v>
       </c>
       <c r="AW4" t="n">
-        <v>1236.591186523438</v>
+        <v>969.1734619140625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1239.231811523438</v>
+        <v>989.8952026367188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1241.650024414062</v>
+        <v>1013.520385742188</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1243.864624023438</v>
+        <v>1036.542358398438</v>
       </c>
       <c r="BA4" t="n">
-        <v>1246.20068359375</v>
+        <v>1043.758422851562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1246.871948242188</v>
+        <v>1051.6474609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1247.822998046875</v>
+        <v>1053.947021484375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1247.30517578125</v>
+        <v>1053.999633789062</v>
       </c>
       <c r="BE4" t="n">
-        <v>1246.281372070312</v>
+        <v>1054.411254882812</v>
       </c>
       <c r="BF4" t="n">
-        <v>1246.467407226562</v>
+        <v>1054.734619140625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1246.995849609375</v>
+        <v>1055.043701171875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1247.6279296875</v>
+        <v>1056.168701171875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1248.04345703125</v>
+        <v>1058.776977539062</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1248.41845703125</v>
+        <v>1068.763671875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1248.209106445312</v>
+        <v>1082.98095703125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1247.611328125</v>
+        <v>1084.309204101562</v>
       </c>
       <c r="BM4" t="n">
-        <v>1245.563720703125</v>
+        <v>1089.146484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1242.333862304688</v>
+        <v>1090.004028320312</v>
       </c>
       <c r="BO4" t="n">
-        <v>1235.519287109375</v>
+        <v>1089.627563476562</v>
       </c>
       <c r="BP4" t="n">
-        <v>1225.288696289062</v>
+        <v>1087.8720703125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1216.045776367188</v>
+        <v>1087.207275390625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1208.1630859375</v>
+        <v>1090.537719726562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1200.239624023438</v>
+        <v>1091.450317382812</v>
       </c>
       <c r="BT4" t="n">
-        <v>1187.573486328125</v>
+        <v>1091.7177734375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1184.744384765625</v>
+        <v>1090.848876953125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1185.088500976562</v>
+        <v>1090.123168945312</v>
       </c>
       <c r="BW4" t="n">
-        <v>1184.44921875</v>
+        <v>1090.76171875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1183.484130859375</v>
+        <v>1091.035034179688</v>
       </c>
       <c r="BY4" t="n">
-        <v>1181.822387695312</v>
+        <v>1091.595336914062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1176.033203125</v>
+        <v>1093.577514648438</v>
       </c>
       <c r="CA4" t="n">
-        <v>1167.403076171875</v>
+        <v>1096.96337890625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1163.87646484375</v>
+        <v>1099.877197265625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1163.485473632812</v>
+        <v>1105.83935546875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1163.017578125</v>
+        <v>1109.5029296875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1161.013061523438</v>
+        <v>1108.397216796875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1151.020263671875</v>
+        <v>1108.845947265625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1146.348754882812</v>
+        <v>1108.445556640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1146.84130859375</v>
+        <v>1104.5087890625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1147.393188476562</v>
+        <v>1097.21044921875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1148.027709960938</v>
+        <v>1093.19775390625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1150.492553710938</v>
+        <v>1098.343383789062</v>
       </c>
       <c r="CL4" t="n">
-        <v>1176.7587890625</v>
+        <v>1100.283935546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1196.618896484375</v>
+        <v>1101.267333984375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1199.358032226562</v>
+        <v>1104.320678710938</v>
       </c>
       <c r="CO4" t="n">
-        <v>1210.52294921875</v>
+        <v>1106.452880859375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1219.814331054688</v>
+        <v>1107.117919921875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1224.50146484375</v>
+        <v>1109.766357421875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1229.35302734375</v>
+        <v>1114.530151367188</v>
       </c>
       <c r="CS4" t="n">
-        <v>1234.013305664062</v>
+        <v>1117.031494140625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1244.087646484375</v>
+        <v>1118.345458984375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1246.406494140625</v>
+        <v>1121.103393554688</v>
       </c>
       <c r="CV4" t="n">
-        <v>1248.461303710938</v>
+        <v>1122.701538085938</v>
       </c>
       <c r="CW4" t="n">
-        <v>1250.391845703125</v>
+        <v>1124.7587890625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1250.75341796875</v>
+        <v>1125.297485351562</v>
       </c>
       <c r="CY4" t="n">
-        <v>1250.2138671875</v>
+        <v>1124.257690429688</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1247.717529296875</v>
+        <v>1124.522583007812</v>
       </c>
       <c r="DA4" t="n">
-        <v>1241.697021484375</v>
+        <v>1124.659057617188</v>
       </c>
       <c r="DB4" t="n">
-        <v>1228.937255859375</v>
+        <v>1124.782958984375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1196.788330078125</v>
+        <v>1124.190673828125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1192.12353515625</v>
+        <v>1123.545043945312</v>
       </c>
       <c r="DE4" t="n">
-        <v>1183.992431640625</v>
+        <v>1122.661254882812</v>
       </c>
       <c r="DF4" t="n">
-        <v>1164.494384765625</v>
+        <v>1121.207275390625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1156.18408203125</v>
+        <v>1119.287963867188</v>
       </c>
       <c r="DH4" t="n">
-        <v>1157.227294921875</v>
+        <v>1108.573608398438</v>
       </c>
       <c r="DI4" t="n">
-        <v>1156.296020507812</v>
+        <v>1096.760131835938</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1155.928833007812</v>
+        <v>1085.956787109375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1156.439697265625</v>
+        <v>1080.001220703125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1157.748291015625</v>
+        <v>1074.464599609375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1160.255737304688</v>
+        <v>1068.278686523438</v>
       </c>
       <c r="DN4" t="n">
-        <v>1177.882568359375</v>
+        <v>1061.539672851562</v>
       </c>
       <c r="DO4" t="n">
-        <v>1183.740356445312</v>
+        <v>1044.116821289062</v>
       </c>
       <c r="DP4" t="n">
-        <v>1196.661743164062</v>
+        <v>1038.187255859375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1210.468872070312</v>
+        <v>1033.868530273438</v>
       </c>
       <c r="DR4" t="n">
-        <v>1223.463745117188</v>
+        <v>1032.662841796875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1239.328369140625</v>
+        <v>1033.081909179688</v>
       </c>
       <c r="DT4" t="n">
-        <v>1249.375854492188</v>
+        <v>1037.849243164062</v>
       </c>
       <c r="DU4" t="n">
-        <v>1249.60205078125</v>
+        <v>1041.865356445312</v>
       </c>
       <c r="DV4" t="n">
-        <v>1252.274658203125</v>
+        <v>1049.9033203125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1253.7861328125</v>
+        <v>1072.344604492188</v>
       </c>
       <c r="DX4" t="n">
-        <v>1253.998779296875</v>
+        <v>1079.482788085938</v>
       </c>
       <c r="DY4" t="n">
-        <v>1252.4453125</v>
+        <v>1101.954956054688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1251.121826171875</v>
+        <v>1110.088989257812</v>
       </c>
       <c r="EA4" t="n">
-        <v>1249.238403320312</v>
+        <v>1113.314819335938</v>
       </c>
       <c r="EB4" t="n">
-        <v>1238.544067382812</v>
+        <v>1112.833618164062</v>
       </c>
       <c r="EC4" t="n">
-        <v>1207.83203125</v>
+        <v>1110.580444335938</v>
       </c>
       <c r="ED4" t="n">
-        <v>1192.446655273438</v>
+        <v>1111.880615234375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1190.357055664062</v>
+        <v>1152.08740234375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1175.962768554688</v>
+        <v>1168.717651367188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1166.051513671875</v>
+        <v>1174.493896484375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1155.285278320312</v>
+        <v>1188.573486328125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1147.7744140625</v>
+        <v>1207.70361328125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1146.110229492188</v>
+        <v>1226.124267578125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1146.604736328125</v>
+        <v>1245.98681640625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1147.294921875</v>
+        <v>1257.144409179688</v>
       </c>
       <c r="EM4" t="n">
-        <v>1149.426025390625</v>
+        <v>1271.867431640625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1152.305053710938</v>
+        <v>1278.886352539062</v>
       </c>
       <c r="EO4" t="n">
-        <v>1153.518676757812</v>
+        <v>1296.513305664062</v>
       </c>
       <c r="EP4" t="n">
-        <v>1153.7255859375</v>
+        <v>1301.560913085938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1153.039672851562</v>
+        <v>1304.977294921875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1152.1708984375</v>
+        <v>1305.111694335938</v>
       </c>
       <c r="ES4" t="n">
-        <v>1149.522338867188</v>
+        <v>1305.4326171875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1147.928344726562</v>
+        <v>1303.76904296875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1144.18798828125</v>
+        <v>1302.174072265625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1138.23828125</v>
+        <v>1301.03076171875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1136.279663085938</v>
+        <v>1299.271240234375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1132.975830078125</v>
+        <v>1296.845092773438</v>
       </c>
       <c r="EY4" t="n">
-        <v>1130.625854492188</v>
+        <v>1295.07763671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1128.310546875</v>
+        <v>1193.562866210938</v>
       </c>
       <c r="FA4" t="n">
-        <v>1126.043579101562</v>
+        <v>1157.251342773438</v>
       </c>
       <c r="FB4" t="n">
-        <v>1123.516967773438</v>
+        <v>1249.622314453125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1118.6650390625</v>
+        <v>1236.035888671875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1114.265258789062</v>
+        <v>1229.059204101562</v>
       </c>
       <c r="FE4" t="n">
-        <v>1115.291748046875</v>
+        <v>1194.443481445312</v>
       </c>
       <c r="FF4" t="n">
-        <v>1114.871948242188</v>
+        <v>1175.0224609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1114.594604492188</v>
+        <v>1130.063598632812</v>
       </c>
       <c r="FH4" t="n">
-        <v>1114.034912109375</v>
+        <v>1086.983642578125</v>
       </c>
       <c r="FI4" t="n">
-        <v>1113.755981445312</v>
+        <v>1121.925048828125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1114.562622070312</v>
+        <v>1097.031616210938</v>
       </c>
       <c r="FK4" t="n">
-        <v>1091.507080078125</v>
+        <v>1058.7666015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1053.272583007812</v>
+        <v>1037.124145507812</v>
       </c>
       <c r="FM4" t="n">
-        <v>1037.333618164062</v>
+        <v>986.24365234375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1008.741516113281</v>
+        <v>939.2012329101562</v>
       </c>
       <c r="FO4" t="n">
-        <v>995.6659545898438</v>
+        <v>915.8731689453125</v>
       </c>
       <c r="FP4" t="n">
-        <v>978.96630859375</v>
+        <v>898.7218627929688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>948.88671875</v>
+        <v>869.9359130859375</v>
       </c>
       <c r="FR4" t="n">
-        <v>940.1401977539062</v>
+        <v>861.1884155273438</v>
       </c>
       <c r="FS4" t="n">
-        <v>915.727783203125</v>
+        <v>845.2396240234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>894.6979370117188</v>
+        <v>832.9254150390625</v>
       </c>
       <c r="FU4" t="n">
-        <v>887.9022216796875</v>
+        <v>821.3331298828125</v>
       </c>
       <c r="FV4" t="n">
-        <v>877.2150268554688</v>
+        <v>818.6038208007812</v>
       </c>
       <c r="FW4" t="n">
-        <v>872.0113525390625</v>
+        <v>800.8673706054688</v>
       </c>
       <c r="FX4" t="n">
-        <v>856.901611328125</v>
+        <v>811.7667846679688</v>
       </c>
       <c r="FY4" t="n">
-        <v>848.3884887695312</v>
+        <v>823.61962890625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>842.1300659179688</v>
+        <v>830.545166015625</v>
       </c>
       <c r="GA4" t="n">
-        <v>835.76513671875</v>
+        <v>843.4418334960938</v>
       </c>
       <c r="GB4" t="n">
-        <v>826.5853881835938</v>
+        <v>847.7811279296875</v>
       </c>
       <c r="GC4" t="n">
-        <v>826.8367919921875</v>
+        <v>861.1636962890625</v>
       </c>
       <c r="GD4" t="n">
-        <v>827.4310913085938</v>
+        <v>872.1350708007812</v>
       </c>
       <c r="GE4" t="n">
-        <v>827.8025512695312</v>
+        <v>870.4942016601562</v>
       </c>
       <c r="GF4" t="n">
-        <v>810.22998046875</v>
+        <v>865.2272338867188</v>
       </c>
       <c r="GG4" t="n">
-        <v>761.4384765625</v>
+        <v>847.7041625976562</v>
       </c>
       <c r="GH4" t="n">
-        <v>719.5877685546875</v>
+        <v>834.7334594726562</v>
       </c>
       <c r="GI4" t="n">
-        <v>677.2830810546875</v>
+        <v>829.4362182617188</v>
       </c>
       <c r="GJ4" t="n">
-        <v>641.6145629882812</v>
+        <v>824.8095703125</v>
       </c>
       <c r="GK4" t="n">
-        <v>624.7935791015625</v>
+        <v>802.978515625</v>
       </c>
       <c r="GL4" t="n">
-        <v>610.8466186523438</v>
+        <v>788.4967041015625</v>
       </c>
       <c r="GM4" t="n">
-        <v>609.9031982421875</v>
+        <v>763.0608520507812</v>
       </c>
       <c r="GN4" t="n">
-        <v>609.7900390625</v>
+        <v>734.6966552734375</v>
       </c>
       <c r="GO4" t="n">
-        <v>610.5652465820312</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>612.35888671875</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>621.5193481445312</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>625.5693359375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>622.0394897460938</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>621.890869140625</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>668.282958984375</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>701.674072265625</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>717.7379150390625</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>725.8751831054688</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>721.621337890625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>692.2633056640625</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>716.3670043945312</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>682.7294921875</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>671.828369140625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>717.7548217773438</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>748.8672485351562</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>767.1343994140625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>782.3035888671875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>785.5716552734375</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>785.0494384765625</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>783.678955078125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>782.5586547851562</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>751.9796142578125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>736.4568481445312</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>703.7258911132812</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>694.94189453125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>695.251708984375</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>695.6734008789062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>694.6566772460938</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>693.2297973632812</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>690.85400390625</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>690.210693359375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>595.5999755859375</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>596.8397216796875</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>599.63623046875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>601.995361328125</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>621.4041137695312</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>662.2332153320312</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>695.2448120117188</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>714.571533203125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>715.9984130859375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>717.1609497070312</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>715.2984008789062</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>707.7118530273438</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>683.9540405273438</v>
-      </c>
-      <c r="II4" t="n">
-        <v>679.3936157226562</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>680.3307495117188</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>681.0198974609375</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>681.543212890625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>681.712646484375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>681.7870483398438</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>681.7542724609375</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>682.0374755859375</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>682.7612915039062</v>
+        <v>719.2565307617188</v>
       </c>
     </row>
   </sheetData>

--- a/right_elbow_Data.xlsx
+++ b/right_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>122.8140563964844</v>
       </c>
       <c r="B2" t="n">
-        <v>261.5791625976562</v>
+        <v>122.7290496826172</v>
       </c>
       <c r="C2" t="n">
-        <v>259.659423828125</v>
+        <v>122.6107330322266</v>
       </c>
       <c r="D2" t="n">
-        <v>269.712646484375</v>
+        <v>122.4893341064453</v>
       </c>
       <c r="E2" t="n">
-        <v>267.8492736816406</v>
+        <v>122.3735733032227</v>
       </c>
       <c r="F2" t="n">
-        <v>261.2960205078125</v>
+        <v>122.2372283935547</v>
       </c>
       <c r="G2" t="n">
-        <v>271.4861450195312</v>
+        <v>122.1107788085938</v>
       </c>
       <c r="H2" t="n">
-        <v>272.9010925292969</v>
+        <v>121.9886016845703</v>
       </c>
       <c r="I2" t="n">
-        <v>261.4904479980469</v>
+        <v>121.9680938720703</v>
       </c>
       <c r="J2" t="n">
-        <v>272.6317138671875</v>
+        <v>121.9130020141602</v>
       </c>
       <c r="K2" t="n">
-        <v>271.6446228027344</v>
+        <v>121.9413146972656</v>
       </c>
       <c r="L2" t="n">
-        <v>260.9612121582031</v>
+        <v>121.8985824584961</v>
       </c>
       <c r="M2" t="n">
-        <v>272.7429504394531</v>
+        <v>121.8932800292969</v>
       </c>
       <c r="N2" t="n">
-        <v>273.0702819824219</v>
+        <v>121.960075378418</v>
       </c>
       <c r="O2" t="n">
-        <v>259.9421081542969</v>
+        <v>122.0148315429688</v>
       </c>
       <c r="P2" t="n">
-        <v>259.5075073242188</v>
+        <v>122.1366806030273</v>
       </c>
       <c r="Q2" t="n">
-        <v>259.6827697753906</v>
+        <v>122.5455932617188</v>
       </c>
       <c r="R2" t="n">
-        <v>259.8472595214844</v>
+        <v>123.2188110351562</v>
       </c>
       <c r="S2" t="n">
-        <v>280.6221313476562</v>
+        <v>123.8226470947266</v>
       </c>
       <c r="T2" t="n">
-        <v>275.9849548339844</v>
+        <v>124.42431640625</v>
       </c>
       <c r="U2" t="n">
-        <v>260.3081970214844</v>
+        <v>125.2816848754883</v>
       </c>
       <c r="V2" t="n">
-        <v>272.5117797851562</v>
+        <v>126.393440246582</v>
       </c>
       <c r="W2" t="n">
-        <v>273.4046936035156</v>
+        <v>127.0681076049805</v>
       </c>
       <c r="X2" t="n">
-        <v>260.4693603515625</v>
+        <v>128.1235504150391</v>
       </c>
       <c r="Y2" t="n">
-        <v>273.3892822265625</v>
+        <v>132.1462554931641</v>
       </c>
       <c r="Z2" t="n">
-        <v>273.1520080566406</v>
+        <v>138.014404296875</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.6803588867188</v>
+        <v>143.35107421875</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.5824890136719</v>
+        <v>150.0196075439453</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.4819946289062</v>
+        <v>160.6897125244141</v>
       </c>
       <c r="AD2" t="n">
-        <v>261.0239868164062</v>
+        <v>171.7428283691406</v>
       </c>
       <c r="AE2" t="n">
-        <v>274.0544738769531</v>
+        <v>182.8141784667969</v>
       </c>
       <c r="AF2" t="n">
-        <v>274.119873046875</v>
+        <v>193.6838684082031</v>
       </c>
       <c r="AG2" t="n">
-        <v>260.9570007324219</v>
+        <v>201.6507568359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>261.0091857910156</v>
+        <v>209.8659057617188</v>
       </c>
       <c r="AI2" t="n">
-        <v>261.033935546875</v>
+        <v>217.8360290527344</v>
       </c>
       <c r="AJ2" t="n">
-        <v>260.8882141113281</v>
+        <v>225.4580993652344</v>
       </c>
       <c r="AK2" t="n">
-        <v>279.8106994628906</v>
+        <v>232.7148742675781</v>
       </c>
       <c r="AL2" t="n">
-        <v>260.8294067382812</v>
+        <v>246.2602233886719</v>
       </c>
       <c r="AM2" t="n">
-        <v>274.941650390625</v>
+        <v>246.2782592773438</v>
       </c>
       <c r="AN2" t="n">
-        <v>260.8310546875</v>
+        <v>249.0232086181641</v>
       </c>
       <c r="AO2" t="n">
-        <v>273.9496459960938</v>
+        <v>245.4530487060547</v>
       </c>
       <c r="AP2" t="n">
-        <v>260.9495544433594</v>
+        <v>246.4523620605469</v>
       </c>
       <c r="AQ2" t="n">
-        <v>272.3442077636719</v>
+        <v>246.203857421875</v>
       </c>
       <c r="AR2" t="n">
-        <v>264.3577880859375</v>
+        <v>246.2892303466797</v>
       </c>
       <c r="AS2" t="n">
-        <v>268.0765991210938</v>
+        <v>246.8248901367188</v>
       </c>
       <c r="AT2" t="n">
-        <v>290.2173461914062</v>
+        <v>247.787353515625</v>
       </c>
       <c r="AU2" t="n">
-        <v>296.8173828125</v>
+        <v>213.5688934326172</v>
       </c>
       <c r="AV2" t="n">
-        <v>305.5261840820312</v>
+        <v>213.5982666015625</v>
       </c>
       <c r="AW2" t="n">
-        <v>312.4027099609375</v>
+        <v>215.0231170654297</v>
       </c>
       <c r="AX2" t="n">
-        <v>318.7843627929688</v>
+        <v>216.7590026855469</v>
       </c>
       <c r="AY2" t="n">
-        <v>329.4198303222656</v>
+        <v>217.6910400390625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>336.7998657226562</v>
+        <v>219.5697174072266</v>
       </c>
       <c r="BA2" t="n">
-        <v>342.7840881347656</v>
+        <v>221.2394409179688</v>
       </c>
       <c r="BB2" t="n">
-        <v>347.8677978515625</v>
+        <v>223.5872192382812</v>
       </c>
       <c r="BC2" t="n">
-        <v>350.3994445800781</v>
+        <v>226.5169372558594</v>
       </c>
       <c r="BD2" t="n">
-        <v>353.1967468261719</v>
+        <v>232.2145843505859</v>
       </c>
       <c r="BE2" t="n">
-        <v>355.3937377929688</v>
+        <v>238.416015625</v>
       </c>
       <c r="BF2" t="n">
-        <v>356.2069091796875</v>
+        <v>243.6085205078125</v>
       </c>
       <c r="BG2" t="n">
-        <v>356.7547607421875</v>
+        <v>247.7153778076172</v>
       </c>
       <c r="BH2" t="n">
-        <v>357.2418212890625</v>
+        <v>249.0278930664062</v>
       </c>
       <c r="BI2" t="n">
-        <v>357.2587585449219</v>
+        <v>251.8264770507812</v>
       </c>
       <c r="BJ2" t="n">
-        <v>353.4932861328125</v>
+        <v>253.9874267578125</v>
       </c>
       <c r="BK2" t="n">
-        <v>334.720947265625</v>
+        <v>256.2767944335938</v>
       </c>
       <c r="BL2" t="n">
-        <v>327.1536254882812</v>
+        <v>262.9471130371094</v>
       </c>
       <c r="BM2" t="n">
-        <v>310.031005859375</v>
+        <v>269.0198364257812</v>
       </c>
       <c r="BN2" t="n">
-        <v>300.6112976074219</v>
+        <v>274.2097473144531</v>
       </c>
       <c r="BO2" t="n">
-        <v>293.3773498535156</v>
+        <v>275.5674743652344</v>
       </c>
       <c r="BP2" t="n">
-        <v>286.0207214355469</v>
+        <v>278.3768005371094</v>
       </c>
       <c r="BQ2" t="n">
-        <v>281.2711181640625</v>
+        <v>283.0380554199219</v>
       </c>
       <c r="BR2" t="n">
-        <v>275.057373046875</v>
+        <v>286.0379333496094</v>
       </c>
       <c r="BS2" t="n">
-        <v>264.1456298828125</v>
+        <v>288.448486328125</v>
       </c>
       <c r="BT2" t="n">
-        <v>253.9221496582031</v>
+        <v>291.912353515625</v>
       </c>
       <c r="BU2" t="n">
-        <v>247.4739990234375</v>
+        <v>293.1697998046875</v>
       </c>
       <c r="BV2" t="n">
-        <v>244.4654235839844</v>
+        <v>297.4377746582031</v>
       </c>
       <c r="BW2" t="n">
-        <v>238.4680328369141</v>
+        <v>299.008544921875</v>
       </c>
       <c r="BX2" t="n">
-        <v>230.5554809570312</v>
+        <v>302.5394287109375</v>
       </c>
       <c r="BY2" t="n">
-        <v>224.3087158203125</v>
+        <v>305.6120300292969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>219.4517517089844</v>
+        <v>306.6113586425781</v>
       </c>
       <c r="CA2" t="n">
-        <v>218.0893707275391</v>
+        <v>309.9277038574219</v>
       </c>
       <c r="CB2" t="n">
-        <v>216.0249938964844</v>
+        <v>313.3432312011719</v>
       </c>
       <c r="CC2" t="n">
-        <v>214.0901489257812</v>
+        <v>314.5559692382812</v>
       </c>
       <c r="CD2" t="n">
-        <v>208.9317626953125</v>
+        <v>315.7372131347656</v>
       </c>
       <c r="CE2" t="n">
-        <v>200.0062408447266</v>
+        <v>316.4582214355469</v>
       </c>
       <c r="CF2" t="n">
-        <v>190.322998046875</v>
+        <v>316.4734497070312</v>
       </c>
       <c r="CG2" t="n">
-        <v>184.7355499267578</v>
+        <v>316.6076354980469</v>
       </c>
       <c r="CH2" t="n">
-        <v>180.2309265136719</v>
+        <v>316.6674194335938</v>
       </c>
       <c r="CI2" t="n">
-        <v>179.901123046875</v>
+        <v>316.5912780761719</v>
       </c>
       <c r="CJ2" t="n">
-        <v>179.8890686035156</v>
+        <v>316.5533142089844</v>
       </c>
       <c r="CK2" t="n">
-        <v>186.3946533203125</v>
+        <v>316.3685913085938</v>
       </c>
       <c r="CL2" t="n">
-        <v>194.8629913330078</v>
+        <v>315.8719482421875</v>
       </c>
       <c r="CM2" t="n">
-        <v>198.0321044921875</v>
+        <v>315.2048034667969</v>
       </c>
       <c r="CN2" t="n">
-        <v>201.6028594970703</v>
+        <v>313.990478515625</v>
       </c>
       <c r="CO2" t="n">
-        <v>206.5449829101562</v>
+        <v>312.4081726074219</v>
       </c>
       <c r="CP2" t="n">
-        <v>213.7343444824219</v>
+        <v>310.4542236328125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>221.4915161132812</v>
+        <v>309.1163635253906</v>
       </c>
       <c r="CR2" t="n">
-        <v>235.37744140625</v>
+        <v>308.3511657714844</v>
       </c>
       <c r="CS2" t="n">
-        <v>242.8949890136719</v>
+        <v>306.7086181640625</v>
       </c>
       <c r="CT2" t="n">
-        <v>251.1392517089844</v>
+        <v>307.1032104492188</v>
       </c>
       <c r="CU2" t="n">
-        <v>259.0993347167969</v>
+        <v>306.6961669921875</v>
       </c>
       <c r="CV2" t="n">
-        <v>266.7886352539062</v>
+        <v>305.5665588378906</v>
       </c>
       <c r="CW2" t="n">
-        <v>274.3060302734375</v>
+        <v>301.8777770996094</v>
       </c>
       <c r="CX2" t="n">
-        <v>279.7335510253906</v>
+        <v>300.0220031738281</v>
       </c>
       <c r="CY2" t="n">
-        <v>286.1932373046875</v>
+        <v>299.9299011230469</v>
       </c>
       <c r="CZ2" t="n">
-        <v>292.1301574707031</v>
+        <v>298.1840515136719</v>
       </c>
       <c r="DA2" t="n">
-        <v>297.6395263671875</v>
+        <v>296.3293151855469</v>
       </c>
       <c r="DB2" t="n">
-        <v>308.8896484375</v>
+        <v>295.876220703125</v>
       </c>
       <c r="DC2" t="n">
-        <v>312.8479919433594</v>
+        <v>295.1200256347656</v>
       </c>
       <c r="DD2" t="n">
-        <v>316.595947265625</v>
+        <v>294.2693176269531</v>
       </c>
       <c r="DE2" t="n">
-        <v>320.399169921875</v>
+        <v>292.9459228515625</v>
       </c>
       <c r="DF2" t="n">
-        <v>323.776123046875</v>
+        <v>291.7631530761719</v>
       </c>
       <c r="DG2" t="n">
-        <v>325.9859619140625</v>
+        <v>291.8472290039062</v>
       </c>
       <c r="DH2" t="n">
-        <v>331.1236267089844</v>
+        <v>291.8435668945312</v>
       </c>
       <c r="DI2" t="n">
-        <v>332.2017211914062</v>
+        <v>291.812744140625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.2623291015625</v>
+        <v>291.5695190429688</v>
       </c>
       <c r="DK2" t="n">
-        <v>332.2644653320312</v>
+        <v>291.2331237792969</v>
       </c>
       <c r="DL2" t="n">
-        <v>332.1884155273438</v>
+        <v>290.6445617675781</v>
       </c>
       <c r="DM2" t="n">
-        <v>332.0122680664062</v>
+        <v>289.5117492675781</v>
       </c>
       <c r="DN2" t="n">
-        <v>330.6580810546875</v>
+        <v>288.5543823242188</v>
       </c>
       <c r="DO2" t="n">
-        <v>322.3828735351562</v>
+        <v>287.605712890625</v>
       </c>
       <c r="DP2" t="n">
-        <v>317.450439453125</v>
+        <v>288.0916748046875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>306.2388610839844</v>
+        <v>288.8588562011719</v>
       </c>
       <c r="DR2" t="n">
-        <v>301.5320434570312</v>
+        <v>288.6396179199219</v>
       </c>
       <c r="DS2" t="n">
-        <v>297.276611328125</v>
+        <v>288.3414001464844</v>
       </c>
       <c r="DT2" t="n">
-        <v>290.9462280273438</v>
+        <v>288.4099426269531</v>
       </c>
       <c r="DU2" t="n">
-        <v>285.8804626464844</v>
+        <v>288.3465881347656</v>
       </c>
       <c r="DV2" t="n">
-        <v>283.6429138183594</v>
+        <v>288.2796936035156</v>
       </c>
       <c r="DW2" t="n">
-        <v>276.9415283203125</v>
+        <v>288.0846252441406</v>
       </c>
       <c r="DX2" t="n">
-        <v>273.7030029296875</v>
+        <v>287.9582214355469</v>
       </c>
       <c r="DY2" t="n">
-        <v>269.0321044921875</v>
+        <v>287.8995971679688</v>
       </c>
       <c r="DZ2" t="n">
-        <v>266.5552368164062</v>
+        <v>287.9034118652344</v>
       </c>
       <c r="EA2" t="n">
-        <v>259.3729553222656</v>
+        <v>287.7535705566406</v>
       </c>
       <c r="EB2" t="n">
-        <v>255.2576904296875</v>
+        <v>287.4837951660156</v>
       </c>
       <c r="EC2" t="n">
-        <v>255.7621154785156</v>
+        <v>286.7019348144531</v>
       </c>
       <c r="ED2" t="n">
-        <v>255.8508453369141</v>
+        <v>286.897216796875</v>
       </c>
       <c r="EE2" t="n">
-        <v>262.0830688476562</v>
+        <v>287.5146484375</v>
       </c>
       <c r="EF2" t="n">
-        <v>266.0986633300781</v>
+        <v>287.8138427734375</v>
       </c>
       <c r="EG2" t="n">
-        <v>272.3903198242188</v>
+        <v>289.3059387207031</v>
       </c>
       <c r="EH2" t="n">
-        <v>277.3916015625</v>
+        <v>290.42919921875</v>
       </c>
       <c r="EI2" t="n">
-        <v>281.0817565917969</v>
+        <v>292.1067199707031</v>
       </c>
       <c r="EJ2" t="n">
-        <v>283.8136901855469</v>
+        <v>291.9270935058594</v>
       </c>
       <c r="EK2" t="n">
-        <v>289.7963562011719</v>
+        <v>292.0357666015625</v>
       </c>
       <c r="EL2" t="n">
-        <v>293.3347473144531</v>
+        <v>292.1199951171875</v>
       </c>
       <c r="EM2" t="n">
-        <v>297.0815734863281</v>
+        <v>291.2376403808594</v>
       </c>
       <c r="EN2" t="n">
-        <v>297.7040100097656</v>
+        <v>284.6507263183594</v>
       </c>
       <c r="EO2" t="n">
-        <v>301.4584350585938</v>
+        <v>278.4638977050781</v>
       </c>
       <c r="EP2" t="n">
-        <v>303.5831604003906</v>
+        <v>272.7245178222656</v>
       </c>
       <c r="EQ2" t="n">
-        <v>305.5073547363281</v>
+        <v>270.6125793457031</v>
       </c>
       <c r="ER2" t="n">
-        <v>305.9804992675781</v>
+        <v>266.164794921875</v>
       </c>
       <c r="ES2" t="n">
-        <v>305.8468017578125</v>
+        <v>265.6996154785156</v>
       </c>
       <c r="ET2" t="n">
-        <v>303.036376953125</v>
+        <v>261.2542724609375</v>
       </c>
       <c r="EU2" t="n">
-        <v>289.6396484375</v>
+        <v>261.472900390625</v>
       </c>
       <c r="EV2" t="n">
-        <v>282.33837890625</v>
+        <v>260.2811279296875</v>
       </c>
       <c r="EW2" t="n">
-        <v>274.1985473632812</v>
+        <v>257.8881225585938</v>
       </c>
       <c r="EX2" t="n">
-        <v>272.6887817382812</v>
+        <v>256.984619140625</v>
       </c>
       <c r="EY2" t="n">
-        <v>272.5590515136719</v>
+        <v>257.0017700195312</v>
       </c>
       <c r="EZ2" t="n">
-        <v>333.9893188476562</v>
+        <v>254.7996826171875</v>
       </c>
       <c r="FA2" t="n">
-        <v>309.9877014160156</v>
+        <v>254.2164916992188</v>
       </c>
       <c r="FB2" t="n">
-        <v>250.7740173339844</v>
+        <v>253.9203033447266</v>
       </c>
       <c r="FC2" t="n">
-        <v>246.2837982177734</v>
+        <v>253.2209625244141</v>
       </c>
       <c r="FD2" t="n">
-        <v>247.0690612792969</v>
+        <v>253.7376098632812</v>
       </c>
       <c r="FE2" t="n">
-        <v>242.1086120605469</v>
+        <v>253.5919342041016</v>
       </c>
       <c r="FF2" t="n">
-        <v>238.4887084960938</v>
+        <v>253.6932220458984</v>
       </c>
       <c r="FG2" t="n">
-        <v>236.2819061279297</v>
+        <v>253.0797119140625</v>
       </c>
       <c r="FH2" t="n">
-        <v>237.3619689941406</v>
+        <v>254.4247283935547</v>
       </c>
       <c r="FI2" t="n">
-        <v>229.5178070068359</v>
+        <v>254.5771179199219</v>
       </c>
       <c r="FJ2" t="n">
-        <v>226.0316162109375</v>
+        <v>254.5434265136719</v>
       </c>
       <c r="FK2" t="n">
-        <v>226.51611328125</v>
+        <v>256.8761291503906</v>
       </c>
       <c r="FL2" t="n">
-        <v>226.1382751464844</v>
+        <v>257.4633178710938</v>
       </c>
       <c r="FM2" t="n">
-        <v>228.2011413574219</v>
+        <v>257.4650268554688</v>
       </c>
       <c r="FN2" t="n">
-        <v>237.1652221679688</v>
+        <v>257.6365661621094</v>
       </c>
       <c r="FO2" t="n">
-        <v>240.8691711425781</v>
+        <v>258.6542053222656</v>
       </c>
       <c r="FP2" t="n">
-        <v>247.3046569824219</v>
+        <v>260.8377990722656</v>
       </c>
       <c r="FQ2" t="n">
-        <v>263.0748596191406</v>
+        <v>263.7834777832031</v>
       </c>
       <c r="FR2" t="n">
-        <v>270.8296203613281</v>
+        <v>265.5106811523438</v>
       </c>
       <c r="FS2" t="n">
-        <v>277.8839111328125</v>
+        <v>270.9058227539062</v>
       </c>
       <c r="FT2" t="n">
-        <v>281.3618774414062</v>
+        <v>273.3246459960938</v>
       </c>
       <c r="FU2" t="n">
-        <v>281.8535766601562</v>
+        <v>280.9932250976562</v>
       </c>
       <c r="FV2" t="n">
-        <v>281.6188049316406</v>
+        <v>282.2218017578125</v>
       </c>
       <c r="FW2" t="n">
-        <v>337.0591430664062</v>
+        <v>288.1624450683594</v>
       </c>
       <c r="FX2" t="n">
-        <v>284.5627746582031</v>
+        <v>292.7970275878906</v>
       </c>
       <c r="FY2" t="n">
-        <v>274.6191101074219</v>
+        <v>295.5692749023438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>275.8099365234375</v>
+        <v>297.5242614746094</v>
       </c>
       <c r="GA2" t="n">
-        <v>274.6089477539062</v>
+        <v>299.6785583496094</v>
       </c>
       <c r="GB2" t="n">
-        <v>268.3627624511719</v>
+        <v>299.4780883789062</v>
       </c>
       <c r="GC2" t="n">
-        <v>248.9393463134766</v>
+        <v>299.6600952148438</v>
       </c>
       <c r="GD2" t="n">
-        <v>242.2796783447266</v>
+        <v>299.7200317382812</v>
       </c>
       <c r="GE2" t="n">
-        <v>238.56494140625</v>
+        <v>299.7363586425781</v>
       </c>
       <c r="GF2" t="n">
-        <v>230.7903442382812</v>
+        <v>299.0736999511719</v>
       </c>
       <c r="GG2" t="n">
-        <v>218.4983062744141</v>
+        <v>297.7904663085938</v>
       </c>
       <c r="GH2" t="n">
-        <v>208.7525329589844</v>
+        <v>292.66259765625</v>
       </c>
       <c r="GI2" t="n">
-        <v>205.8311767578125</v>
+        <v>290.1953735351562</v>
       </c>
       <c r="GJ2" t="n">
-        <v>203.3162689208984</v>
+        <v>289.4313354492188</v>
       </c>
       <c r="GK2" t="n">
-        <v>192.0129699707031</v>
+        <v>288.6812744140625</v>
       </c>
       <c r="GL2" t="n">
-        <v>185.0227203369141</v>
+        <v>288.0145263671875</v>
       </c>
       <c r="GM2" t="n">
-        <v>173.0962829589844</v>
+        <v>287.9084777832031</v>
       </c>
       <c r="GN2" t="n">
-        <v>163.0657043457031</v>
+        <v>287.7981262207031</v>
       </c>
       <c r="GO2" t="n">
-        <v>158.6684722900391</v>
+        <v>287.6493530273438</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>288.056884765625</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>288.8910827636719</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>290.7066650390625</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>291.0649108886719</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>290.9295654296875</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>290.4806213378906</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>289.5910034179688</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>288.7904052734375</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>288.1842956542969</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>286.8302001953125</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>286.5961303710938</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>286.4065246582031</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>285.7958679199219</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>285.2325439453125</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>284.1585998535156</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>278.9762878417969</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>278.4367980957031</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>277.6582336425781</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>276.645751953125</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>275.7668762207031</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>274.4528198242188</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>271.5922546386719</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>266.036376953125</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>263.8994445800781</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>262.8324584960938</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>262.0467529296875</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>260.7034606933594</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>258.8734130859375</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>256.35693359375</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>247.0599670410156</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>238.521240234375</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>233.3340759277344</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>225.5434417724609</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>213.78125</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>203.3082733154297</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>194.2310485839844</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>187.7329406738281</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>185.847412109375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>181.4865264892578</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>179.6921691894531</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>173.1261901855469</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>168.1375732421875</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>165.9942474365234</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>164.1455383300781</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>164.8028411865234</v>
+      </c>
+      <c r="II2" t="n">
+        <v>170.2637023925781</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>174.2030639648438</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>176.5289459228516</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>178.23291015625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>151.8116302490234</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>198.6484069824219</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>146.78564453125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>150.6468353271484</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>167.0579223632812</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>147.5727996826172</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>119.1564788818359</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>115.3876647949219</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>128.1805572509766</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>104.5729751586914</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>91.95648193359375</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>48.72866821289062</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>21.41642761230469</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>15.42516326904297</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>21.4055290222168</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>33.48085403442383</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>57.03993988037109</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>80.84799957275391</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>108.3833160400391</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>108.9339370727539</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>112.9294891357422</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>114.7787170410156</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>113.5852813720703</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>108.7991180419922</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>104.7701110839844</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>98.42612457275391</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>89.51683807373047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>277.0084533691406</v>
       </c>
       <c r="B3" t="n">
-        <v>361.6618041992188</v>
+        <v>276.8650512695312</v>
       </c>
       <c r="C3" t="n">
-        <v>352.3507385253906</v>
+        <v>276.9111633300781</v>
       </c>
       <c r="D3" t="n">
-        <v>328.8105163574219</v>
+        <v>277.0071105957031</v>
       </c>
       <c r="E3" t="n">
-        <v>325.9020385742188</v>
+        <v>277.1119995117188</v>
       </c>
       <c r="F3" t="n">
-        <v>344.9071655273438</v>
+        <v>277.2030639648438</v>
       </c>
       <c r="G3" t="n">
-        <v>328.2665100097656</v>
+        <v>277.3160705566406</v>
       </c>
       <c r="H3" t="n">
-        <v>328.3273315429688</v>
+        <v>277.4307556152344</v>
       </c>
       <c r="I3" t="n">
-        <v>345.4179077148438</v>
+        <v>277.4304809570312</v>
       </c>
       <c r="J3" t="n">
-        <v>328.7630615234375</v>
+        <v>277.4310302734375</v>
       </c>
       <c r="K3" t="n">
-        <v>328.4669189453125</v>
+        <v>277.4831848144531</v>
       </c>
       <c r="L3" t="n">
-        <v>345.1156005859375</v>
+        <v>277.7322692871094</v>
       </c>
       <c r="M3" t="n">
-        <v>328.318359375</v>
+        <v>277.9440307617188</v>
       </c>
       <c r="N3" t="n">
-        <v>328.2130737304688</v>
+        <v>278.1054077148438</v>
       </c>
       <c r="O3" t="n">
-        <v>344.8714294433594</v>
+        <v>278.2481994628906</v>
       </c>
       <c r="P3" t="n">
-        <v>344.8203430175781</v>
+        <v>278.2365417480469</v>
       </c>
       <c r="Q3" t="n">
-        <v>344.8034362792969</v>
+        <v>277.5474548339844</v>
       </c>
       <c r="R3" t="n">
-        <v>344.840576171875</v>
+        <v>276.2227172851562</v>
       </c>
       <c r="S3" t="n">
-        <v>329.8153381347656</v>
+        <v>275.2423095703125</v>
       </c>
       <c r="T3" t="n">
-        <v>329.1620788574219</v>
+        <v>274.5148620605469</v>
       </c>
       <c r="U3" t="n">
-        <v>345.3640441894531</v>
+        <v>273.8907470703125</v>
       </c>
       <c r="V3" t="n">
-        <v>329.2460632324219</v>
+        <v>273.6661682128906</v>
       </c>
       <c r="W3" t="n">
-        <v>329.1525573730469</v>
+        <v>275.4609069824219</v>
       </c>
       <c r="X3" t="n">
-        <v>345.8180847167969</v>
+        <v>276.5364685058594</v>
       </c>
       <c r="Y3" t="n">
-        <v>329.0231018066406</v>
+        <v>275.4910583496094</v>
       </c>
       <c r="Z3" t="n">
-        <v>328.9221801757812</v>
+        <v>273.12158203125</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.8829040527344</v>
+        <v>271.9730529785156</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.9034729003906</v>
+        <v>272.3807983398438</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.74853515625</v>
+        <v>274.2692565917969</v>
       </c>
       <c r="AD3" t="n">
-        <v>345.7904663085938</v>
+        <v>273.6798400878906</v>
       </c>
       <c r="AE3" t="n">
-        <v>328.6897277832031</v>
+        <v>271.062255859375</v>
       </c>
       <c r="AF3" t="n">
-        <v>328.5848999023438</v>
+        <v>267.5359497070312</v>
       </c>
       <c r="AG3" t="n">
-        <v>345.8228759765625</v>
+        <v>264.6700439453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>345.7988891601562</v>
+        <v>260.4273681640625</v>
       </c>
       <c r="AI3" t="n">
-        <v>345.7543640136719</v>
+        <v>255.7272186279297</v>
       </c>
       <c r="AJ3" t="n">
-        <v>346.2524108886719</v>
+        <v>250.9072723388672</v>
       </c>
       <c r="AK3" t="n">
-        <v>329.2257385253906</v>
+        <v>246.4126129150391</v>
       </c>
       <c r="AL3" t="n">
-        <v>346.3017272949219</v>
+        <v>266.7185363769531</v>
       </c>
       <c r="AM3" t="n">
-        <v>328.6329040527344</v>
+        <v>265.466552734375</v>
       </c>
       <c r="AN3" t="n">
-        <v>346.921142578125</v>
+        <v>268.1693725585938</v>
       </c>
       <c r="AO3" t="n">
-        <v>328.4384460449219</v>
+        <v>272.2008666992188</v>
       </c>
       <c r="AP3" t="n">
-        <v>346.8985595703125</v>
+        <v>274.0126342773438</v>
       </c>
       <c r="AQ3" t="n">
-        <v>328.8375244140625</v>
+        <v>273.4406433105469</v>
       </c>
       <c r="AR3" t="n">
-        <v>347.6936340332031</v>
+        <v>272.37451171875</v>
       </c>
       <c r="AS3" t="n">
-        <v>360.4277648925781</v>
+        <v>271.2558288574219</v>
       </c>
       <c r="AT3" t="n">
-        <v>379.5851745605469</v>
+        <v>274.9535217285156</v>
       </c>
       <c r="AU3" t="n">
-        <v>383.819580078125</v>
+        <v>274.5988464355469</v>
       </c>
       <c r="AV3" t="n">
-        <v>389.5506286621094</v>
+        <v>280.8864135742188</v>
       </c>
       <c r="AW3" t="n">
-        <v>387.3029174804688</v>
+        <v>286.8029174804688</v>
       </c>
       <c r="AX3" t="n">
-        <v>389.3441772460938</v>
+        <v>289.6548767089844</v>
       </c>
       <c r="AY3" t="n">
-        <v>390.5877990722656</v>
+        <v>290.8518676757812</v>
       </c>
       <c r="AZ3" t="n">
-        <v>388.6882934570312</v>
+        <v>292.2667541503906</v>
       </c>
       <c r="BA3" t="n">
-        <v>387.3773803710938</v>
+        <v>293.6023254394531</v>
       </c>
       <c r="BB3" t="n">
-        <v>383.4471740722656</v>
+        <v>293.1242065429688</v>
       </c>
       <c r="BC3" t="n">
-        <v>380.0065002441406</v>
+        <v>293.620849609375</v>
       </c>
       <c r="BD3" t="n">
-        <v>377.8438415527344</v>
+        <v>293.6163024902344</v>
       </c>
       <c r="BE3" t="n">
-        <v>374.5923767089844</v>
+        <v>294.4852294921875</v>
       </c>
       <c r="BF3" t="n">
-        <v>373.7460632324219</v>
+        <v>293.0984802246094</v>
       </c>
       <c r="BG3" t="n">
-        <v>373.733154296875</v>
+        <v>291.5761413574219</v>
       </c>
       <c r="BH3" t="n">
-        <v>375.9310302734375</v>
+        <v>290.2452697753906</v>
       </c>
       <c r="BI3" t="n">
-        <v>376.0160522460938</v>
+        <v>288.6782531738281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>382.681640625</v>
+        <v>288.3896179199219</v>
       </c>
       <c r="BK3" t="n">
-        <v>384.1004943847656</v>
+        <v>289.3794250488281</v>
       </c>
       <c r="BL3" t="n">
-        <v>385.5114440917969</v>
+        <v>290.3349914550781</v>
       </c>
       <c r="BM3" t="n">
-        <v>387.6818542480469</v>
+        <v>290.8252868652344</v>
       </c>
       <c r="BN3" t="n">
-        <v>386.2483825683594</v>
+        <v>291.1769104003906</v>
       </c>
       <c r="BO3" t="n">
-        <v>386.5270080566406</v>
+        <v>291.5882568359375</v>
       </c>
       <c r="BP3" t="n">
-        <v>389.0101318359375</v>
+        <v>292.3059387207031</v>
       </c>
       <c r="BQ3" t="n">
-        <v>392.1240844726562</v>
+        <v>293.5595397949219</v>
       </c>
       <c r="BR3" t="n">
-        <v>392.5791625976562</v>
+        <v>293.1862182617188</v>
       </c>
       <c r="BS3" t="n">
-        <v>392.4659423828125</v>
+        <v>295.002197265625</v>
       </c>
       <c r="BT3" t="n">
-        <v>392.2565307617188</v>
+        <v>294.7600402832031</v>
       </c>
       <c r="BU3" t="n">
-        <v>393.8662414550781</v>
+        <v>295.7255554199219</v>
       </c>
       <c r="BV3" t="n">
-        <v>395.2421569824219</v>
+        <v>296.154296875</v>
       </c>
       <c r="BW3" t="n">
-        <v>395.1087036132812</v>
+        <v>296.1011047363281</v>
       </c>
       <c r="BX3" t="n">
-        <v>395.7983703613281</v>
+        <v>295.4676208496094</v>
       </c>
       <c r="BY3" t="n">
-        <v>396.534423828125</v>
+        <v>296.5777893066406</v>
       </c>
       <c r="BZ3" t="n">
-        <v>396.3963623046875</v>
+        <v>295.9327087402344</v>
       </c>
       <c r="CA3" t="n">
-        <v>396.0752563476562</v>
+        <v>295.8616027832031</v>
       </c>
       <c r="CB3" t="n">
-        <v>397.3598022460938</v>
+        <v>295.4714050292969</v>
       </c>
       <c r="CC3" t="n">
-        <v>396.0803527832031</v>
+        <v>295.7749633789062</v>
       </c>
       <c r="CD3" t="n">
-        <v>397.1646118164062</v>
+        <v>296.2451477050781</v>
       </c>
       <c r="CE3" t="n">
-        <v>397.6975708007812</v>
+        <v>295.449951171875</v>
       </c>
       <c r="CF3" t="n">
-        <v>396.8458557128906</v>
+        <v>295.1939086914062</v>
       </c>
       <c r="CG3" t="n">
-        <v>395.7299194335938</v>
+        <v>294.4893798828125</v>
       </c>
       <c r="CH3" t="n">
-        <v>395.6318054199219</v>
+        <v>294.4237060546875</v>
       </c>
       <c r="CI3" t="n">
-        <v>396.3641357421875</v>
+        <v>294.2862243652344</v>
       </c>
       <c r="CJ3" t="n">
-        <v>395.1847839355469</v>
+        <v>294.0238037109375</v>
       </c>
       <c r="CK3" t="n">
-        <v>393.9900817871094</v>
+        <v>293.8923034667969</v>
       </c>
       <c r="CL3" t="n">
-        <v>392.6878356933594</v>
+        <v>294.0115051269531</v>
       </c>
       <c r="CM3" t="n">
-        <v>391.831298828125</v>
+        <v>294.2510375976562</v>
       </c>
       <c r="CN3" t="n">
-        <v>389.4410400390625</v>
+        <v>294.9390258789062</v>
       </c>
       <c r="CO3" t="n">
-        <v>388.2099914550781</v>
+        <v>295.2026977539062</v>
       </c>
       <c r="CP3" t="n">
-        <v>389.0324401855469</v>
+        <v>295.8001403808594</v>
       </c>
       <c r="CQ3" t="n">
-        <v>387.4297180175781</v>
+        <v>296.2075500488281</v>
       </c>
       <c r="CR3" t="n">
-        <v>385.3959655761719</v>
+        <v>296.446533203125</v>
       </c>
       <c r="CS3" t="n">
-        <v>384.9898071289062</v>
+        <v>297.2301330566406</v>
       </c>
       <c r="CT3" t="n">
-        <v>384.5288696289062</v>
+        <v>296.7336730957031</v>
       </c>
       <c r="CU3" t="n">
-        <v>381.9269104003906</v>
+        <v>297.0518493652344</v>
       </c>
       <c r="CV3" t="n">
-        <v>381.4830017089844</v>
+        <v>296.94921875</v>
       </c>
       <c r="CW3" t="n">
-        <v>379.3897399902344</v>
+        <v>296.9237365722656</v>
       </c>
       <c r="CX3" t="n">
-        <v>379.1275634765625</v>
+        <v>295.4164123535156</v>
       </c>
       <c r="CY3" t="n">
-        <v>379.28125</v>
+        <v>294.9809875488281</v>
       </c>
       <c r="CZ3" t="n">
-        <v>378.0723266601562</v>
+        <v>295.4014282226562</v>
       </c>
       <c r="DA3" t="n">
-        <v>378.332763671875</v>
+        <v>295.9188842773438</v>
       </c>
       <c r="DB3" t="n">
-        <v>376.7645568847656</v>
+        <v>296.0106506347656</v>
       </c>
       <c r="DC3" t="n">
-        <v>377.6042785644531</v>
+        <v>296.2503356933594</v>
       </c>
       <c r="DD3" t="n">
-        <v>377.1489868164062</v>
+        <v>296.6300964355469</v>
       </c>
       <c r="DE3" t="n">
-        <v>377.3080139160156</v>
+        <v>296.6699829101562</v>
       </c>
       <c r="DF3" t="n">
-        <v>378.0779724121094</v>
+        <v>296.4600219726562</v>
       </c>
       <c r="DG3" t="n">
-        <v>378.7183227539062</v>
+        <v>296.8530883789062</v>
       </c>
       <c r="DH3" t="n">
-        <v>380.8489379882812</v>
+        <v>297.1468200683594</v>
       </c>
       <c r="DI3" t="n">
-        <v>382.5578308105469</v>
+        <v>297.2144165039062</v>
       </c>
       <c r="DJ3" t="n">
-        <v>383.9790954589844</v>
+        <v>297.4851684570312</v>
       </c>
       <c r="DK3" t="n">
-        <v>384.9384155273438</v>
+        <v>298.0147399902344</v>
       </c>
       <c r="DL3" t="n">
-        <v>385.8677978515625</v>
+        <v>298.1870422363281</v>
       </c>
       <c r="DM3" t="n">
-        <v>386.5285034179688</v>
+        <v>298.2939758300781</v>
       </c>
       <c r="DN3" t="n">
-        <v>389.6118469238281</v>
+        <v>297.97998046875</v>
       </c>
       <c r="DO3" t="n">
-        <v>392.0086669921875</v>
+        <v>298.35107421875</v>
       </c>
       <c r="DP3" t="n">
-        <v>389.2701416015625</v>
+        <v>298.6872253417969</v>
       </c>
       <c r="DQ3" t="n">
-        <v>377.3786926269531</v>
+        <v>299.2070007324219</v>
       </c>
       <c r="DR3" t="n">
-        <v>370.3782958984375</v>
+        <v>299.3847351074219</v>
       </c>
       <c r="DS3" t="n">
-        <v>364.2394104003906</v>
+        <v>299.6412963867188</v>
       </c>
       <c r="DT3" t="n">
-        <v>345.7904052734375</v>
+        <v>299.7595825195312</v>
       </c>
       <c r="DU3" t="n">
-        <v>340.6445922851562</v>
+        <v>299.9106750488281</v>
       </c>
       <c r="DV3" t="n">
-        <v>332.3685302734375</v>
+        <v>300.0439453125</v>
       </c>
       <c r="DW3" t="n">
-        <v>316.8515014648438</v>
+        <v>300.3791198730469</v>
       </c>
       <c r="DX3" t="n">
-        <v>310.3484191894531</v>
+        <v>300.4400329589844</v>
       </c>
       <c r="DY3" t="n">
-        <v>303.0585632324219</v>
+        <v>300.4172973632812</v>
       </c>
       <c r="DZ3" t="n">
-        <v>302.6699523925781</v>
+        <v>299.7359924316406</v>
       </c>
       <c r="EA3" t="n">
-        <v>304.7420043945312</v>
+        <v>300.0718688964844</v>
       </c>
       <c r="EB3" t="n">
-        <v>318.2612915039062</v>
+        <v>300.4322204589844</v>
       </c>
       <c r="EC3" t="n">
-        <v>329.8946838378906</v>
+        <v>300.7421875</v>
       </c>
       <c r="ED3" t="n">
-        <v>355.0267333984375</v>
+        <v>299.9550476074219</v>
       </c>
       <c r="EE3" t="n">
-        <v>374.8759460449219</v>
+        <v>297.5995788574219</v>
       </c>
       <c r="EF3" t="n">
-        <v>380.1666870117188</v>
+        <v>297.4866027832031</v>
       </c>
       <c r="EG3" t="n">
-        <v>399.52392578125</v>
+        <v>296.9285583496094</v>
       </c>
       <c r="EH3" t="n">
-        <v>411.2754211425781</v>
+        <v>297.1893310546875</v>
       </c>
       <c r="EI3" t="n">
-        <v>409.3205261230469</v>
+        <v>297.8557434082031</v>
       </c>
       <c r="EJ3" t="n">
-        <v>410.212890625</v>
+        <v>298.1628112792969</v>
       </c>
       <c r="EK3" t="n">
-        <v>415.5122375488281</v>
+        <v>297.627197265625</v>
       </c>
       <c r="EL3" t="n">
-        <v>413.5406494140625</v>
+        <v>297.1521911621094</v>
       </c>
       <c r="EM3" t="n">
-        <v>407.6759643554688</v>
+        <v>296.2110290527344</v>
       </c>
       <c r="EN3" t="n">
-        <v>406.3889465332031</v>
+        <v>294.1251220703125</v>
       </c>
       <c r="EO3" t="n">
-        <v>404.4981994628906</v>
+        <v>290.9866943359375</v>
       </c>
       <c r="EP3" t="n">
-        <v>403.1827087402344</v>
+        <v>285.8269653320312</v>
       </c>
       <c r="EQ3" t="n">
-        <v>403.6900329589844</v>
+        <v>284.1225891113281</v>
       </c>
       <c r="ER3" t="n">
-        <v>405.0803833007812</v>
+        <v>279.4281616210938</v>
       </c>
       <c r="ES3" t="n">
-        <v>406.4619140625</v>
+        <v>278.912109375</v>
       </c>
       <c r="ET3" t="n">
-        <v>411.754150390625</v>
+        <v>273.8219909667969</v>
       </c>
       <c r="EU3" t="n">
-        <v>416.3446655273438</v>
+        <v>274.1940307617188</v>
       </c>
       <c r="EV3" t="n">
-        <v>420.1252746582031</v>
+        <v>273.8040466308594</v>
       </c>
       <c r="EW3" t="n">
-        <v>424.9652404785156</v>
+        <v>268.8423461914062</v>
       </c>
       <c r="EX3" t="n">
-        <v>428.2518310546875</v>
+        <v>267.3330383300781</v>
       </c>
       <c r="EY3" t="n">
-        <v>430.9315490722656</v>
+        <v>266.2445678710938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>403.0851135253906</v>
+        <v>259.0145263671875</v>
       </c>
       <c r="FA3" t="n">
-        <v>419.7621765136719</v>
+        <v>258.6246337890625</v>
       </c>
       <c r="FB3" t="n">
-        <v>433.9039001464844</v>
+        <v>258.86083984375</v>
       </c>
       <c r="FC3" t="n">
-        <v>430.37939453125</v>
+        <v>256.6517333984375</v>
       </c>
       <c r="FD3" t="n">
-        <v>429.6451110839844</v>
+        <v>257.615478515625</v>
       </c>
       <c r="FE3" t="n">
-        <v>429.5333862304688</v>
+        <v>257.2388916015625</v>
       </c>
       <c r="FF3" t="n">
-        <v>428.3323364257812</v>
+        <v>257.5658569335938</v>
       </c>
       <c r="FG3" t="n">
-        <v>431.0911560058594</v>
+        <v>256.1479797363281</v>
       </c>
       <c r="FH3" t="n">
-        <v>428.3548278808594</v>
+        <v>258.5274047851562</v>
       </c>
       <c r="FI3" t="n">
-        <v>417.8002624511719</v>
+        <v>258.4550170898438</v>
       </c>
       <c r="FJ3" t="n">
-        <v>415.2612915039062</v>
+        <v>259.1009216308594</v>
       </c>
       <c r="FK3" t="n">
-        <v>410.4727172851562</v>
+        <v>264.3305053710938</v>
       </c>
       <c r="FL3" t="n">
-        <v>411.7873840332031</v>
+        <v>265.9728088378906</v>
       </c>
       <c r="FM3" t="n">
-        <v>417.2947082519531</v>
+        <v>268.8904113769531</v>
       </c>
       <c r="FN3" t="n">
-        <v>420.0165100097656</v>
+        <v>269.8976440429688</v>
       </c>
       <c r="FO3" t="n">
-        <v>422.8004455566406</v>
+        <v>271.5807495117188</v>
       </c>
       <c r="FP3" t="n">
-        <v>426.4481811523438</v>
+        <v>275.0746765136719</v>
       </c>
       <c r="FQ3" t="n">
-        <v>432.8648376464844</v>
+        <v>279.8338623046875</v>
       </c>
       <c r="FR3" t="n">
-        <v>433.5260925292969</v>
+        <v>282.3699340820312</v>
       </c>
       <c r="FS3" t="n">
-        <v>430.4515380859375</v>
+        <v>287.165283203125</v>
       </c>
       <c r="FT3" t="n">
-        <v>426.8708801269531</v>
+        <v>289.6448669433594</v>
       </c>
       <c r="FU3" t="n">
-        <v>420.9762268066406</v>
+        <v>294.8251953125</v>
       </c>
       <c r="FV3" t="n">
-        <v>418.0061950683594</v>
+        <v>295.5153503417969</v>
       </c>
       <c r="FW3" t="n">
-        <v>425.1925964355469</v>
+        <v>297.8863525390625</v>
       </c>
       <c r="FX3" t="n">
-        <v>412.4834289550781</v>
+        <v>298.8265991210938</v>
       </c>
       <c r="FY3" t="n">
-        <v>404.603515625</v>
+        <v>299.59716796875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>404.6442565917969</v>
+        <v>299.2442321777344</v>
       </c>
       <c r="GA3" t="n">
-        <v>405.6912536621094</v>
+        <v>299.3539428710938</v>
       </c>
       <c r="GB3" t="n">
-        <v>403.8975524902344</v>
+        <v>299.41455078125</v>
       </c>
       <c r="GC3" t="n">
-        <v>397.9224853515625</v>
+        <v>299.7916259765625</v>
       </c>
       <c r="GD3" t="n">
-        <v>395.1173095703125</v>
+        <v>300.0892333984375</v>
       </c>
       <c r="GE3" t="n">
-        <v>399.5033569335938</v>
+        <v>300.0413208007812</v>
       </c>
       <c r="GF3" t="n">
-        <v>405.024658203125</v>
+        <v>299.4745483398438</v>
       </c>
       <c r="GG3" t="n">
-        <v>412.10595703125</v>
+        <v>298.6325378417969</v>
       </c>
       <c r="GH3" t="n">
-        <v>415.3427124023438</v>
+        <v>296.4118957519531</v>
       </c>
       <c r="GI3" t="n">
-        <v>416.4314880371094</v>
+        <v>293.6412963867188</v>
       </c>
       <c r="GJ3" t="n">
-        <v>416.0183410644531</v>
+        <v>292.9733276367188</v>
       </c>
       <c r="GK3" t="n">
-        <v>414.8853454589844</v>
+        <v>292.1455993652344</v>
       </c>
       <c r="GL3" t="n">
-        <v>414.9465637207031</v>
+        <v>293.1845397949219</v>
       </c>
       <c r="GM3" t="n">
-        <v>413.5394592285156</v>
+        <v>293.4222717285156</v>
       </c>
       <c r="GN3" t="n">
-        <v>411.8137512207031</v>
+        <v>293.8944091796875</v>
       </c>
       <c r="GO3" t="n">
-        <v>413.7876586914062</v>
+        <v>294.4405212402344</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>294.8950500488281</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>295.8422241210938</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>296.6748657226562</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>296.9926147460938</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>296.1949462890625</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>296.5481872558594</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>296.0073547363281</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>295.1131896972656</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>295.7230224609375</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>297.7074279785156</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>298.9117736816406</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>298.674072265625</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>299.4712524414062</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>299.1192321777344</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>299.1777038574219</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>300.7453918457031</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>301.0518188476562</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>302.9955749511719</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>303.5440979003906</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>300.8714599609375</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>298.8193664550781</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>294.884521484375</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>293.9310302734375</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>294.4298706054688</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>294.0458984375</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>292.1349487304688</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>292.9584655761719</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>294.8718566894531</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>295.8761901855469</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>295.6168518066406</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>296.0177917480469</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>295.4333801269531</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>295.9216613769531</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>291.6728210449219</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>289.7735595703125</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>288.7073669433594</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>289.5001831054688</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>288.531982421875</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>285.6071472167969</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>284.7675170898438</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>284.1493530273438</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>284.57861328125</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>283.9884338378906</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>282.9122009277344</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>280.3615417480469</v>
+      </c>
+      <c r="II3" t="n">
+        <v>281.3059387207031</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>281.49658203125</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>284.0917053222656</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>285.0206298828125</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>303.0994262695312</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>360.7358703613281</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>469.9978332519531</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>562.8207397460938</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>571.8372192382812</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>540.5675659179688</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>501.9504089355469</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>453.6610412597656</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>427.9244995117188</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>376.8517761230469</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>314.8299255371094</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>289.2202453613281</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>295.7348937988281</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>307.6270141601562</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>367.1042175292969</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>404.1719055175781</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>401.7002258300781</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>395.5572814941406</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>401.0186767578125</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>407.7044067382812</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>406.2507934570312</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>405.7875366210938</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>406.8764038085938</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>410.7105712890625</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>412.4839782714844</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>416.4730224609375</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>422.3427429199219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>935.0751342773438</v>
       </c>
       <c r="B4" t="n">
-        <v>750.2814331054688</v>
+        <v>934.5707397460938</v>
       </c>
       <c r="C4" t="n">
-        <v>776.5335693359375</v>
+        <v>934.1976928710938</v>
       </c>
       <c r="D4" t="n">
-        <v>776.896484375</v>
+        <v>933.8348999023438</v>
       </c>
       <c r="E4" t="n">
-        <v>781.0657348632812</v>
+        <v>933.4984130859375</v>
       </c>
       <c r="F4" t="n">
-        <v>787.035400390625</v>
+        <v>932.9234619140625</v>
       </c>
       <c r="G4" t="n">
-        <v>782.9500122070312</v>
+        <v>932.3775024414062</v>
       </c>
       <c r="H4" t="n">
-        <v>783.7056884765625</v>
+        <v>931.9154052734375</v>
       </c>
       <c r="I4" t="n">
-        <v>790.39697265625</v>
+        <v>931.7080078125</v>
       </c>
       <c r="J4" t="n">
-        <v>785.2294921875</v>
+        <v>931.339599609375</v>
       </c>
       <c r="K4" t="n">
-        <v>785.9290771484375</v>
+        <v>931.4891357421875</v>
       </c>
       <c r="L4" t="n">
-        <v>792.5064697265625</v>
+        <v>931.543701171875</v>
       </c>
       <c r="M4" t="n">
-        <v>786.6743774414062</v>
+        <v>931.7058715820312</v>
       </c>
       <c r="N4" t="n">
-        <v>787.0030517578125</v>
+        <v>932.1498413085938</v>
       </c>
       <c r="O4" t="n">
-        <v>794.1502685546875</v>
+        <v>932.5748291015625</v>
       </c>
       <c r="P4" t="n">
-        <v>794.675048828125</v>
+        <v>933.1268310546875</v>
       </c>
       <c r="Q4" t="n">
-        <v>794.9613037109375</v>
+        <v>934.1632690429688</v>
       </c>
       <c r="R4" t="n">
-        <v>795.2528076171875</v>
+        <v>935.5790405273438</v>
       </c>
       <c r="S4" t="n">
-        <v>787.9276733398438</v>
+        <v>936.8709106445312</v>
       </c>
       <c r="T4" t="n">
-        <v>788.5272827148438</v>
+        <v>938.5421142578125</v>
       </c>
       <c r="U4" t="n">
-        <v>796.2206420898438</v>
+        <v>941.2221069335938</v>
       </c>
       <c r="V4" t="n">
-        <v>789.570068359375</v>
+        <v>945.1663208007812</v>
       </c>
       <c r="W4" t="n">
-        <v>789.6844482421875</v>
+        <v>948.6317138671875</v>
       </c>
       <c r="X4" t="n">
-        <v>797.236083984375</v>
+        <v>948.63525390625</v>
       </c>
       <c r="Y4" t="n">
-        <v>790.2105102539062</v>
+        <v>950.1553955078125</v>
       </c>
       <c r="Z4" t="n">
-        <v>790.5113525390625</v>
+        <v>952.9442138671875</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.091796875</v>
+        <v>953.002197265625</v>
       </c>
       <c r="AB4" t="n">
-        <v>790.9995727539062</v>
+        <v>955.1693725585938</v>
       </c>
       <c r="AC4" t="n">
-        <v>791.290771484375</v>
+        <v>978.0737915039062</v>
       </c>
       <c r="AD4" t="n">
-        <v>798.8860473632812</v>
+        <v>1016.356628417969</v>
       </c>
       <c r="AE4" t="n">
-        <v>791.7906494140625</v>
+        <v>1057.873901367188</v>
       </c>
       <c r="AF4" t="n">
-        <v>792.07958984375</v>
+        <v>1094.326049804688</v>
       </c>
       <c r="AG4" t="n">
-        <v>799.931884765625</v>
+        <v>1116.60595703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>800.2509155273438</v>
+        <v>1135.97705078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>800.5802001953125</v>
+        <v>1154.58349609375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>801.1968994140625</v>
+        <v>1172.567504882812</v>
       </c>
       <c r="AK4" t="n">
-        <v>793.1282958984375</v>
+        <v>1190.427490234375</v>
       </c>
       <c r="AL4" t="n">
-        <v>802.3670654296875</v>
+        <v>1046.10302734375</v>
       </c>
       <c r="AM4" t="n">
-        <v>794.9705810546875</v>
+        <v>1054.916015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>803.7743530273438</v>
+        <v>1065.284790039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>795.8169555664062</v>
+        <v>1072.0712890625</v>
       </c>
       <c r="AP4" t="n">
-        <v>804.93359375</v>
+        <v>1083.877319335938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>797.0874633789062</v>
+        <v>1097.385498046875</v>
       </c>
       <c r="AR4" t="n">
-        <v>817.7796630859375</v>
+        <v>1113.137084960938</v>
       </c>
       <c r="AS4" t="n">
-        <v>840.5853271484375</v>
+        <v>1132.99560546875</v>
       </c>
       <c r="AT4" t="n">
-        <v>892.0736083984375</v>
+        <v>1149.498291015625</v>
       </c>
       <c r="AU4" t="n">
-        <v>917.39794921875</v>
+        <v>1176.01318359375</v>
       </c>
       <c r="AV4" t="n">
-        <v>944.5524291992188</v>
+        <v>1203.17626953125</v>
       </c>
       <c r="AW4" t="n">
-        <v>969.1734619140625</v>
+        <v>1224.189697265625</v>
       </c>
       <c r="AX4" t="n">
-        <v>989.8952026367188</v>
+        <v>1240.70068359375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1013.520385742188</v>
+        <v>1256.265625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1036.542358398438</v>
+        <v>1281.399291992188</v>
       </c>
       <c r="BA4" t="n">
-        <v>1043.758422851562</v>
+        <v>1298.571899414062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1051.6474609375</v>
+        <v>1322.048706054688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1053.947021484375</v>
+        <v>1341.707397460938</v>
       </c>
       <c r="BD4" t="n">
-        <v>1053.999633789062</v>
+        <v>1368.982543945312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1054.411254882812</v>
+        <v>1383.411499023438</v>
       </c>
       <c r="BF4" t="n">
-        <v>1054.734619140625</v>
+        <v>1407.397827148438</v>
       </c>
       <c r="BG4" t="n">
-        <v>1055.043701171875</v>
+        <v>1446.062255859375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1056.168701171875</v>
+        <v>1472.120971679688</v>
       </c>
       <c r="BI4" t="n">
-        <v>1058.776977539062</v>
+        <v>1514.3125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1068.763671875</v>
+        <v>1547.592895507812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1082.98095703125</v>
+        <v>1557.229370117188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1084.309204101562</v>
+        <v>1564.728515625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1089.146484375</v>
+        <v>1582.558715820312</v>
       </c>
       <c r="BN4" t="n">
-        <v>1090.004028320312</v>
+        <v>1596.82177734375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1089.627563476562</v>
+        <v>1610.206420898438</v>
       </c>
       <c r="BP4" t="n">
-        <v>1087.8720703125</v>
+        <v>1626.848388671875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1087.207275390625</v>
+        <v>1671.244750976562</v>
       </c>
       <c r="BR4" t="n">
-        <v>1090.537719726562</v>
+        <v>1704.423583984375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1091.450317382812</v>
+        <v>1717.372924804688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1091.7177734375</v>
+        <v>1739.608642578125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1090.848876953125</v>
+        <v>1748.790893554688</v>
       </c>
       <c r="BV4" t="n">
-        <v>1090.123168945312</v>
+        <v>1772.195678710938</v>
       </c>
       <c r="BW4" t="n">
-        <v>1090.76171875</v>
+        <v>1785.284545898438</v>
       </c>
       <c r="BX4" t="n">
-        <v>1091.035034179688</v>
+        <v>1801.492309570312</v>
       </c>
       <c r="BY4" t="n">
-        <v>1091.595336914062</v>
+        <v>1788.597778320312</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1093.577514648438</v>
+        <v>1803.915893554688</v>
       </c>
       <c r="CA4" t="n">
-        <v>1096.96337890625</v>
+        <v>1838.807495117188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1099.877197265625</v>
+        <v>1866.433715820312</v>
       </c>
       <c r="CC4" t="n">
-        <v>1105.83935546875</v>
+        <v>1863.191162109375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1109.5029296875</v>
+        <v>1868.246948242188</v>
       </c>
       <c r="CE4" t="n">
-        <v>1108.397216796875</v>
+        <v>1879.474731445312</v>
       </c>
       <c r="CF4" t="n">
-        <v>1108.845947265625</v>
+        <v>1905.276123046875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1108.445556640625</v>
+        <v>1934.995727539062</v>
       </c>
       <c r="CH4" t="n">
-        <v>1104.5087890625</v>
+        <v>1963.06103515625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1097.21044921875</v>
+        <v>1979.388549804688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1093.19775390625</v>
+        <v>1989.578125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1098.343383789062</v>
+        <v>2001.26611328125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1100.283935546875</v>
+        <v>2019.573364257812</v>
       </c>
       <c r="CM4" t="n">
-        <v>1101.267333984375</v>
+        <v>2020.5107421875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1104.320678710938</v>
+        <v>2021.634155273438</v>
       </c>
       <c r="CO4" t="n">
-        <v>1106.452880859375</v>
+        <v>2023.793212890625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1107.117919921875</v>
+        <v>2025.002197265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1109.766357421875</v>
+        <v>2027.172729492188</v>
       </c>
       <c r="CR4" t="n">
-        <v>1114.530151367188</v>
+        <v>2026.4892578125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1117.031494140625</v>
+        <v>2027.37255859375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1118.345458984375</v>
+        <v>2034.108764648438</v>
       </c>
       <c r="CU4" t="n">
-        <v>1121.103393554688</v>
+        <v>2062.192138671875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1122.701538085938</v>
+        <v>2089.811279296875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1124.7587890625</v>
+        <v>2103.06005859375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1125.297485351562</v>
+        <v>2153.126708984375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1124.257690429688</v>
+        <v>2212.759765625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1124.522583007812</v>
+        <v>2195.56787109375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1124.659057617188</v>
+        <v>2208.466064453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1124.782958984375</v>
+        <v>2212.91259765625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1124.190673828125</v>
+        <v>2215.02001953125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1123.545043945312</v>
+        <v>2217.976806640625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1122.661254882812</v>
+        <v>2220.4296875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1121.207275390625</v>
+        <v>2226.135009765625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1119.287963867188</v>
+        <v>2236.49755859375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1108.573608398438</v>
+        <v>2251.2041015625</v>
       </c>
       <c r="DI4" t="n">
-        <v>1096.760131835938</v>
+        <v>2256.843017578125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1085.956787109375</v>
+        <v>2255.272216796875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1080.001220703125</v>
+        <v>2253.201416015625</v>
       </c>
       <c r="DL4" t="n">
-        <v>1074.464599609375</v>
+        <v>2246.793212890625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1068.278686523438</v>
+        <v>2235.712646484375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1061.539672851562</v>
+        <v>2240.57470703125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1044.116821289062</v>
+        <v>2240.0498046875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1038.187255859375</v>
+        <v>2238.6923828125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1033.868530273438</v>
+        <v>2235.1142578125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1032.662841796875</v>
+        <v>2232.05859375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1033.081909179688</v>
+        <v>2227.0751953125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1037.849243164062</v>
+        <v>2227.00537109375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1041.865356445312</v>
+        <v>2224.09375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1049.9033203125</v>
+        <v>2221.289794921875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1072.344604492188</v>
+        <v>2212.429931640625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1079.482788085938</v>
+        <v>2211.16650390625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1101.954956054688</v>
+        <v>2212.133544921875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1110.088989257812</v>
+        <v>2211.77294921875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1113.314819335938</v>
+        <v>2211.841552734375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1112.833618164062</v>
+        <v>2211.892333984375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1110.580444335938</v>
+        <v>2210.8291015625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1111.880615234375</v>
+        <v>2211.105712890625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1152.08740234375</v>
+        <v>2211.8779296875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1168.717651367188</v>
+        <v>2213.036376953125</v>
       </c>
       <c r="EG4" t="n">
-        <v>1174.493896484375</v>
+        <v>2213.448486328125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1188.573486328125</v>
+        <v>2213.25634765625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1207.70361328125</v>
+        <v>2212.01220703125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1226.124267578125</v>
+        <v>2211.15673828125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1245.98681640625</v>
+        <v>2210.883544921875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1257.144409179688</v>
+        <v>2210.684814453125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1271.867431640625</v>
+        <v>2210.2255859375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1278.886352539062</v>
+        <v>2207.31591796875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1296.513305664062</v>
+        <v>2202.416748046875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1301.560913085938</v>
+        <v>2198.9599609375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1304.977294921875</v>
+        <v>2199.253662109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1305.111694335938</v>
+        <v>2201.0439453125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1305.4326171875</v>
+        <v>2203.283203125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1303.76904296875</v>
+        <v>2206.343994140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1302.174072265625</v>
+        <v>2216.843017578125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1301.03076171875</v>
+        <v>2210.59619140625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1299.271240234375</v>
+        <v>2225.990234375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1296.845092773438</v>
+        <v>2226.35205078125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1295.07763671875</v>
+        <v>2235.5283203125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1193.562866210938</v>
+        <v>2243.022705078125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1157.251342773438</v>
+        <v>2239.28271484375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1249.622314453125</v>
+        <v>2235.38916015625</v>
       </c>
       <c r="FC4" t="n">
-        <v>1236.035888671875</v>
+        <v>2234.019775390625</v>
       </c>
       <c r="FD4" t="n">
-        <v>1229.059204101562</v>
+        <v>2238.6142578125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1194.443481445312</v>
+        <v>2237.1494140625</v>
       </c>
       <c r="FF4" t="n">
-        <v>1175.0224609375</v>
+        <v>2236.2822265625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1130.063598632812</v>
+        <v>2231.072509765625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1086.983642578125</v>
+        <v>2240.130615234375</v>
       </c>
       <c r="FI4" t="n">
-        <v>1121.925048828125</v>
+        <v>2236.24560546875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1097.031616210938</v>
+        <v>2230.0888671875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1058.7666015625</v>
+        <v>2230.88330078125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1037.124145507812</v>
+        <v>2226.8486328125</v>
       </c>
       <c r="FM4" t="n">
-        <v>986.24365234375</v>
+        <v>2201.64990234375</v>
       </c>
       <c r="FN4" t="n">
-        <v>939.2012329101562</v>
+        <v>2193.281982421875</v>
       </c>
       <c r="FO4" t="n">
-        <v>915.8731689453125</v>
+        <v>2193.15283203125</v>
       </c>
       <c r="FP4" t="n">
-        <v>898.7218627929688</v>
+        <v>2190.754150390625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>869.9359130859375</v>
+        <v>2175.92138671875</v>
       </c>
       <c r="FR4" t="n">
-        <v>861.1884155273438</v>
+        <v>2160.995361328125</v>
       </c>
       <c r="FS4" t="n">
-        <v>845.2396240234375</v>
+        <v>2170.7412109375</v>
       </c>
       <c r="FT4" t="n">
-        <v>832.9254150390625</v>
+        <v>2169.6162109375</v>
       </c>
       <c r="FU4" t="n">
-        <v>821.3331298828125</v>
+        <v>2167.574951171875</v>
       </c>
       <c r="FV4" t="n">
-        <v>818.6038208007812</v>
+        <v>2168.045654296875</v>
       </c>
       <c r="FW4" t="n">
-        <v>800.8673706054688</v>
+        <v>2173.53271484375</v>
       </c>
       <c r="FX4" t="n">
-        <v>811.7667846679688</v>
+        <v>2185.722900390625</v>
       </c>
       <c r="FY4" t="n">
-        <v>823.61962890625</v>
+        <v>2184.179931640625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>830.545166015625</v>
+        <v>2199.897216796875</v>
       </c>
       <c r="GA4" t="n">
-        <v>843.4418334960938</v>
+        <v>2202.969482421875</v>
       </c>
       <c r="GB4" t="n">
-        <v>847.7811279296875</v>
+        <v>2201.758056640625</v>
       </c>
       <c r="GC4" t="n">
-        <v>861.1636962890625</v>
+        <v>2198.626708984375</v>
       </c>
       <c r="GD4" t="n">
-        <v>872.1350708007812</v>
+        <v>2197.26708984375</v>
       </c>
       <c r="GE4" t="n">
-        <v>870.4942016601562</v>
+        <v>2197.40087890625</v>
       </c>
       <c r="GF4" t="n">
-        <v>865.2272338867188</v>
+        <v>2194.68017578125</v>
       </c>
       <c r="GG4" t="n">
-        <v>847.7041625976562</v>
+        <v>2192.44482421875</v>
       </c>
       <c r="GH4" t="n">
-        <v>834.7334594726562</v>
+        <v>2189.14990234375</v>
       </c>
       <c r="GI4" t="n">
-        <v>829.4362182617188</v>
+        <v>2184.254638671875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>824.8095703125</v>
+        <v>2184.15234375</v>
       </c>
       <c r="GK4" t="n">
-        <v>802.978515625</v>
+        <v>2183.868896484375</v>
       </c>
       <c r="GL4" t="n">
-        <v>788.4967041015625</v>
+        <v>2183.08642578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>763.0608520507812</v>
+        <v>2179.975341796875</v>
       </c>
       <c r="GN4" t="n">
-        <v>734.6966552734375</v>
+        <v>2178.37890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>719.2565307617188</v>
+        <v>2177.17919921875</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2177.35009765625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2177.952880859375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2179.759521484375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2182.519775390625</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2189.3310546875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2188.125732421875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2186.97216796875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2185.59814453125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2183.82861328125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2155.421875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2120.736083984375</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2096.774169921875</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2064.057373046875</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2055.707275390625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2053.1435546875</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1985.202026367188</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1955.57861328125</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1927.69921875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1873.308837890625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1826.146850585938</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1818.4638671875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1786.223876953125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1718.515991210938</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1679.176879882812</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1667.170166015625</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1635.592407226562</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1609.707153320312</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1578.704223632812</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1568.0654296875</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1522.856323242188</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1471.7275390625</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1447.372802734375</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1401.989379882812</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1354.390747070312</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1301.186645507812</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1260.502807617188</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1227.075805664062</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1210.145385742188</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1168.959594726562</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1156.62158203125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1128.053466796875</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1105.54296875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1077.233642578125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1045.903442382812</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1020.334899902344</v>
+      </c>
+      <c r="II4" t="n">
+        <v>989.8126220703125</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>967.3091430664062</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>949.0758666992188</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>935.808837890625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>656.83056640625</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>717.640869140625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>569.2091674804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>450.7431945800781</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>431.2535705566406</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>437.9371948242188</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>469.2113037109375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>543.0006713867188</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>589.8070678710938</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>575.6818237304688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>641.70751953125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>812.1939697265625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>827.9441528320312</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>856.5226440429688</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>829.6244506835938</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>840.1959228515625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>896.5067749023438</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>952.5291137695312</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>972.1528930664062</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>980.8523559570312</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1006.90625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1015.874694824219</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1010.807800292969</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>988.3518676757812</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>964.6072998046875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>933.4401245117188</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>898.4974365234375</v>
       </c>
     </row>
   </sheetData>

--- a/right_elbow_Data.xlsx
+++ b/right_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>122.8140563964844</v>
+        <v>332.1440124511719</v>
       </c>
       <c r="B2" t="n">
-        <v>122.7290496826172</v>
+        <v>326.6277770996094</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6107330322266</v>
+        <v>323.4056091308594</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4893341064453</v>
+        <v>324.8943786621094</v>
       </c>
       <c r="E2" t="n">
-        <v>122.3735733032227</v>
+        <v>329.2268371582031</v>
       </c>
       <c r="F2" t="n">
-        <v>122.2372283935547</v>
+        <v>337.7234497070312</v>
       </c>
       <c r="G2" t="n">
-        <v>122.1107788085938</v>
+        <v>343.7854614257812</v>
       </c>
       <c r="H2" t="n">
-        <v>121.9886016845703</v>
+        <v>346.7967529296875</v>
       </c>
       <c r="I2" t="n">
-        <v>121.9680938720703</v>
+        <v>346.0588989257812</v>
       </c>
       <c r="J2" t="n">
-        <v>121.9130020141602</v>
+        <v>345.8063354492188</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9413146972656</v>
+        <v>345.4443054199219</v>
       </c>
       <c r="L2" t="n">
-        <v>121.8985824584961</v>
+        <v>344.6966247558594</v>
       </c>
       <c r="M2" t="n">
-        <v>121.8932800292969</v>
+        <v>343.9410095214844</v>
       </c>
       <c r="N2" t="n">
-        <v>121.960075378418</v>
+        <v>340.1861267089844</v>
       </c>
       <c r="O2" t="n">
-        <v>122.0148315429688</v>
+        <v>332.0631408691406</v>
       </c>
       <c r="P2" t="n">
-        <v>122.1366806030273</v>
+        <v>324.7522583007812</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.5455932617188</v>
+        <v>319.4903259277344</v>
       </c>
       <c r="R2" t="n">
-        <v>123.2188110351562</v>
+        <v>316.5049133300781</v>
       </c>
       <c r="S2" t="n">
-        <v>123.8226470947266</v>
+        <v>314.6449890136719</v>
       </c>
       <c r="T2" t="n">
-        <v>124.42431640625</v>
+        <v>313.0977172851562</v>
       </c>
       <c r="U2" t="n">
-        <v>125.2816848754883</v>
+        <v>311.4386596679688</v>
       </c>
       <c r="V2" t="n">
-        <v>126.393440246582</v>
+        <v>311.7326049804688</v>
       </c>
       <c r="W2" t="n">
-        <v>127.0681076049805</v>
+        <v>311.67919921875</v>
       </c>
       <c r="X2" t="n">
-        <v>128.1235504150391</v>
+        <v>311.3965759277344</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.1462554931641</v>
+        <v>310.3446350097656</v>
       </c>
       <c r="Z2" t="n">
-        <v>138.014404296875</v>
+        <v>306.4059143066406</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.35107421875</v>
+        <v>300.415283203125</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.0196075439453</v>
+        <v>297.05859375</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.6897125244141</v>
+        <v>296.3133850097656</v>
       </c>
       <c r="AD2" t="n">
-        <v>171.7428283691406</v>
+        <v>295.1633605957031</v>
       </c>
       <c r="AE2" t="n">
-        <v>182.8141784667969</v>
+        <v>293.5375366210938</v>
       </c>
       <c r="AF2" t="n">
-        <v>193.6838684082031</v>
+        <v>291.36962890625</v>
       </c>
       <c r="AG2" t="n">
-        <v>201.6507568359375</v>
+        <v>290.3672180175781</v>
       </c>
       <c r="AH2" t="n">
-        <v>209.8659057617188</v>
+        <v>289.8739929199219</v>
       </c>
       <c r="AI2" t="n">
-        <v>217.8360290527344</v>
+        <v>289.79150390625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>225.4580993652344</v>
+        <v>290.26220703125</v>
       </c>
       <c r="AK2" t="n">
-        <v>232.7148742675781</v>
+        <v>290.8973083496094</v>
       </c>
       <c r="AL2" t="n">
-        <v>246.2602233886719</v>
+        <v>291.5314331054688</v>
       </c>
       <c r="AM2" t="n">
-        <v>246.2782592773438</v>
+        <v>292.0621337890625</v>
       </c>
       <c r="AN2" t="n">
-        <v>249.0232086181641</v>
+        <v>292.5821838378906</v>
       </c>
       <c r="AO2" t="n">
-        <v>245.4530487060547</v>
+        <v>293.0885925292969</v>
       </c>
       <c r="AP2" t="n">
-        <v>246.4523620605469</v>
+        <v>292.3523254394531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>246.203857421875</v>
+        <v>291.7669067382812</v>
       </c>
       <c r="AR2" t="n">
-        <v>246.2892303466797</v>
+        <v>290.1177062988281</v>
       </c>
       <c r="AS2" t="n">
-        <v>246.8248901367188</v>
+        <v>286.9065551757812</v>
       </c>
       <c r="AT2" t="n">
-        <v>247.787353515625</v>
+        <v>284.0574035644531</v>
       </c>
       <c r="AU2" t="n">
-        <v>213.5688934326172</v>
+        <v>280.3655700683594</v>
       </c>
       <c r="AV2" t="n">
-        <v>213.5982666015625</v>
+        <v>277.8879699707031</v>
       </c>
       <c r="AW2" t="n">
-        <v>215.0231170654297</v>
+        <v>272.958984375</v>
       </c>
       <c r="AX2" t="n">
-        <v>216.7590026855469</v>
+        <v>268.1412048339844</v>
       </c>
       <c r="AY2" t="n">
-        <v>217.6910400390625</v>
+        <v>265.8459777832031</v>
       </c>
       <c r="AZ2" t="n">
-        <v>219.5697174072266</v>
+        <v>260.5820922851562</v>
       </c>
       <c r="BA2" t="n">
-        <v>221.2394409179688</v>
+        <v>253.4025268554688</v>
       </c>
       <c r="BB2" t="n">
-        <v>223.5872192382812</v>
+        <v>246.2510986328125</v>
       </c>
       <c r="BC2" t="n">
-        <v>226.5169372558594</v>
+        <v>238.3021850585938</v>
       </c>
       <c r="BD2" t="n">
-        <v>232.2145843505859</v>
+        <v>230.7176971435547</v>
       </c>
       <c r="BE2" t="n">
-        <v>238.416015625</v>
+        <v>224.5861968994141</v>
       </c>
       <c r="BF2" t="n">
-        <v>243.6085205078125</v>
+        <v>217.6046752929688</v>
       </c>
       <c r="BG2" t="n">
-        <v>247.7153778076172</v>
+        <v>212.5377197265625</v>
       </c>
       <c r="BH2" t="n">
-        <v>249.0278930664062</v>
+        <v>206.7456359863281</v>
       </c>
       <c r="BI2" t="n">
-        <v>251.8264770507812</v>
+        <v>199.9388122558594</v>
       </c>
       <c r="BJ2" t="n">
-        <v>253.9874267578125</v>
+        <v>194.1121215820312</v>
       </c>
       <c r="BK2" t="n">
-        <v>256.2767944335938</v>
+        <v>189.3045959472656</v>
       </c>
       <c r="BL2" t="n">
-        <v>262.9471130371094</v>
+        <v>185.5612487792969</v>
       </c>
       <c r="BM2" t="n">
-        <v>269.0198364257812</v>
+        <v>181.5420837402344</v>
       </c>
       <c r="BN2" t="n">
-        <v>274.2097473144531</v>
+        <v>175.6698608398438</v>
       </c>
       <c r="BO2" t="n">
-        <v>275.5674743652344</v>
+        <v>172.4795227050781</v>
       </c>
       <c r="BP2" t="n">
-        <v>278.3768005371094</v>
+        <v>168.232666015625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>283.0380554199219</v>
+        <v>164.4837341308594</v>
       </c>
       <c r="BR2" t="n">
-        <v>286.0379333496094</v>
+        <v>161.561279296875</v>
       </c>
       <c r="BS2" t="n">
-        <v>288.448486328125</v>
+        <v>159.3722839355469</v>
       </c>
       <c r="BT2" t="n">
-        <v>291.912353515625</v>
+        <v>158.7918701171875</v>
       </c>
       <c r="BU2" t="n">
-        <v>293.1697998046875</v>
+        <v>157.8045043945312</v>
       </c>
       <c r="BV2" t="n">
-        <v>297.4377746582031</v>
+        <v>157.2430725097656</v>
       </c>
       <c r="BW2" t="n">
-        <v>299.008544921875</v>
+        <v>156.2635803222656</v>
       </c>
       <c r="BX2" t="n">
-        <v>302.5394287109375</v>
+        <v>155.1510162353516</v>
       </c>
       <c r="BY2" t="n">
-        <v>305.6120300292969</v>
+        <v>154.5085144042969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>306.6113586425781</v>
+        <v>153.9890594482422</v>
       </c>
       <c r="CA2" t="n">
-        <v>309.9277038574219</v>
+        <v>153.9185028076172</v>
       </c>
       <c r="CB2" t="n">
-        <v>313.3432312011719</v>
+        <v>153.7843627929688</v>
       </c>
       <c r="CC2" t="n">
-        <v>314.5559692382812</v>
+        <v>153.2853393554688</v>
       </c>
       <c r="CD2" t="n">
-        <v>315.7372131347656</v>
+        <v>152.1699523925781</v>
       </c>
       <c r="CE2" t="n">
-        <v>316.4582214355469</v>
+        <v>149.2951202392578</v>
       </c>
       <c r="CF2" t="n">
-        <v>316.4734497070312</v>
+        <v>145.0065155029297</v>
       </c>
       <c r="CG2" t="n">
-        <v>316.6076354980469</v>
+        <v>139.1891632080078</v>
       </c>
       <c r="CH2" t="n">
-        <v>316.6674194335938</v>
+        <v>134.0256195068359</v>
       </c>
       <c r="CI2" t="n">
-        <v>316.5912780761719</v>
+        <v>130.9913482666016</v>
       </c>
       <c r="CJ2" t="n">
-        <v>316.5533142089844</v>
+        <v>128.0940704345703</v>
       </c>
       <c r="CK2" t="n">
-        <v>316.3685913085938</v>
+        <v>125.4386901855469</v>
       </c>
       <c r="CL2" t="n">
-        <v>315.8719482421875</v>
+        <v>123.0391387939453</v>
       </c>
       <c r="CM2" t="n">
-        <v>315.2048034667969</v>
+        <v>123.1409530639648</v>
       </c>
       <c r="CN2" t="n">
-        <v>313.990478515625</v>
+        <v>123.3826751708984</v>
       </c>
       <c r="CO2" t="n">
-        <v>312.4081726074219</v>
+        <v>123.7297973632812</v>
       </c>
       <c r="CP2" t="n">
-        <v>310.4542236328125</v>
+        <v>123.9690399169922</v>
       </c>
       <c r="CQ2" t="n">
-        <v>309.1163635253906</v>
+        <v>123.9077453613281</v>
       </c>
       <c r="CR2" t="n">
-        <v>308.3511657714844</v>
+        <v>123.9909973144531</v>
       </c>
       <c r="CS2" t="n">
-        <v>306.7086181640625</v>
+        <v>126.7087173461914</v>
       </c>
       <c r="CT2" t="n">
-        <v>307.1032104492188</v>
+        <v>131.5818176269531</v>
       </c>
       <c r="CU2" t="n">
-        <v>306.6961669921875</v>
+        <v>137.5653076171875</v>
       </c>
       <c r="CV2" t="n">
-        <v>305.5665588378906</v>
+        <v>142.4663696289062</v>
       </c>
       <c r="CW2" t="n">
-        <v>301.8777770996094</v>
+        <v>146.8368988037109</v>
       </c>
       <c r="CX2" t="n">
-        <v>300.0220031738281</v>
+        <v>151.8330535888672</v>
       </c>
       <c r="CY2" t="n">
-        <v>299.9299011230469</v>
+        <v>158.8566741943359</v>
       </c>
       <c r="CZ2" t="n">
-        <v>298.1840515136719</v>
+        <v>163.9008178710938</v>
       </c>
       <c r="DA2" t="n">
-        <v>296.3293151855469</v>
+        <v>165.8913269042969</v>
       </c>
       <c r="DB2" t="n">
-        <v>295.876220703125</v>
+        <v>168.4250183105469</v>
       </c>
       <c r="DC2" t="n">
-        <v>295.1200256347656</v>
+        <v>168.6361389160156</v>
       </c>
       <c r="DD2" t="n">
-        <v>294.2693176269531</v>
+        <v>168.9043884277344</v>
       </c>
       <c r="DE2" t="n">
-        <v>292.9459228515625</v>
+        <v>171.3287353515625</v>
       </c>
       <c r="DF2" t="n">
-        <v>291.7631530761719</v>
+        <v>177.6928863525391</v>
       </c>
       <c r="DG2" t="n">
-        <v>291.8472290039062</v>
+        <v>181.9044189453125</v>
       </c>
       <c r="DH2" t="n">
-        <v>291.8435668945312</v>
+        <v>185.7052612304688</v>
       </c>
       <c r="DI2" t="n">
-        <v>291.812744140625</v>
+        <v>189.8300476074219</v>
       </c>
       <c r="DJ2" t="n">
-        <v>291.5695190429688</v>
+        <v>192.6978149414062</v>
       </c>
       <c r="DK2" t="n">
-        <v>291.2331237792969</v>
+        <v>194.3664855957031</v>
       </c>
       <c r="DL2" t="n">
-        <v>290.6445617675781</v>
+        <v>202.1643676757812</v>
       </c>
       <c r="DM2" t="n">
-        <v>289.5117492675781</v>
+        <v>207.1606597900391</v>
       </c>
       <c r="DN2" t="n">
-        <v>288.5543823242188</v>
+        <v>213.1178894042969</v>
       </c>
       <c r="DO2" t="n">
-        <v>287.605712890625</v>
+        <v>219.85595703125</v>
       </c>
       <c r="DP2" t="n">
-        <v>288.0916748046875</v>
+        <v>236.8189392089844</v>
       </c>
       <c r="DQ2" t="n">
-        <v>288.8588562011719</v>
+        <v>244.0263214111328</v>
       </c>
       <c r="DR2" t="n">
-        <v>288.6396179199219</v>
+        <v>250.9344329833984</v>
       </c>
       <c r="DS2" t="n">
-        <v>288.3414001464844</v>
+        <v>269.5480041503906</v>
       </c>
       <c r="DT2" t="n">
-        <v>288.4099426269531</v>
+        <v>279.4292602539062</v>
       </c>
       <c r="DU2" t="n">
-        <v>288.3465881347656</v>
+        <v>288.0346984863281</v>
       </c>
       <c r="DV2" t="n">
-        <v>288.2796936035156</v>
+        <v>301.0874633789062</v>
       </c>
       <c r="DW2" t="n">
-        <v>288.0846252441406</v>
+        <v>305.1962585449219</v>
       </c>
       <c r="DX2" t="n">
-        <v>287.9582214355469</v>
+        <v>305.4947509765625</v>
       </c>
       <c r="DY2" t="n">
-        <v>287.8995971679688</v>
+        <v>306.474609375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>287.9034118652344</v>
+        <v>308.4385375976562</v>
       </c>
       <c r="EA2" t="n">
-        <v>287.7535705566406</v>
+        <v>309.3661193847656</v>
       </c>
       <c r="EB2" t="n">
-        <v>287.4837951660156</v>
+        <v>310.3645935058594</v>
       </c>
       <c r="EC2" t="n">
-        <v>286.7019348144531</v>
+        <v>310.3335876464844</v>
       </c>
       <c r="ED2" t="n">
-        <v>286.897216796875</v>
+        <v>310.2007141113281</v>
       </c>
       <c r="EE2" t="n">
-        <v>287.5146484375</v>
+        <v>310.0663757324219</v>
       </c>
       <c r="EF2" t="n">
-        <v>287.8138427734375</v>
+        <v>309.80615234375</v>
       </c>
       <c r="EG2" t="n">
-        <v>289.3059387207031</v>
+        <v>308.185791015625</v>
       </c>
       <c r="EH2" t="n">
-        <v>290.42919921875</v>
+        <v>305.1242065429688</v>
       </c>
       <c r="EI2" t="n">
-        <v>292.1067199707031</v>
+        <v>296.3280944824219</v>
       </c>
       <c r="EJ2" t="n">
-        <v>291.9270935058594</v>
+        <v>291.0961303710938</v>
       </c>
       <c r="EK2" t="n">
-        <v>292.0357666015625</v>
+        <v>279.9131164550781</v>
       </c>
       <c r="EL2" t="n">
-        <v>292.1199951171875</v>
+        <v>274.1997680664062</v>
       </c>
       <c r="EM2" t="n">
-        <v>291.2376403808594</v>
+        <v>261.6919250488281</v>
       </c>
       <c r="EN2" t="n">
-        <v>284.6507263183594</v>
+        <v>256.0322265625</v>
       </c>
       <c r="EO2" t="n">
-        <v>278.4638977050781</v>
+        <v>243.5937652587891</v>
       </c>
       <c r="EP2" t="n">
-        <v>272.7245178222656</v>
+        <v>236.9885559082031</v>
       </c>
       <c r="EQ2" t="n">
-        <v>270.6125793457031</v>
+        <v>219.4547729492188</v>
       </c>
       <c r="ER2" t="n">
-        <v>266.164794921875</v>
+        <v>212.224609375</v>
       </c>
       <c r="ES2" t="n">
-        <v>265.6996154785156</v>
+        <v>195.6740112304688</v>
       </c>
       <c r="ET2" t="n">
-        <v>261.2542724609375</v>
+        <v>192.0729064941406</v>
       </c>
       <c r="EU2" t="n">
-        <v>261.472900390625</v>
+        <v>186.6133422851562</v>
       </c>
       <c r="EV2" t="n">
-        <v>260.2811279296875</v>
+        <v>184.3199005126953</v>
       </c>
       <c r="EW2" t="n">
-        <v>257.8881225585938</v>
+        <v>183.0177917480469</v>
       </c>
       <c r="EX2" t="n">
-        <v>256.984619140625</v>
+        <v>182.3828735351562</v>
       </c>
       <c r="EY2" t="n">
-        <v>257.0017700195312</v>
+        <v>181.9023284912109</v>
       </c>
       <c r="EZ2" t="n">
-        <v>254.7996826171875</v>
+        <v>186.8409423828125</v>
       </c>
       <c r="FA2" t="n">
-        <v>254.2164916992188</v>
+        <v>198.8618774414062</v>
       </c>
       <c r="FB2" t="n">
-        <v>253.9203033447266</v>
+        <v>209.8999176025391</v>
       </c>
       <c r="FC2" t="n">
-        <v>253.2209625244141</v>
+        <v>224.4381408691406</v>
       </c>
       <c r="FD2" t="n">
-        <v>253.7376098632812</v>
+        <v>223.5771331787109</v>
       </c>
       <c r="FE2" t="n">
-        <v>253.5919342041016</v>
+        <v>221.22021484375</v>
       </c>
       <c r="FF2" t="n">
-        <v>253.6932220458984</v>
+        <v>221.5523071289062</v>
       </c>
       <c r="FG2" t="n">
-        <v>253.0797119140625</v>
+        <v>222.6033782958984</v>
       </c>
       <c r="FH2" t="n">
-        <v>254.4247283935547</v>
+        <v>224.4700622558594</v>
       </c>
       <c r="FI2" t="n">
-        <v>254.5771179199219</v>
+        <v>225.1036987304688</v>
       </c>
       <c r="FJ2" t="n">
-        <v>254.5434265136719</v>
+        <v>230.3204040527344</v>
       </c>
       <c r="FK2" t="n">
-        <v>256.8761291503906</v>
+        <v>240.6387634277344</v>
       </c>
       <c r="FL2" t="n">
-        <v>257.4633178710938</v>
+        <v>258.0233764648438</v>
       </c>
       <c r="FM2" t="n">
-        <v>257.4650268554688</v>
+        <v>261.5607604980469</v>
       </c>
       <c r="FN2" t="n">
-        <v>257.6365661621094</v>
+        <v>266.4268188476562</v>
       </c>
       <c r="FO2" t="n">
-        <v>258.6542053222656</v>
+        <v>280.7443237304688</v>
       </c>
       <c r="FP2" t="n">
-        <v>260.8377990722656</v>
+        <v>303.4844665527344</v>
       </c>
       <c r="FQ2" t="n">
-        <v>263.7834777832031</v>
+        <v>289.7054443359375</v>
       </c>
       <c r="FR2" t="n">
-        <v>265.5106811523438</v>
+        <v>310.1460571289062</v>
       </c>
       <c r="FS2" t="n">
-        <v>270.9058227539062</v>
+        <v>321.8980407714844</v>
       </c>
       <c r="FT2" t="n">
-        <v>273.3246459960938</v>
+        <v>332.9452819824219</v>
       </c>
       <c r="FU2" t="n">
-        <v>280.9932250976562</v>
+        <v>346.4349060058594</v>
       </c>
       <c r="FV2" t="n">
-        <v>282.2218017578125</v>
+        <v>352.7123413085938</v>
       </c>
       <c r="FW2" t="n">
-        <v>288.1624450683594</v>
+        <v>364.2607116699219</v>
       </c>
       <c r="FX2" t="n">
-        <v>292.7970275878906</v>
+        <v>369.5856323242188</v>
       </c>
       <c r="FY2" t="n">
-        <v>295.5692749023438</v>
+        <v>371.7752685546875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>297.5242614746094</v>
+        <v>373.879638671875</v>
       </c>
       <c r="GA2" t="n">
-        <v>299.6785583496094</v>
+        <v>374.4879760742188</v>
       </c>
       <c r="GB2" t="n">
-        <v>299.4780883789062</v>
+        <v>375.7135620117188</v>
       </c>
       <c r="GC2" t="n">
-        <v>299.6600952148438</v>
+        <v>374.9845886230469</v>
       </c>
       <c r="GD2" t="n">
-        <v>299.7200317382812</v>
+        <v>356.4697875976562</v>
       </c>
       <c r="GE2" t="n">
-        <v>299.7363586425781</v>
+        <v>355.9291076660156</v>
       </c>
       <c r="GF2" t="n">
-        <v>299.0736999511719</v>
+        <v>355.6601257324219</v>
       </c>
       <c r="GG2" t="n">
-        <v>297.7904663085938</v>
+        <v>416.8108520507812</v>
       </c>
       <c r="GH2" t="n">
-        <v>292.66259765625</v>
+        <v>316.6759033203125</v>
       </c>
       <c r="GI2" t="n">
-        <v>290.1953735351562</v>
+        <v>299.0919494628906</v>
       </c>
       <c r="GJ2" t="n">
-        <v>289.4313354492188</v>
+        <v>285.8280944824219</v>
       </c>
       <c r="GK2" t="n">
-        <v>288.6812744140625</v>
+        <v>318.0531616210938</v>
       </c>
       <c r="GL2" t="n">
-        <v>288.0145263671875</v>
+        <v>303.8849182128906</v>
       </c>
       <c r="GM2" t="n">
-        <v>287.9084777832031</v>
+        <v>299.0804138183594</v>
       </c>
       <c r="GN2" t="n">
-        <v>287.7981262207031</v>
+        <v>283.0708312988281</v>
       </c>
       <c r="GO2" t="n">
-        <v>287.6493530273438</v>
+        <v>279.135498046875</v>
       </c>
       <c r="GP2" t="n">
-        <v>288.056884765625</v>
+        <v>233.7602996826172</v>
       </c>
       <c r="GQ2" t="n">
-        <v>288.8910827636719</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>290.7066650390625</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>291.0649108886719</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>290.9295654296875</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>290.4806213378906</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>289.5910034179688</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>288.7904052734375</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>288.1842956542969</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>286.8302001953125</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>286.5961303710938</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>286.4065246582031</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>285.7958679199219</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>285.2325439453125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>284.1585998535156</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>278.9762878417969</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>278.4367980957031</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>277.6582336425781</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>276.645751953125</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>275.7668762207031</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>274.4528198242188</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>271.5922546386719</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>266.036376953125</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>263.8994445800781</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>262.8324584960938</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>262.0467529296875</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>260.7034606933594</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>258.8734130859375</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>256.35693359375</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>247.0599670410156</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>238.521240234375</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>233.3340759277344</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>225.5434417724609</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>213.78125</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>203.3082733154297</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>194.2310485839844</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>187.7329406738281</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>185.847412109375</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>181.4865264892578</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>179.6921691894531</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>173.1261901855469</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>168.1375732421875</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>165.9942474365234</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>164.1455383300781</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>164.8028411865234</v>
-      </c>
-      <c r="II2" t="n">
-        <v>170.2637023925781</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>174.2030639648438</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>176.5289459228516</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>178.23291015625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>151.8116302490234</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>198.6484069824219</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>146.78564453125</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>150.6468353271484</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>167.0579223632812</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>147.5727996826172</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>119.1564788818359</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>115.3876647949219</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>128.1805572509766</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>104.5729751586914</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>91.95648193359375</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>48.72866821289062</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>21.41642761230469</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>15.42516326904297</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>21.4055290222168</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>33.48085403442383</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>57.03993988037109</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>80.84799957275391</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>108.3833160400391</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>108.9339370727539</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>112.9294891357422</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>114.7787170410156</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>113.5852813720703</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>108.7991180419922</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>104.7701110839844</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>98.42612457275391</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>89.51683807373047</v>
+        <v>210.2462005615234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>277.0084533691406</v>
+        <v>349.6825256347656</v>
       </c>
       <c r="B3" t="n">
-        <v>276.8650512695312</v>
+        <v>339.1994934082031</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9111633300781</v>
+        <v>332.552490234375</v>
       </c>
       <c r="D3" t="n">
-        <v>277.0071105957031</v>
+        <v>329.494384765625</v>
       </c>
       <c r="E3" t="n">
-        <v>277.1119995117188</v>
+        <v>330.8469543457031</v>
       </c>
       <c r="F3" t="n">
-        <v>277.2030639648438</v>
+        <v>334.4168701171875</v>
       </c>
       <c r="G3" t="n">
-        <v>277.3160705566406</v>
+        <v>335.0645141601562</v>
       </c>
       <c r="H3" t="n">
-        <v>277.4307556152344</v>
+        <v>332.0855407714844</v>
       </c>
       <c r="I3" t="n">
-        <v>277.4304809570312</v>
+        <v>327.3163757324219</v>
       </c>
       <c r="J3" t="n">
-        <v>277.4310302734375</v>
+        <v>319.4744262695312</v>
       </c>
       <c r="K3" t="n">
-        <v>277.4831848144531</v>
+        <v>308.1900329589844</v>
       </c>
       <c r="L3" t="n">
-        <v>277.7322692871094</v>
+        <v>303.9081726074219</v>
       </c>
       <c r="M3" t="n">
-        <v>277.9440307617188</v>
+        <v>301.7745971679688</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1054077148438</v>
+        <v>299.6445617675781</v>
       </c>
       <c r="O3" t="n">
-        <v>278.2481994628906</v>
+        <v>297.8288879394531</v>
       </c>
       <c r="P3" t="n">
-        <v>278.2365417480469</v>
+        <v>293.3588562011719</v>
       </c>
       <c r="Q3" t="n">
-        <v>277.5474548339844</v>
+        <v>288.4780578613281</v>
       </c>
       <c r="R3" t="n">
-        <v>276.2227172851562</v>
+        <v>281.743408203125</v>
       </c>
       <c r="S3" t="n">
-        <v>275.2423095703125</v>
+        <v>274.8561096191406</v>
       </c>
       <c r="T3" t="n">
-        <v>274.5148620605469</v>
+        <v>268.8353576660156</v>
       </c>
       <c r="U3" t="n">
-        <v>273.8907470703125</v>
+        <v>265.0999755859375</v>
       </c>
       <c r="V3" t="n">
-        <v>273.6661682128906</v>
+        <v>261.2299499511719</v>
       </c>
       <c r="W3" t="n">
-        <v>275.4609069824219</v>
+        <v>258.1783752441406</v>
       </c>
       <c r="X3" t="n">
-        <v>276.5364685058594</v>
+        <v>256.5425415039062</v>
       </c>
       <c r="Y3" t="n">
-        <v>275.4910583496094</v>
+        <v>254.2414245605469</v>
       </c>
       <c r="Z3" t="n">
-        <v>273.12158203125</v>
+        <v>251.7876434326172</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.9730529785156</v>
+        <v>248.5317993164062</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.3807983398438</v>
+        <v>245.4965057373047</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.2692565917969</v>
+        <v>243.9523620605469</v>
       </c>
       <c r="AD3" t="n">
-        <v>273.6798400878906</v>
+        <v>243.5078735351562</v>
       </c>
       <c r="AE3" t="n">
-        <v>271.062255859375</v>
+        <v>244.1627349853516</v>
       </c>
       <c r="AF3" t="n">
-        <v>267.5359497070312</v>
+        <v>244.5787506103516</v>
       </c>
       <c r="AG3" t="n">
-        <v>264.6700439453125</v>
+        <v>244.2180023193359</v>
       </c>
       <c r="AH3" t="n">
-        <v>260.4273681640625</v>
+        <v>243.8116760253906</v>
       </c>
       <c r="AI3" t="n">
-        <v>255.7272186279297</v>
+        <v>242.9769592285156</v>
       </c>
       <c r="AJ3" t="n">
-        <v>250.9072723388672</v>
+        <v>242.0506439208984</v>
       </c>
       <c r="AK3" t="n">
-        <v>246.4126129150391</v>
+        <v>240.837646484375</v>
       </c>
       <c r="AL3" t="n">
-        <v>266.7185363769531</v>
+        <v>239.9870300292969</v>
       </c>
       <c r="AM3" t="n">
-        <v>265.466552734375</v>
+        <v>239.2405853271484</v>
       </c>
       <c r="AN3" t="n">
-        <v>268.1693725585938</v>
+        <v>238.5770874023438</v>
       </c>
       <c r="AO3" t="n">
-        <v>272.2008666992188</v>
+        <v>237.8357849121094</v>
       </c>
       <c r="AP3" t="n">
-        <v>274.0126342773438</v>
+        <v>236.7827911376953</v>
       </c>
       <c r="AQ3" t="n">
-        <v>273.4406433105469</v>
+        <v>234.70849609375</v>
       </c>
       <c r="AR3" t="n">
-        <v>272.37451171875</v>
+        <v>233.5514678955078</v>
       </c>
       <c r="AS3" t="n">
-        <v>271.2558288574219</v>
+        <v>232.5024871826172</v>
       </c>
       <c r="AT3" t="n">
-        <v>274.9535217285156</v>
+        <v>232.0918579101562</v>
       </c>
       <c r="AU3" t="n">
-        <v>274.5988464355469</v>
+        <v>232.0266571044922</v>
       </c>
       <c r="AV3" t="n">
-        <v>280.8864135742188</v>
+        <v>231.7095489501953</v>
       </c>
       <c r="AW3" t="n">
-        <v>286.8029174804688</v>
+        <v>232.6848754882812</v>
       </c>
       <c r="AX3" t="n">
-        <v>289.6548767089844</v>
+        <v>234.7928161621094</v>
       </c>
       <c r="AY3" t="n">
-        <v>290.8518676757812</v>
+        <v>242.1420745849609</v>
       </c>
       <c r="AZ3" t="n">
-        <v>292.2667541503906</v>
+        <v>246.4831848144531</v>
       </c>
       <c r="BA3" t="n">
-        <v>293.6023254394531</v>
+        <v>251.9102325439453</v>
       </c>
       <c r="BB3" t="n">
-        <v>293.1242065429688</v>
+        <v>251.74267578125</v>
       </c>
       <c r="BC3" t="n">
-        <v>293.620849609375</v>
+        <v>252.1215209960938</v>
       </c>
       <c r="BD3" t="n">
-        <v>293.6163024902344</v>
+        <v>252.4591827392578</v>
       </c>
       <c r="BE3" t="n">
-        <v>294.4852294921875</v>
+        <v>252.0386047363281</v>
       </c>
       <c r="BF3" t="n">
-        <v>293.0984802246094</v>
+        <v>252.9568786621094</v>
       </c>
       <c r="BG3" t="n">
-        <v>291.5761413574219</v>
+        <v>253.5644226074219</v>
       </c>
       <c r="BH3" t="n">
-        <v>290.2452697753906</v>
+        <v>253.3155670166016</v>
       </c>
       <c r="BI3" t="n">
-        <v>288.6782531738281</v>
+        <v>253.2759399414062</v>
       </c>
       <c r="BJ3" t="n">
-        <v>288.3896179199219</v>
+        <v>251.9314422607422</v>
       </c>
       <c r="BK3" t="n">
-        <v>289.3794250488281</v>
+        <v>252.0458831787109</v>
       </c>
       <c r="BL3" t="n">
-        <v>290.3349914550781</v>
+        <v>250.8173217773438</v>
       </c>
       <c r="BM3" t="n">
-        <v>290.8252868652344</v>
+        <v>250.8195343017578</v>
       </c>
       <c r="BN3" t="n">
-        <v>291.1769104003906</v>
+        <v>251.0232086181641</v>
       </c>
       <c r="BO3" t="n">
-        <v>291.5882568359375</v>
+        <v>251.6645965576172</v>
       </c>
       <c r="BP3" t="n">
-        <v>292.3059387207031</v>
+        <v>251.8236694335938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>293.5595397949219</v>
+        <v>251.3809814453125</v>
       </c>
       <c r="BR3" t="n">
-        <v>293.1862182617188</v>
+        <v>251.1920013427734</v>
       </c>
       <c r="BS3" t="n">
-        <v>295.002197265625</v>
+        <v>251.1636810302734</v>
       </c>
       <c r="BT3" t="n">
-        <v>294.7600402832031</v>
+        <v>251.6309814453125</v>
       </c>
       <c r="BU3" t="n">
-        <v>295.7255554199219</v>
+        <v>252.1412353515625</v>
       </c>
       <c r="BV3" t="n">
-        <v>296.154296875</v>
+        <v>252.6523895263672</v>
       </c>
       <c r="BW3" t="n">
-        <v>296.1011047363281</v>
+        <v>253.177978515625</v>
       </c>
       <c r="BX3" t="n">
-        <v>295.4676208496094</v>
+        <v>253.6695098876953</v>
       </c>
       <c r="BY3" t="n">
-        <v>296.5777893066406</v>
+        <v>254.0225067138672</v>
       </c>
       <c r="BZ3" t="n">
-        <v>295.9327087402344</v>
+        <v>254.3368225097656</v>
       </c>
       <c r="CA3" t="n">
-        <v>295.8616027832031</v>
+        <v>254.5973052978516</v>
       </c>
       <c r="CB3" t="n">
-        <v>295.4714050292969</v>
+        <v>254.822509765625</v>
       </c>
       <c r="CC3" t="n">
-        <v>295.7749633789062</v>
+        <v>254.8782653808594</v>
       </c>
       <c r="CD3" t="n">
-        <v>296.2451477050781</v>
+        <v>254.4638366699219</v>
       </c>
       <c r="CE3" t="n">
-        <v>295.449951171875</v>
+        <v>252.5366516113281</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.1939086914062</v>
+        <v>250.5150299072266</v>
       </c>
       <c r="CG3" t="n">
-        <v>294.4893798828125</v>
+        <v>247.8699951171875</v>
       </c>
       <c r="CH3" t="n">
-        <v>294.4237060546875</v>
+        <v>245.1520385742188</v>
       </c>
       <c r="CI3" t="n">
-        <v>294.2862243652344</v>
+        <v>244.1705169677734</v>
       </c>
       <c r="CJ3" t="n">
-        <v>294.0238037109375</v>
+        <v>243.7426452636719</v>
       </c>
       <c r="CK3" t="n">
-        <v>293.8923034667969</v>
+        <v>243.5333404541016</v>
       </c>
       <c r="CL3" t="n">
-        <v>294.0115051269531</v>
+        <v>243.7794952392578</v>
       </c>
       <c r="CM3" t="n">
-        <v>294.2510375976562</v>
+        <v>244.5121459960938</v>
       </c>
       <c r="CN3" t="n">
-        <v>294.9390258789062</v>
+        <v>245.2776947021484</v>
       </c>
       <c r="CO3" t="n">
-        <v>295.2026977539062</v>
+        <v>246.0020751953125</v>
       </c>
       <c r="CP3" t="n">
-        <v>295.8001403808594</v>
+        <v>246.6584014892578</v>
       </c>
       <c r="CQ3" t="n">
-        <v>296.2075500488281</v>
+        <v>247.2756042480469</v>
       </c>
       <c r="CR3" t="n">
-        <v>296.446533203125</v>
+        <v>248.6060943603516</v>
       </c>
       <c r="CS3" t="n">
-        <v>297.2301330566406</v>
+        <v>250.62890625</v>
       </c>
       <c r="CT3" t="n">
-        <v>296.7336730957031</v>
+        <v>253.0643157958984</v>
       </c>
       <c r="CU3" t="n">
-        <v>297.0518493652344</v>
+        <v>255.5051116943359</v>
       </c>
       <c r="CV3" t="n">
-        <v>296.94921875</v>
+        <v>255.8968200683594</v>
       </c>
       <c r="CW3" t="n">
-        <v>296.9237365722656</v>
+        <v>256.4329223632812</v>
       </c>
       <c r="CX3" t="n">
-        <v>295.4164123535156</v>
+        <v>257.1025085449219</v>
       </c>
       <c r="CY3" t="n">
-        <v>294.9809875488281</v>
+        <v>258.87158203125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>295.4014282226562</v>
+        <v>259.0997009277344</v>
       </c>
       <c r="DA3" t="n">
-        <v>295.9188842773438</v>
+        <v>258.2679748535156</v>
       </c>
       <c r="DB3" t="n">
-        <v>296.0106506347656</v>
+        <v>257.9964294433594</v>
       </c>
       <c r="DC3" t="n">
-        <v>296.2503356933594</v>
+        <v>256.9644775390625</v>
       </c>
       <c r="DD3" t="n">
-        <v>296.6300964355469</v>
+        <v>257.7154846191406</v>
       </c>
       <c r="DE3" t="n">
-        <v>296.6699829101562</v>
+        <v>258.4803466796875</v>
       </c>
       <c r="DF3" t="n">
-        <v>296.4600219726562</v>
+        <v>259.2941589355469</v>
       </c>
       <c r="DG3" t="n">
-        <v>296.8530883789062</v>
+        <v>259.7821960449219</v>
       </c>
       <c r="DH3" t="n">
-        <v>297.1468200683594</v>
+        <v>260.2998657226562</v>
       </c>
       <c r="DI3" t="n">
-        <v>297.2144165039062</v>
+        <v>261.0126342773438</v>
       </c>
       <c r="DJ3" t="n">
-        <v>297.4851684570312</v>
+        <v>261.2759704589844</v>
       </c>
       <c r="DK3" t="n">
-        <v>298.0147399902344</v>
+        <v>262.1565551757812</v>
       </c>
       <c r="DL3" t="n">
-        <v>298.1870422363281</v>
+        <v>263.8930969238281</v>
       </c>
       <c r="DM3" t="n">
-        <v>298.2939758300781</v>
+        <v>264.8828125</v>
       </c>
       <c r="DN3" t="n">
-        <v>297.97998046875</v>
+        <v>263.85546875</v>
       </c>
       <c r="DO3" t="n">
-        <v>298.35107421875</v>
+        <v>262.92919921875</v>
       </c>
       <c r="DP3" t="n">
-        <v>298.6872253417969</v>
+        <v>265.6026000976562</v>
       </c>
       <c r="DQ3" t="n">
-        <v>299.2070007324219</v>
+        <v>266.9103393554688</v>
       </c>
       <c r="DR3" t="n">
-        <v>299.3847351074219</v>
+        <v>267.3616027832031</v>
       </c>
       <c r="DS3" t="n">
-        <v>299.6412963867188</v>
+        <v>267.6299133300781</v>
       </c>
       <c r="DT3" t="n">
-        <v>299.7595825195312</v>
+        <v>266.9467468261719</v>
       </c>
       <c r="DU3" t="n">
-        <v>299.9106750488281</v>
+        <v>265.3639221191406</v>
       </c>
       <c r="DV3" t="n">
-        <v>300.0439453125</v>
+        <v>258.6221618652344</v>
       </c>
       <c r="DW3" t="n">
-        <v>300.3791198730469</v>
+        <v>252.2704467773438</v>
       </c>
       <c r="DX3" t="n">
-        <v>300.4400329589844</v>
+        <v>249.3257293701172</v>
       </c>
       <c r="DY3" t="n">
-        <v>300.4172973632812</v>
+        <v>247.2268829345703</v>
       </c>
       <c r="DZ3" t="n">
-        <v>299.7359924316406</v>
+        <v>245.5736389160156</v>
       </c>
       <c r="EA3" t="n">
-        <v>300.0718688964844</v>
+        <v>245.24267578125</v>
       </c>
       <c r="EB3" t="n">
-        <v>300.4322204589844</v>
+        <v>244.9957122802734</v>
       </c>
       <c r="EC3" t="n">
-        <v>300.7421875</v>
+        <v>244.7652893066406</v>
       </c>
       <c r="ED3" t="n">
-        <v>299.9550476074219</v>
+        <v>244.2140350341797</v>
       </c>
       <c r="EE3" t="n">
-        <v>297.5995788574219</v>
+        <v>243.8491363525391</v>
       </c>
       <c r="EF3" t="n">
-        <v>297.4866027832031</v>
+        <v>243.3211364746094</v>
       </c>
       <c r="EG3" t="n">
-        <v>296.9285583496094</v>
+        <v>241.5270385742188</v>
       </c>
       <c r="EH3" t="n">
-        <v>297.1893310546875</v>
+        <v>239.6520385742188</v>
       </c>
       <c r="EI3" t="n">
-        <v>297.8557434082031</v>
+        <v>240.9808197021484</v>
       </c>
       <c r="EJ3" t="n">
-        <v>298.1628112792969</v>
+        <v>244.3806304931641</v>
       </c>
       <c r="EK3" t="n">
-        <v>297.627197265625</v>
+        <v>246.0181274414062</v>
       </c>
       <c r="EL3" t="n">
-        <v>297.1521911621094</v>
+        <v>244.7829437255859</v>
       </c>
       <c r="EM3" t="n">
-        <v>296.2110290527344</v>
+        <v>247.1611175537109</v>
       </c>
       <c r="EN3" t="n">
-        <v>294.1251220703125</v>
+        <v>249.4311370849609</v>
       </c>
       <c r="EO3" t="n">
-        <v>290.9866943359375</v>
+        <v>251.5316162109375</v>
       </c>
       <c r="EP3" t="n">
-        <v>285.8269653320312</v>
+        <v>253.0314483642578</v>
       </c>
       <c r="EQ3" t="n">
-        <v>284.1225891113281</v>
+        <v>257.7010192871094</v>
       </c>
       <c r="ER3" t="n">
-        <v>279.4281616210938</v>
+        <v>259.5787963867188</v>
       </c>
       <c r="ES3" t="n">
-        <v>278.912109375</v>
+        <v>260.2242126464844</v>
       </c>
       <c r="ET3" t="n">
-        <v>273.8219909667969</v>
+        <v>261.7635192871094</v>
       </c>
       <c r="EU3" t="n">
-        <v>274.1940307617188</v>
+        <v>261.6863403320312</v>
       </c>
       <c r="EV3" t="n">
-        <v>273.8040466308594</v>
+        <v>263.6308898925781</v>
       </c>
       <c r="EW3" t="n">
-        <v>268.8423461914062</v>
+        <v>266.1509704589844</v>
       </c>
       <c r="EX3" t="n">
-        <v>267.3330383300781</v>
+        <v>267.2985534667969</v>
       </c>
       <c r="EY3" t="n">
-        <v>266.2445678710938</v>
+        <v>269.8281555175781</v>
       </c>
       <c r="EZ3" t="n">
-        <v>259.0145263671875</v>
+        <v>272.5479431152344</v>
       </c>
       <c r="FA3" t="n">
-        <v>258.6246337890625</v>
+        <v>272.4419860839844</v>
       </c>
       <c r="FB3" t="n">
-        <v>258.86083984375</v>
+        <v>272.1329650878906</v>
       </c>
       <c r="FC3" t="n">
-        <v>256.6517333984375</v>
+        <v>273.9759826660156</v>
       </c>
       <c r="FD3" t="n">
-        <v>257.615478515625</v>
+        <v>281.9873352050781</v>
       </c>
       <c r="FE3" t="n">
-        <v>257.2388916015625</v>
+        <v>291.5988159179688</v>
       </c>
       <c r="FF3" t="n">
-        <v>257.5658569335938</v>
+        <v>301.4199523925781</v>
       </c>
       <c r="FG3" t="n">
-        <v>256.1479797363281</v>
+        <v>305.1807250976562</v>
       </c>
       <c r="FH3" t="n">
-        <v>258.5274047851562</v>
+        <v>316.2585754394531</v>
       </c>
       <c r="FI3" t="n">
-        <v>258.4550170898438</v>
+        <v>321.1327209472656</v>
       </c>
       <c r="FJ3" t="n">
-        <v>259.1009216308594</v>
+        <v>338.5572204589844</v>
       </c>
       <c r="FK3" t="n">
-        <v>264.3305053710938</v>
+        <v>352.3481750488281</v>
       </c>
       <c r="FL3" t="n">
-        <v>265.9728088378906</v>
+        <v>369.5881958007812</v>
       </c>
       <c r="FM3" t="n">
-        <v>268.8904113769531</v>
+        <v>374.9102172851562</v>
       </c>
       <c r="FN3" t="n">
-        <v>269.8976440429688</v>
+        <v>385.2264099121094</v>
       </c>
       <c r="FO3" t="n">
-        <v>271.5807495117188</v>
+        <v>403.8152160644531</v>
       </c>
       <c r="FP3" t="n">
-        <v>275.0746765136719</v>
+        <v>418.937744140625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>279.8338623046875</v>
+        <v>359.0025939941406</v>
       </c>
       <c r="FR3" t="n">
-        <v>282.3699340820312</v>
+        <v>419.7373962402344</v>
       </c>
       <c r="FS3" t="n">
-        <v>287.165283203125</v>
+        <v>416.4208984375</v>
       </c>
       <c r="FT3" t="n">
-        <v>289.6448669433594</v>
+        <v>409.4580078125</v>
       </c>
       <c r="FU3" t="n">
-        <v>294.8251953125</v>
+        <v>400.4405822753906</v>
       </c>
       <c r="FV3" t="n">
-        <v>295.5153503417969</v>
+        <v>398.7196044921875</v>
       </c>
       <c r="FW3" t="n">
-        <v>297.8863525390625</v>
+        <v>398.449462890625</v>
       </c>
       <c r="FX3" t="n">
-        <v>298.8265991210938</v>
+        <v>397.388671875</v>
       </c>
       <c r="FY3" t="n">
-        <v>299.59716796875</v>
+        <v>396.9559631347656</v>
       </c>
       <c r="FZ3" t="n">
-        <v>299.2442321777344</v>
+        <v>397.169189453125</v>
       </c>
       <c r="GA3" t="n">
-        <v>299.3539428710938</v>
+        <v>395.6047668457031</v>
       </c>
       <c r="GB3" t="n">
-        <v>299.41455078125</v>
+        <v>394.6175842285156</v>
       </c>
       <c r="GC3" t="n">
-        <v>299.7916259765625</v>
+        <v>393.1078186035156</v>
       </c>
       <c r="GD3" t="n">
-        <v>300.0892333984375</v>
+        <v>387.7812805175781</v>
       </c>
       <c r="GE3" t="n">
-        <v>300.0413208007812</v>
+        <v>390.8984069824219</v>
       </c>
       <c r="GF3" t="n">
-        <v>299.4745483398438</v>
+        <v>396.3269653320312</v>
       </c>
       <c r="GG3" t="n">
-        <v>298.6325378417969</v>
+        <v>401.7510070800781</v>
       </c>
       <c r="GH3" t="n">
-        <v>296.4118957519531</v>
+        <v>399.9597473144531</v>
       </c>
       <c r="GI3" t="n">
-        <v>293.6412963867188</v>
+        <v>405.2320251464844</v>
       </c>
       <c r="GJ3" t="n">
-        <v>292.9733276367188</v>
+        <v>414.0364379882812</v>
       </c>
       <c r="GK3" t="n">
-        <v>292.1455993652344</v>
+        <v>432.8536071777344</v>
       </c>
       <c r="GL3" t="n">
-        <v>293.1845397949219</v>
+        <v>441.8209228515625</v>
       </c>
       <c r="GM3" t="n">
-        <v>293.4222717285156</v>
+        <v>436.2975463867188</v>
       </c>
       <c r="GN3" t="n">
-        <v>293.8944091796875</v>
+        <v>430.7391662597656</v>
       </c>
       <c r="GO3" t="n">
-        <v>294.4405212402344</v>
+        <v>428.2393188476562</v>
       </c>
       <c r="GP3" t="n">
-        <v>294.8950500488281</v>
+        <v>422.0842590332031</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.8422241210938</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>296.6748657226562</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>296.9926147460938</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>296.1949462890625</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>296.5481872558594</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>296.0073547363281</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>295.1131896972656</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>295.7230224609375</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>297.7074279785156</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>298.9117736816406</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>298.674072265625</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>299.4712524414062</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>299.1192321777344</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>299.1777038574219</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>300.7453918457031</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>301.0518188476562</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>302.9955749511719</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>303.5440979003906</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>300.8714599609375</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>298.8193664550781</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>294.884521484375</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>293.9310302734375</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>294.4298706054688</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>294.0458984375</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>292.1349487304688</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>292.9584655761719</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>294.8718566894531</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>295.8761901855469</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>295.6168518066406</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>296.0177917480469</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>295.4333801269531</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>295.9216613769531</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>291.6728210449219</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>289.7735595703125</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>288.7073669433594</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>289.5001831054688</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>288.531982421875</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>285.6071472167969</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>284.7675170898438</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>284.1493530273438</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>284.57861328125</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>283.9884338378906</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>282.9122009277344</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>280.3615417480469</v>
-      </c>
-      <c r="II3" t="n">
-        <v>281.3059387207031</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>281.49658203125</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>284.0917053222656</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>285.0206298828125</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>303.0994262695312</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>360.7358703613281</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>469.9978332519531</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>562.8207397460938</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>571.8372192382812</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>540.5675659179688</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>501.9504089355469</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>453.6610412597656</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>427.9244995117188</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>376.8517761230469</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>314.8299255371094</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>289.2202453613281</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>295.7348937988281</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>307.6270141601562</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>367.1042175292969</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>404.1719055175781</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>401.7002258300781</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>395.5572814941406</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>401.0186767578125</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>407.7044067382812</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>406.2507934570312</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>405.7875366210938</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>406.8764038085938</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>410.7105712890625</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>412.4839782714844</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>416.4730224609375</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>422.3427429199219</v>
+        <v>421.4637145996094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>935.0751342773438</v>
+        <v>1351.5439453125</v>
       </c>
       <c r="B4" t="n">
-        <v>934.5707397460938</v>
+        <v>1373.525268554688</v>
       </c>
       <c r="C4" t="n">
-        <v>934.1976928710938</v>
+        <v>1387.51220703125</v>
       </c>
       <c r="D4" t="n">
-        <v>933.8348999023438</v>
+        <v>1393.222045898438</v>
       </c>
       <c r="E4" t="n">
-        <v>933.4984130859375</v>
+        <v>1388.05419921875</v>
       </c>
       <c r="F4" t="n">
-        <v>932.9234619140625</v>
+        <v>1380.536743164062</v>
       </c>
       <c r="G4" t="n">
-        <v>932.3775024414062</v>
+        <v>1378.118408203125</v>
       </c>
       <c r="H4" t="n">
-        <v>931.9154052734375</v>
+        <v>1376.602905273438</v>
       </c>
       <c r="I4" t="n">
-        <v>931.7080078125</v>
+        <v>1383.926879882812</v>
       </c>
       <c r="J4" t="n">
-        <v>931.339599609375</v>
+        <v>1395.822265625</v>
       </c>
       <c r="K4" t="n">
-        <v>931.4891357421875</v>
+        <v>1419.42529296875</v>
       </c>
       <c r="L4" t="n">
-        <v>931.543701171875</v>
+        <v>1434.069458007812</v>
       </c>
       <c r="M4" t="n">
-        <v>931.7058715820312</v>
+        <v>1436.23046875</v>
       </c>
       <c r="N4" t="n">
-        <v>932.1498413085938</v>
+        <v>1432.119262695312</v>
       </c>
       <c r="O4" t="n">
-        <v>932.5748291015625</v>
+        <v>1421.71142578125</v>
       </c>
       <c r="P4" t="n">
-        <v>933.1268310546875</v>
+        <v>1416.606079101562</v>
       </c>
       <c r="Q4" t="n">
-        <v>934.1632690429688</v>
+        <v>1426.035400390625</v>
       </c>
       <c r="R4" t="n">
-        <v>935.5790405273438</v>
+        <v>1439.989990234375</v>
       </c>
       <c r="S4" t="n">
-        <v>936.8709106445312</v>
+        <v>1462.708129882812</v>
       </c>
       <c r="T4" t="n">
-        <v>938.5421142578125</v>
+        <v>1464.538940429688</v>
       </c>
       <c r="U4" t="n">
-        <v>941.2221069335938</v>
+        <v>1464.87451171875</v>
       </c>
       <c r="V4" t="n">
-        <v>945.1663208007812</v>
+        <v>1462.947143554688</v>
       </c>
       <c r="W4" t="n">
-        <v>948.6317138671875</v>
+        <v>1462.71923828125</v>
       </c>
       <c r="X4" t="n">
-        <v>948.63525390625</v>
+        <v>1465.6171875</v>
       </c>
       <c r="Y4" t="n">
-        <v>950.1553955078125</v>
+        <v>1471.40234375</v>
       </c>
       <c r="Z4" t="n">
-        <v>952.9442138671875</v>
+        <v>1472.904174804688</v>
       </c>
       <c r="AA4" t="n">
-        <v>953.002197265625</v>
+        <v>1474.556030273438</v>
       </c>
       <c r="AB4" t="n">
-        <v>955.1693725585938</v>
+        <v>1473.666625976562</v>
       </c>
       <c r="AC4" t="n">
-        <v>978.0737915039062</v>
+        <v>1471.15625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1016.356628417969</v>
+        <v>1467.29052734375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1057.873901367188</v>
+        <v>1459.164306640625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1094.326049804688</v>
+        <v>1445.733764648438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1116.60595703125</v>
+        <v>1436.837524414062</v>
       </c>
       <c r="AH4" t="n">
-        <v>1135.97705078125</v>
+        <v>1429.048461914062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1154.58349609375</v>
+        <v>1426.301879882812</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1172.567504882812</v>
+        <v>1423.249389648438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1190.427490234375</v>
+        <v>1423.694458007812</v>
       </c>
       <c r="AL4" t="n">
-        <v>1046.10302734375</v>
+        <v>1425.1884765625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1054.916015625</v>
+        <v>1427.854248046875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1065.284790039062</v>
+        <v>1429.723999023438</v>
       </c>
       <c r="AO4" t="n">
-        <v>1072.0712890625</v>
+        <v>1432.706298828125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1083.877319335938</v>
+        <v>1435.62939453125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1097.385498046875</v>
+        <v>1437.683715820312</v>
       </c>
       <c r="AR4" t="n">
-        <v>1113.137084960938</v>
+        <v>1435.83349609375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1132.99560546875</v>
+        <v>1433.656127929688</v>
       </c>
       <c r="AT4" t="n">
-        <v>1149.498291015625</v>
+        <v>1432.26220703125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1176.01318359375</v>
+        <v>1431.95947265625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1203.17626953125</v>
+        <v>1431.240356445312</v>
       </c>
       <c r="AW4" t="n">
-        <v>1224.189697265625</v>
+        <v>1432.166015625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1240.70068359375</v>
+        <v>1433.466186523438</v>
       </c>
       <c r="AY4" t="n">
-        <v>1256.265625</v>
+        <v>1419.130126953125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1281.399291992188</v>
+        <v>1389.392944335938</v>
       </c>
       <c r="BA4" t="n">
-        <v>1298.571899414062</v>
+        <v>1372.482421875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1322.048706054688</v>
+        <v>1375.691772460938</v>
       </c>
       <c r="BC4" t="n">
-        <v>1341.707397460938</v>
+        <v>1377.86669921875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1368.982543945312</v>
+        <v>1376.978881835938</v>
       </c>
       <c r="BE4" t="n">
-        <v>1383.411499023438</v>
+        <v>1377.887939453125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1407.397827148438</v>
+        <v>1379.777709960938</v>
       </c>
       <c r="BG4" t="n">
-        <v>1446.062255859375</v>
+        <v>1380.026245117188</v>
       </c>
       <c r="BH4" t="n">
-        <v>1472.120971679688</v>
+        <v>1380.326293945312</v>
       </c>
       <c r="BI4" t="n">
-        <v>1514.3125</v>
+        <v>1381.192626953125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1547.592895507812</v>
+        <v>1382.827514648438</v>
       </c>
       <c r="BK4" t="n">
-        <v>1557.229370117188</v>
+        <v>1388.789916992188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1564.728515625</v>
+        <v>1400.058959960938</v>
       </c>
       <c r="BM4" t="n">
-        <v>1582.558715820312</v>
+        <v>1405.573974609375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1596.82177734375</v>
+        <v>1406.728637695312</v>
       </c>
       <c r="BO4" t="n">
-        <v>1610.206420898438</v>
+        <v>1406.470458984375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1626.848388671875</v>
+        <v>1406.982421875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1671.244750976562</v>
+        <v>1406.875122070312</v>
       </c>
       <c r="BR4" t="n">
-        <v>1704.423583984375</v>
+        <v>1406.563842773438</v>
       </c>
       <c r="BS4" t="n">
-        <v>1717.372924804688</v>
+        <v>1406.156616210938</v>
       </c>
       <c r="BT4" t="n">
-        <v>1739.608642578125</v>
+        <v>1405.703125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1748.790893554688</v>
+        <v>1403.905639648438</v>
       </c>
       <c r="BV4" t="n">
-        <v>1772.195678710938</v>
+        <v>1400.554077148438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1785.284545898438</v>
+        <v>1393.706787109375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1801.492309570312</v>
+        <v>1385.549560546875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1788.597778320312</v>
+        <v>1381.190307617188</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1803.915893554688</v>
+        <v>1377.768310546875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1838.807495117188</v>
+        <v>1378.09912109375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1866.433715820312</v>
+        <v>1378.218383789062</v>
       </c>
       <c r="CC4" t="n">
-        <v>1863.191162109375</v>
+        <v>1376.664306640625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1868.246948242188</v>
+        <v>1373.111083984375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1879.474731445312</v>
+        <v>1365.782592773438</v>
       </c>
       <c r="CF4" t="n">
-        <v>1905.276123046875</v>
+        <v>1347.871215820312</v>
       </c>
       <c r="CG4" t="n">
-        <v>1934.995727539062</v>
+        <v>1337.163208007812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1963.06103515625</v>
+        <v>1337.571655273438</v>
       </c>
       <c r="CI4" t="n">
-        <v>1979.388549804688</v>
+        <v>1336.673217773438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1989.578125</v>
+        <v>1334.25390625</v>
       </c>
       <c r="CK4" t="n">
-        <v>2001.26611328125</v>
+        <v>1330.35986328125</v>
       </c>
       <c r="CL4" t="n">
-        <v>2019.573364257812</v>
+        <v>1325.135498046875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2020.5107421875</v>
+        <v>1324.594848632812</v>
       </c>
       <c r="CN4" t="n">
-        <v>2021.634155273438</v>
+        <v>1323.998046875</v>
       </c>
       <c r="CO4" t="n">
-        <v>2023.793212890625</v>
+        <v>1323.150390625</v>
       </c>
       <c r="CP4" t="n">
-        <v>2025.002197265625</v>
+        <v>1321.4267578125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2027.172729492188</v>
+        <v>1316.31982421875</v>
       </c>
       <c r="CR4" t="n">
-        <v>2026.4892578125</v>
+        <v>1300.870483398438</v>
       </c>
       <c r="CS4" t="n">
-        <v>2027.37255859375</v>
+        <v>1302.346801757812</v>
       </c>
       <c r="CT4" t="n">
-        <v>2034.108764648438</v>
+        <v>1305.700073242188</v>
       </c>
       <c r="CU4" t="n">
-        <v>2062.192138671875</v>
+        <v>1310.503173828125</v>
       </c>
       <c r="CV4" t="n">
-        <v>2089.811279296875</v>
+        <v>1316.771606445312</v>
       </c>
       <c r="CW4" t="n">
-        <v>2103.06005859375</v>
+        <v>1321.35205078125</v>
       </c>
       <c r="CX4" t="n">
-        <v>2153.126708984375</v>
+        <v>1325.029052734375</v>
       </c>
       <c r="CY4" t="n">
-        <v>2212.759765625</v>
+        <v>1327.16357421875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2195.56787109375</v>
+        <v>1326.724853515625</v>
       </c>
       <c r="DA4" t="n">
-        <v>2208.466064453125</v>
+        <v>1326.3408203125</v>
       </c>
       <c r="DB4" t="n">
-        <v>2212.91259765625</v>
+        <v>1325.673461914062</v>
       </c>
       <c r="DC4" t="n">
-        <v>2215.02001953125</v>
+        <v>1324.706298828125</v>
       </c>
       <c r="DD4" t="n">
-        <v>2217.976806640625</v>
+        <v>1324.537841796875</v>
       </c>
       <c r="DE4" t="n">
-        <v>2220.4296875</v>
+        <v>1326.087524414062</v>
       </c>
       <c r="DF4" t="n">
-        <v>2226.135009765625</v>
+        <v>1328.62890625</v>
       </c>
       <c r="DG4" t="n">
-        <v>2236.49755859375</v>
+        <v>1332.203857421875</v>
       </c>
       <c r="DH4" t="n">
-        <v>2251.2041015625</v>
+        <v>1337.403930664062</v>
       </c>
       <c r="DI4" t="n">
-        <v>2256.843017578125</v>
+        <v>1338.923950195312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2255.272216796875</v>
+        <v>1338.565185546875</v>
       </c>
       <c r="DK4" t="n">
-        <v>2253.201416015625</v>
+        <v>1337.56982421875</v>
       </c>
       <c r="DL4" t="n">
-        <v>2246.793212890625</v>
+        <v>1332.622802734375</v>
       </c>
       <c r="DM4" t="n">
-        <v>2235.712646484375</v>
+        <v>1327.483032226562</v>
       </c>
       <c r="DN4" t="n">
-        <v>2240.57470703125</v>
+        <v>1317.469482421875</v>
       </c>
       <c r="DO4" t="n">
-        <v>2240.0498046875</v>
+        <v>1314.898315429688</v>
       </c>
       <c r="DP4" t="n">
-        <v>2238.6923828125</v>
+        <v>1311.550903320312</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2235.1142578125</v>
+        <v>1311.395141601562</v>
       </c>
       <c r="DR4" t="n">
-        <v>2232.05859375</v>
+        <v>1311.876831054688</v>
       </c>
       <c r="DS4" t="n">
-        <v>2227.0751953125</v>
+        <v>1313.92041015625</v>
       </c>
       <c r="DT4" t="n">
-        <v>2227.00537109375</v>
+        <v>1315.404052734375</v>
       </c>
       <c r="DU4" t="n">
-        <v>2224.09375</v>
+        <v>1317.086547851562</v>
       </c>
       <c r="DV4" t="n">
-        <v>2221.289794921875</v>
+        <v>1323.392700195312</v>
       </c>
       <c r="DW4" t="n">
-        <v>2212.429931640625</v>
+        <v>1328.648193359375</v>
       </c>
       <c r="DX4" t="n">
-        <v>2211.16650390625</v>
+        <v>1331.253295898438</v>
       </c>
       <c r="DY4" t="n">
-        <v>2212.133544921875</v>
+        <v>1330.629150390625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2211.77294921875</v>
+        <v>1328.307373046875</v>
       </c>
       <c r="EA4" t="n">
-        <v>2211.841552734375</v>
+        <v>1326.58544921875</v>
       </c>
       <c r="EB4" t="n">
-        <v>2211.892333984375</v>
+        <v>1316.546630859375</v>
       </c>
       <c r="EC4" t="n">
-        <v>2210.8291015625</v>
+        <v>1309.923095703125</v>
       </c>
       <c r="ED4" t="n">
-        <v>2211.105712890625</v>
+        <v>1306.198852539062</v>
       </c>
       <c r="EE4" t="n">
-        <v>2211.8779296875</v>
+        <v>1305.836181640625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2213.036376953125</v>
+        <v>1305.51611328125</v>
       </c>
       <c r="EG4" t="n">
-        <v>2213.448486328125</v>
+        <v>1303.527099609375</v>
       </c>
       <c r="EH4" t="n">
-        <v>2213.25634765625</v>
+        <v>1299.598876953125</v>
       </c>
       <c r="EI4" t="n">
-        <v>2212.01220703125</v>
+        <v>1290.029296875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2211.15673828125</v>
+        <v>1276.887573242188</v>
       </c>
       <c r="EK4" t="n">
-        <v>2210.883544921875</v>
+        <v>1250.185546875</v>
       </c>
       <c r="EL4" t="n">
-        <v>2210.684814453125</v>
+        <v>1241.788208007812</v>
       </c>
       <c r="EM4" t="n">
-        <v>2210.2255859375</v>
+        <v>1209.832153320312</v>
       </c>
       <c r="EN4" t="n">
-        <v>2207.31591796875</v>
+        <v>1193.79052734375</v>
       </c>
       <c r="EO4" t="n">
-        <v>2202.416748046875</v>
+        <v>1176.454223632812</v>
       </c>
       <c r="EP4" t="n">
-        <v>2198.9599609375</v>
+        <v>1167.182495117188</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2199.253662109375</v>
+        <v>1127.831787109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>2201.0439453125</v>
+        <v>1120.378540039062</v>
       </c>
       <c r="ES4" t="n">
-        <v>2203.283203125</v>
+        <v>1092.902587890625</v>
       </c>
       <c r="ET4" t="n">
-        <v>2206.343994140625</v>
+        <v>1086.190673828125</v>
       </c>
       <c r="EU4" t="n">
-        <v>2216.843017578125</v>
+        <v>1074.322387695312</v>
       </c>
       <c r="EV4" t="n">
-        <v>2210.59619140625</v>
+        <v>1064.909545898438</v>
       </c>
       <c r="EW4" t="n">
-        <v>2225.990234375</v>
+        <v>1051.342163085938</v>
       </c>
       <c r="EX4" t="n">
-        <v>2226.35205078125</v>
+        <v>1043.703125</v>
       </c>
       <c r="EY4" t="n">
-        <v>2235.5283203125</v>
+        <v>1029.7529296875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2243.022705078125</v>
+        <v>1029.428344726562</v>
       </c>
       <c r="FA4" t="n">
-        <v>2239.28271484375</v>
+        <v>1026.676879882812</v>
       </c>
       <c r="FB4" t="n">
-        <v>2235.38916015625</v>
+        <v>1020.533569335938</v>
       </c>
       <c r="FC4" t="n">
-        <v>2234.019775390625</v>
+        <v>1002.182800292969</v>
       </c>
       <c r="FD4" t="n">
-        <v>2238.6142578125</v>
+        <v>978.8416137695312</v>
       </c>
       <c r="FE4" t="n">
-        <v>2237.1494140625</v>
+        <v>952.77587890625</v>
       </c>
       <c r="FF4" t="n">
-        <v>2236.2822265625</v>
+        <v>945.772705078125</v>
       </c>
       <c r="FG4" t="n">
-        <v>2231.072509765625</v>
+        <v>948.447265625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2240.130615234375</v>
+        <v>948.45263671875</v>
       </c>
       <c r="FI4" t="n">
-        <v>2236.24560546875</v>
+        <v>947.2767944335938</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2230.0888671875</v>
+        <v>947.5999755859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2230.88330078125</v>
+        <v>948.1640625</v>
       </c>
       <c r="FL4" t="n">
-        <v>2226.8486328125</v>
+        <v>941.1270141601562</v>
       </c>
       <c r="FM4" t="n">
-        <v>2201.64990234375</v>
+        <v>939.7852783203125</v>
       </c>
       <c r="FN4" t="n">
-        <v>2193.281982421875</v>
+        <v>940.5250854492188</v>
       </c>
       <c r="FO4" t="n">
-        <v>2193.15283203125</v>
+        <v>941.4332885742188</v>
       </c>
       <c r="FP4" t="n">
-        <v>2190.754150390625</v>
+        <v>657.2060546875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2175.92138671875</v>
+        <v>626.40625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2160.995361328125</v>
+        <v>915.0899047851562</v>
       </c>
       <c r="FS4" t="n">
-        <v>2170.7412109375</v>
+        <v>907.2576293945312</v>
       </c>
       <c r="FT4" t="n">
-        <v>2169.6162109375</v>
+        <v>906.3604125976562</v>
       </c>
       <c r="FU4" t="n">
-        <v>2167.574951171875</v>
+        <v>909.7110595703125</v>
       </c>
       <c r="FV4" t="n">
-        <v>2168.045654296875</v>
+        <v>911.9867553710938</v>
       </c>
       <c r="FW4" t="n">
-        <v>2173.53271484375</v>
+        <v>915.9392700195312</v>
       </c>
       <c r="FX4" t="n">
-        <v>2185.722900390625</v>
+        <v>916.0606689453125</v>
       </c>
       <c r="FY4" t="n">
-        <v>2184.179931640625</v>
+        <v>916.2247924804688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2199.897216796875</v>
+        <v>916.4579467773438</v>
       </c>
       <c r="GA4" t="n">
-        <v>2202.969482421875</v>
+        <v>917.2552490234375</v>
       </c>
       <c r="GB4" t="n">
-        <v>2201.758056640625</v>
+        <v>919.2490234375</v>
       </c>
       <c r="GC4" t="n">
-        <v>2198.626708984375</v>
+        <v>921.70703125</v>
       </c>
       <c r="GD4" t="n">
-        <v>2197.26708984375</v>
+        <v>918.6327514648438</v>
       </c>
       <c r="GE4" t="n">
-        <v>2197.40087890625</v>
+        <v>903.905029296875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2194.68017578125</v>
+        <v>865.5609741210938</v>
       </c>
       <c r="GG4" t="n">
-        <v>2192.44482421875</v>
+        <v>717.336669921875</v>
       </c>
       <c r="GH4" t="n">
-        <v>2189.14990234375</v>
+        <v>879.525390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2184.254638671875</v>
+        <v>867.1778564453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2184.15234375</v>
+        <v>861.1141357421875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2183.868896484375</v>
+        <v>852.077880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2183.08642578125</v>
+        <v>825.5328979492188</v>
       </c>
       <c r="GM4" t="n">
-        <v>2179.975341796875</v>
+        <v>838.7572631835938</v>
       </c>
       <c r="GN4" t="n">
-        <v>2178.37890625</v>
+        <v>831.3522338867188</v>
       </c>
       <c r="GO4" t="n">
-        <v>2177.17919921875</v>
+        <v>830.56689453125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2177.35009765625</v>
+        <v>794.6765747070312</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2177.952880859375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2179.759521484375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2182.519775390625</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2189.3310546875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2188.125732421875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2186.97216796875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2185.59814453125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2183.82861328125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2155.421875</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2120.736083984375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2096.774169921875</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2064.057373046875</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2055.707275390625</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2053.1435546875</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1985.202026367188</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1955.57861328125</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1927.69921875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1873.308837890625</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1826.146850585938</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1818.4638671875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1786.223876953125</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1718.515991210938</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1679.176879882812</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1667.170166015625</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1635.592407226562</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1609.707153320312</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1578.704223632812</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1568.0654296875</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1522.856323242188</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1471.7275390625</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1447.372802734375</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1401.989379882812</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1354.390747070312</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1301.186645507812</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1260.502807617188</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1227.075805664062</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1210.145385742188</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1168.959594726562</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1156.62158203125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1128.053466796875</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1105.54296875</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1077.233642578125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>1045.903442382812</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>1020.334899902344</v>
-      </c>
-      <c r="II4" t="n">
-        <v>989.8126220703125</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>967.3091430664062</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>949.0758666992188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>935.808837890625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>656.83056640625</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>717.640869140625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>569.2091674804688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>450.7431945800781</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>431.2535705566406</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>437.9371948242188</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>469.2113037109375</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>543.0006713867188</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>589.8070678710938</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>575.6818237304688</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>641.70751953125</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>812.1939697265625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>827.9441528320312</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>856.5226440429688</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>829.6244506835938</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>840.1959228515625</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>896.5067749023438</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>952.5291137695312</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>972.1528930664062</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>980.8523559570312</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>1006.90625</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>1015.874694824219</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>1010.807800292969</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>988.3518676757812</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>964.6072998046875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>933.4401245117188</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>898.4974365234375</v>
+        <v>784.9254150390625</v>
       </c>
     </row>
   </sheetData>

--- a/right_elbow_Data.xlsx
+++ b/right_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>332.1440124511719</v>
+        <v>257.7055053710938</v>
       </c>
       <c r="B2" t="n">
-        <v>326.6277770996094</v>
+        <v>253.0250854492188</v>
       </c>
       <c r="C2" t="n">
-        <v>323.4056091308594</v>
+        <v>250.7761840820312</v>
       </c>
       <c r="D2" t="n">
-        <v>324.8943786621094</v>
+        <v>246.8639831542969</v>
       </c>
       <c r="E2" t="n">
-        <v>329.2268371582031</v>
+        <v>241.8086090087891</v>
       </c>
       <c r="F2" t="n">
-        <v>337.7234497070312</v>
+        <v>240.9812622070312</v>
       </c>
       <c r="G2" t="n">
-        <v>343.7854614257812</v>
+        <v>240.3161010742188</v>
       </c>
       <c r="H2" t="n">
-        <v>346.7967529296875</v>
+        <v>241.8267059326172</v>
       </c>
       <c r="I2" t="n">
-        <v>346.0588989257812</v>
+        <v>244.1151733398438</v>
       </c>
       <c r="J2" t="n">
-        <v>345.8063354492188</v>
+        <v>247.7204742431641</v>
       </c>
       <c r="K2" t="n">
-        <v>345.4443054199219</v>
+        <v>249.9178924560547</v>
       </c>
       <c r="L2" t="n">
-        <v>344.6966247558594</v>
+        <v>250.6766052246094</v>
       </c>
       <c r="M2" t="n">
-        <v>343.9410095214844</v>
+        <v>251.9295043945312</v>
       </c>
       <c r="N2" t="n">
-        <v>340.1861267089844</v>
+        <v>255.1872863769531</v>
       </c>
       <c r="O2" t="n">
-        <v>332.0631408691406</v>
+        <v>257.8246765136719</v>
       </c>
       <c r="P2" t="n">
-        <v>324.7522583007812</v>
+        <v>260.4279479980469</v>
       </c>
       <c r="Q2" t="n">
-        <v>319.4903259277344</v>
+        <v>262.3348693847656</v>
       </c>
       <c r="R2" t="n">
-        <v>316.5049133300781</v>
+        <v>264.7005615234375</v>
       </c>
       <c r="S2" t="n">
-        <v>314.6449890136719</v>
+        <v>266.2544555664062</v>
       </c>
       <c r="T2" t="n">
-        <v>313.0977172851562</v>
+        <v>267.9283447265625</v>
       </c>
       <c r="U2" t="n">
-        <v>311.4386596679688</v>
+        <v>269.1888122558594</v>
       </c>
       <c r="V2" t="n">
-        <v>311.7326049804688</v>
+        <v>269.8617858886719</v>
       </c>
       <c r="W2" t="n">
-        <v>311.67919921875</v>
+        <v>270.0166320800781</v>
       </c>
       <c r="X2" t="n">
-        <v>311.3965759277344</v>
+        <v>270.5193786621094</v>
       </c>
       <c r="Y2" t="n">
-        <v>310.3446350097656</v>
+        <v>270.1707458496094</v>
       </c>
       <c r="Z2" t="n">
-        <v>306.4059143066406</v>
+        <v>268.8285217285156</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.415283203125</v>
+        <v>266.5216979980469</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.05859375</v>
+        <v>265.1139831542969</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.3133850097656</v>
+        <v>263.6865234375</v>
       </c>
       <c r="AD2" t="n">
-        <v>295.1633605957031</v>
+        <v>263.4825439453125</v>
       </c>
       <c r="AE2" t="n">
-        <v>293.5375366210938</v>
+        <v>263.5019226074219</v>
       </c>
       <c r="AF2" t="n">
-        <v>291.36962890625</v>
+        <v>263.4335021972656</v>
       </c>
       <c r="AG2" t="n">
-        <v>290.3672180175781</v>
+        <v>262.90478515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>289.8739929199219</v>
+        <v>262.8795776367188</v>
       </c>
       <c r="AI2" t="n">
-        <v>289.79150390625</v>
+        <v>263.6607360839844</v>
       </c>
       <c r="AJ2" t="n">
-        <v>290.26220703125</v>
+        <v>264.6100463867188</v>
       </c>
       <c r="AK2" t="n">
-        <v>290.8973083496094</v>
+        <v>265.2211303710938</v>
       </c>
       <c r="AL2" t="n">
-        <v>291.5314331054688</v>
+        <v>265.8197631835938</v>
       </c>
       <c r="AM2" t="n">
-        <v>292.0621337890625</v>
+        <v>266.281005859375</v>
       </c>
       <c r="AN2" t="n">
-        <v>292.5821838378906</v>
+        <v>266.2658996582031</v>
       </c>
       <c r="AO2" t="n">
-        <v>293.0885925292969</v>
+        <v>266.5885620117188</v>
       </c>
       <c r="AP2" t="n">
-        <v>292.3523254394531</v>
+        <v>267.0514221191406</v>
       </c>
       <c r="AQ2" t="n">
-        <v>291.7669067382812</v>
+        <v>268.5718383789062</v>
       </c>
       <c r="AR2" t="n">
-        <v>290.1177062988281</v>
+        <v>272.2530822753906</v>
       </c>
       <c r="AS2" t="n">
-        <v>286.9065551757812</v>
+        <v>274.6510925292969</v>
       </c>
       <c r="AT2" t="n">
-        <v>284.0574035644531</v>
+        <v>276.1906127929688</v>
       </c>
       <c r="AU2" t="n">
-        <v>280.3655700683594</v>
+        <v>277.33544921875</v>
       </c>
       <c r="AV2" t="n">
-        <v>277.8879699707031</v>
+        <v>277.3873291015625</v>
       </c>
       <c r="AW2" t="n">
-        <v>272.958984375</v>
+        <v>277.7505187988281</v>
       </c>
       <c r="AX2" t="n">
-        <v>268.1412048339844</v>
+        <v>279.116455078125</v>
       </c>
       <c r="AY2" t="n">
-        <v>265.8459777832031</v>
+        <v>280.4249267578125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>260.5820922851562</v>
+        <v>280.8465576171875</v>
       </c>
       <c r="BA2" t="n">
-        <v>253.4025268554688</v>
+        <v>281.0392456054688</v>
       </c>
       <c r="BB2" t="n">
-        <v>246.2510986328125</v>
+        <v>280.7303161621094</v>
       </c>
       <c r="BC2" t="n">
-        <v>238.3021850585938</v>
+        <v>280.0540161132812</v>
       </c>
       <c r="BD2" t="n">
-        <v>230.7176971435547</v>
+        <v>278.9457702636719</v>
       </c>
       <c r="BE2" t="n">
-        <v>224.5861968994141</v>
+        <v>277.4399108886719</v>
       </c>
       <c r="BF2" t="n">
-        <v>217.6046752929688</v>
+        <v>277.6558532714844</v>
       </c>
       <c r="BG2" t="n">
-        <v>212.5377197265625</v>
+        <v>277.9383239746094</v>
       </c>
       <c r="BH2" t="n">
-        <v>206.7456359863281</v>
+        <v>278.3520202636719</v>
       </c>
       <c r="BI2" t="n">
-        <v>199.9388122558594</v>
+        <v>278.5394287109375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>194.1121215820312</v>
+        <v>278.4121398925781</v>
       </c>
       <c r="BK2" t="n">
-        <v>189.3045959472656</v>
+        <v>278.5762329101562</v>
       </c>
       <c r="BL2" t="n">
-        <v>185.5612487792969</v>
+        <v>278.6890869140625</v>
       </c>
       <c r="BM2" t="n">
-        <v>181.5420837402344</v>
+        <v>278.6032409667969</v>
       </c>
       <c r="BN2" t="n">
-        <v>175.6698608398438</v>
+        <v>277.6873168945312</v>
       </c>
       <c r="BO2" t="n">
-        <v>172.4795227050781</v>
+        <v>275.2444458007812</v>
       </c>
       <c r="BP2" t="n">
-        <v>168.232666015625</v>
+        <v>274.4277038574219</v>
       </c>
       <c r="BQ2" t="n">
-        <v>164.4837341308594</v>
+        <v>273.9771728515625</v>
       </c>
       <c r="BR2" t="n">
-        <v>161.561279296875</v>
+        <v>273.7274169921875</v>
       </c>
       <c r="BS2" t="n">
-        <v>159.3722839355469</v>
+        <v>274.03515625</v>
       </c>
       <c r="BT2" t="n">
-        <v>158.7918701171875</v>
+        <v>273.8095092773438</v>
       </c>
       <c r="BU2" t="n">
-        <v>157.8045043945312</v>
+        <v>273.6255493164062</v>
       </c>
       <c r="BV2" t="n">
-        <v>157.2430725097656</v>
+        <v>273.4604187011719</v>
       </c>
       <c r="BW2" t="n">
-        <v>156.2635803222656</v>
+        <v>273.2242431640625</v>
       </c>
       <c r="BX2" t="n">
-        <v>155.1510162353516</v>
+        <v>272.9908447265625</v>
       </c>
       <c r="BY2" t="n">
-        <v>154.5085144042969</v>
+        <v>272.8614807128906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>153.9890594482422</v>
+        <v>272.7474365234375</v>
       </c>
       <c r="CA2" t="n">
-        <v>153.9185028076172</v>
+        <v>272.563720703125</v>
       </c>
       <c r="CB2" t="n">
-        <v>153.7843627929688</v>
+        <v>272.4671630859375</v>
       </c>
       <c r="CC2" t="n">
-        <v>153.2853393554688</v>
+        <v>272.3953857421875</v>
       </c>
       <c r="CD2" t="n">
-        <v>152.1699523925781</v>
+        <v>272.2556762695312</v>
       </c>
       <c r="CE2" t="n">
-        <v>149.2951202392578</v>
+        <v>272.1106567382812</v>
       </c>
       <c r="CF2" t="n">
-        <v>145.0065155029297</v>
+        <v>271.9782104492188</v>
       </c>
       <c r="CG2" t="n">
-        <v>139.1891632080078</v>
+        <v>272.0011596679688</v>
       </c>
       <c r="CH2" t="n">
-        <v>134.0256195068359</v>
+        <v>272.0212707519531</v>
       </c>
       <c r="CI2" t="n">
-        <v>130.9913482666016</v>
+        <v>272.0730590820312</v>
       </c>
       <c r="CJ2" t="n">
-        <v>128.0940704345703</v>
+        <v>272.1170043945312</v>
       </c>
       <c r="CK2" t="n">
-        <v>125.4386901855469</v>
+        <v>272.2073669433594</v>
       </c>
       <c r="CL2" t="n">
-        <v>123.0391387939453</v>
+        <v>272.2538452148438</v>
       </c>
       <c r="CM2" t="n">
-        <v>123.1409530639648</v>
+        <v>272.0929870605469</v>
       </c>
       <c r="CN2" t="n">
-        <v>123.3826751708984</v>
+        <v>272.1138610839844</v>
       </c>
       <c r="CO2" t="n">
-        <v>123.7297973632812</v>
+        <v>272.5322265625</v>
       </c>
       <c r="CP2" t="n">
-        <v>123.9690399169922</v>
+        <v>274.1631774902344</v>
       </c>
       <c r="CQ2" t="n">
-        <v>123.9077453613281</v>
+        <v>276.7183837890625</v>
       </c>
       <c r="CR2" t="n">
-        <v>123.9909973144531</v>
+        <v>277.4955749511719</v>
       </c>
       <c r="CS2" t="n">
-        <v>126.7087173461914</v>
+        <v>277.5102233886719</v>
       </c>
       <c r="CT2" t="n">
-        <v>131.5818176269531</v>
+        <v>276.9941711425781</v>
       </c>
       <c r="CU2" t="n">
-        <v>137.5653076171875</v>
+        <v>277.025634765625</v>
       </c>
       <c r="CV2" t="n">
-        <v>142.4663696289062</v>
+        <v>276.9966735839844</v>
       </c>
       <c r="CW2" t="n">
-        <v>146.8368988037109</v>
+        <v>276.98486328125</v>
       </c>
       <c r="CX2" t="n">
-        <v>151.8330535888672</v>
+        <v>276.9525451660156</v>
       </c>
       <c r="CY2" t="n">
-        <v>158.8566741943359</v>
+        <v>276.9291381835938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>163.9008178710938</v>
+        <v>276.9907531738281</v>
       </c>
       <c r="DA2" t="n">
-        <v>165.8913269042969</v>
+        <v>276.9908752441406</v>
       </c>
       <c r="DB2" t="n">
-        <v>168.4250183105469</v>
+        <v>277.4953002929688</v>
       </c>
       <c r="DC2" t="n">
-        <v>168.6361389160156</v>
+        <v>277.5482788085938</v>
       </c>
       <c r="DD2" t="n">
-        <v>168.9043884277344</v>
+        <v>277.7080383300781</v>
       </c>
       <c r="DE2" t="n">
-        <v>171.3287353515625</v>
+        <v>277.8197021484375</v>
       </c>
       <c r="DF2" t="n">
-        <v>177.6928863525391</v>
+        <v>277.9063720703125</v>
       </c>
       <c r="DG2" t="n">
-        <v>181.9044189453125</v>
+        <v>277.9497985839844</v>
       </c>
       <c r="DH2" t="n">
-        <v>185.7052612304688</v>
+        <v>277.9740295410156</v>
       </c>
       <c r="DI2" t="n">
-        <v>189.8300476074219</v>
+        <v>277.7702026367188</v>
       </c>
       <c r="DJ2" t="n">
-        <v>192.6978149414062</v>
+        <v>277.6083068847656</v>
       </c>
       <c r="DK2" t="n">
-        <v>194.3664855957031</v>
+        <v>277.4147033691406</v>
       </c>
       <c r="DL2" t="n">
-        <v>202.1643676757812</v>
+        <v>276.776611328125</v>
       </c>
       <c r="DM2" t="n">
-        <v>207.1606597900391</v>
+        <v>275.2669982910156</v>
       </c>
       <c r="DN2" t="n">
-        <v>213.1178894042969</v>
+        <v>269.4002685546875</v>
       </c>
       <c r="DO2" t="n">
-        <v>219.85595703125</v>
+        <v>269.7355346679688</v>
       </c>
       <c r="DP2" t="n">
-        <v>236.8189392089844</v>
+        <v>270.5004272460938</v>
       </c>
       <c r="DQ2" t="n">
-        <v>244.0263214111328</v>
+        <v>270.8736267089844</v>
       </c>
       <c r="DR2" t="n">
-        <v>250.9344329833984</v>
+        <v>270.7584838867188</v>
       </c>
       <c r="DS2" t="n">
-        <v>269.5480041503906</v>
+        <v>270.6361694335938</v>
       </c>
       <c r="DT2" t="n">
-        <v>279.4292602539062</v>
+        <v>270.5363159179688</v>
       </c>
       <c r="DU2" t="n">
-        <v>288.0346984863281</v>
+        <v>270.4235229492188</v>
       </c>
       <c r="DV2" t="n">
-        <v>301.0874633789062</v>
+        <v>270.46533203125</v>
       </c>
       <c r="DW2" t="n">
-        <v>305.1962585449219</v>
+        <v>270.4726867675781</v>
       </c>
       <c r="DX2" t="n">
-        <v>305.4947509765625</v>
+        <v>270.4811706542969</v>
       </c>
       <c r="DY2" t="n">
-        <v>306.474609375</v>
+        <v>270.4734802246094</v>
       </c>
       <c r="DZ2" t="n">
-        <v>308.4385375976562</v>
+        <v>270.4600219726562</v>
       </c>
       <c r="EA2" t="n">
-        <v>309.3661193847656</v>
+        <v>270.4472351074219</v>
       </c>
       <c r="EB2" t="n">
-        <v>310.3645935058594</v>
+        <v>270.4216918945312</v>
       </c>
       <c r="EC2" t="n">
-        <v>310.3335876464844</v>
+        <v>270.4228820800781</v>
       </c>
       <c r="ED2" t="n">
-        <v>310.2007141113281</v>
+        <v>270.4472045898438</v>
       </c>
       <c r="EE2" t="n">
-        <v>310.0663757324219</v>
+        <v>270.4699096679688</v>
       </c>
       <c r="EF2" t="n">
-        <v>309.80615234375</v>
+        <v>270.5183715820312</v>
       </c>
       <c r="EG2" t="n">
-        <v>308.185791015625</v>
+        <v>270.548828125</v>
       </c>
       <c r="EH2" t="n">
-        <v>305.1242065429688</v>
+        <v>270.5545959472656</v>
       </c>
       <c r="EI2" t="n">
-        <v>296.3280944824219</v>
+        <v>270.614013671875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>291.0961303710938</v>
+        <v>271.2332153320312</v>
       </c>
       <c r="EK2" t="n">
-        <v>279.9131164550781</v>
+        <v>274.4745483398438</v>
       </c>
       <c r="EL2" t="n">
-        <v>274.1997680664062</v>
+        <v>272.7780151367188</v>
       </c>
       <c r="EM2" t="n">
-        <v>261.6919250488281</v>
+        <v>271.9857177734375</v>
       </c>
       <c r="EN2" t="n">
-        <v>256.0322265625</v>
+        <v>272.6620178222656</v>
       </c>
       <c r="EO2" t="n">
-        <v>243.5937652587891</v>
+        <v>274.7066650390625</v>
       </c>
       <c r="EP2" t="n">
-        <v>236.9885559082031</v>
+        <v>274.3931884765625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>219.4547729492188</v>
+        <v>273.8747863769531</v>
       </c>
       <c r="ER2" t="n">
-        <v>212.224609375</v>
+        <v>273.0120239257812</v>
       </c>
       <c r="ES2" t="n">
-        <v>195.6740112304688</v>
+        <v>273.0086059570312</v>
       </c>
       <c r="ET2" t="n">
-        <v>192.0729064941406</v>
+        <v>272.9073181152344</v>
       </c>
       <c r="EU2" t="n">
-        <v>186.6133422851562</v>
+        <v>272.8969421386719</v>
       </c>
       <c r="EV2" t="n">
-        <v>184.3199005126953</v>
+        <v>272.8686828613281</v>
       </c>
       <c r="EW2" t="n">
-        <v>183.0177917480469</v>
+        <v>272.9498596191406</v>
       </c>
       <c r="EX2" t="n">
-        <v>182.3828735351562</v>
+        <v>273.2693176269531</v>
       </c>
       <c r="EY2" t="n">
-        <v>181.9023284912109</v>
+        <v>273.0997619628906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>186.8409423828125</v>
+        <v>273.0717163085938</v>
       </c>
       <c r="FA2" t="n">
-        <v>198.8618774414062</v>
+        <v>273.2989196777344</v>
       </c>
       <c r="FB2" t="n">
-        <v>209.8999176025391</v>
+        <v>273.150146484375</v>
       </c>
       <c r="FC2" t="n">
-        <v>224.4381408691406</v>
+        <v>271.1586303710938</v>
       </c>
       <c r="FD2" t="n">
-        <v>223.5771331787109</v>
+        <v>270.1625061035156</v>
       </c>
       <c r="FE2" t="n">
-        <v>221.22021484375</v>
+        <v>270.4196166992188</v>
       </c>
       <c r="FF2" t="n">
-        <v>221.5523071289062</v>
+        <v>270.5930786132812</v>
       </c>
       <c r="FG2" t="n">
-        <v>222.6033782958984</v>
+        <v>270.5788879394531</v>
       </c>
       <c r="FH2" t="n">
-        <v>224.4700622558594</v>
+        <v>270.4188537597656</v>
       </c>
       <c r="FI2" t="n">
-        <v>225.1036987304688</v>
+        <v>270.1096801757812</v>
       </c>
       <c r="FJ2" t="n">
-        <v>230.3204040527344</v>
+        <v>269.5884094238281</v>
       </c>
       <c r="FK2" t="n">
-        <v>240.6387634277344</v>
+        <v>269.3074035644531</v>
       </c>
       <c r="FL2" t="n">
-        <v>258.0233764648438</v>
+        <v>269.28759765625</v>
       </c>
       <c r="FM2" t="n">
-        <v>261.5607604980469</v>
+        <v>269.2377319335938</v>
       </c>
       <c r="FN2" t="n">
-        <v>266.4268188476562</v>
+        <v>269.1837768554688</v>
       </c>
       <c r="FO2" t="n">
-        <v>280.7443237304688</v>
+        <v>269.1486206054688</v>
       </c>
       <c r="FP2" t="n">
-        <v>303.4844665527344</v>
+        <v>269.11572265625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>289.7054443359375</v>
+        <v>269.1012268066406</v>
       </c>
       <c r="FR2" t="n">
-        <v>310.1460571289062</v>
+        <v>269.013427734375</v>
       </c>
       <c r="FS2" t="n">
-        <v>321.8980407714844</v>
+        <v>268.9532775878906</v>
       </c>
       <c r="FT2" t="n">
-        <v>332.9452819824219</v>
+        <v>268.7427673339844</v>
       </c>
       <c r="FU2" t="n">
-        <v>346.4349060058594</v>
+        <v>268.6820983886719</v>
       </c>
       <c r="FV2" t="n">
-        <v>352.7123413085938</v>
+        <v>270.0812683105469</v>
       </c>
       <c r="FW2" t="n">
-        <v>364.2607116699219</v>
+        <v>273.7738952636719</v>
       </c>
       <c r="FX2" t="n">
-        <v>369.5856323242188</v>
+        <v>273.4412231445312</v>
       </c>
       <c r="FY2" t="n">
-        <v>371.7752685546875</v>
+        <v>273.263671875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>373.879638671875</v>
+        <v>273.0673828125</v>
       </c>
       <c r="GA2" t="n">
-        <v>374.4879760742188</v>
+        <v>273.0663452148438</v>
       </c>
       <c r="GB2" t="n">
-        <v>375.7135620117188</v>
+        <v>273.0599670410156</v>
       </c>
       <c r="GC2" t="n">
-        <v>374.9845886230469</v>
+        <v>272.9784240722656</v>
       </c>
       <c r="GD2" t="n">
-        <v>356.4697875976562</v>
+        <v>272.8522033691406</v>
       </c>
       <c r="GE2" t="n">
-        <v>355.9291076660156</v>
+        <v>272.5121154785156</v>
       </c>
       <c r="GF2" t="n">
-        <v>355.6601257324219</v>
+        <v>272.2630615234375</v>
       </c>
       <c r="GG2" t="n">
-        <v>416.8108520507812</v>
+        <v>272.0155944824219</v>
       </c>
       <c r="GH2" t="n">
-        <v>316.6759033203125</v>
+        <v>271.9386596679688</v>
       </c>
       <c r="GI2" t="n">
-        <v>299.0919494628906</v>
+        <v>272.2841491699219</v>
       </c>
       <c r="GJ2" t="n">
-        <v>285.8280944824219</v>
+        <v>272.4911804199219</v>
       </c>
       <c r="GK2" t="n">
-        <v>318.0531616210938</v>
+        <v>272.8847045898438</v>
       </c>
       <c r="GL2" t="n">
-        <v>303.8849182128906</v>
+        <v>273.1951293945312</v>
       </c>
       <c r="GM2" t="n">
-        <v>299.0804138183594</v>
+        <v>271.7875061035156</v>
       </c>
       <c r="GN2" t="n">
-        <v>283.0708312988281</v>
+        <v>269.4079284667969</v>
       </c>
       <c r="GO2" t="n">
-        <v>279.135498046875</v>
+        <v>267.3047485351562</v>
       </c>
       <c r="GP2" t="n">
-        <v>233.7602996826172</v>
+        <v>268.2278747558594</v>
       </c>
       <c r="GQ2" t="n">
-        <v>210.2462005615234</v>
+        <v>267.8243713378906</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>267.9534301757812</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>268.0794677734375</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>268.0787963867188</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>268.0775451660156</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>268.1161804199219</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>268.1224060058594</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>268.1150207519531</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>268.1022338867188</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>268.0652465820312</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>267.9863586425781</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>267.9609680175781</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>267.8991088867188</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>271.9273986816406</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>274.210205078125</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>275.6421813964844</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>275.42236328125</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>275.5644226074219</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>275.0167541503906</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>273.2196655273438</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>272.3620300292969</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>272.4150390625</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>272.4349670410156</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>272.5311279296875</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>272.5146484375</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>272.4966125488281</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>272.7897338867188</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>272.5860900878906</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>272.8076477050781</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>271.1062622070312</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>266.9995727539062</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>268.1903991699219</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>268.0177612304688</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>268.2217407226562</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>268.2251281738281</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>267.7993774414062</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>267.0224609375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>267.1528625488281</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>267.3158569335938</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>267.6051940917969</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>267.659912109375</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>267.6251831054688</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>267.5709228515625</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>267.4290466308594</v>
+      </c>
+      <c r="II2" t="n">
+        <v>267.407958984375</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>267.3519592285156</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>267.7748107910156</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>271.0679931640625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>272.6802673339844</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>271.8683776855469</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>272.2813110351562</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>272.2587585449219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>272.2212524414062</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>271.7301025390625</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>270.6943664550781</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>270.7117309570312</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>270.8048095703125</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>268.1710510253906</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>270.7098388671875</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>271.1082763671875</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>267.8302612304688</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>266.2067565917969</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>267.0726013183594</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>267.2239990234375</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>267.1524353027344</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>266.8303833007812</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>266.3459167480469</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>266.0680236816406</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>265.8497619628906</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>265.8126831054688</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>265.7261657714844</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>265.6964111328125</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>265.7280883789062</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>265.5630493164062</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>264.3649291992188</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>264.3987121582031</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>264.9129333496094</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>270.8323669433594</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>271.3414306640625</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>269.5320129394531</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>270.5933532714844</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>268.7724914550781</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>268.7311401367188</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>268.6313781738281</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>268.4969177246094</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>268.1370849609375</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>267.5412902832031</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>265.8107299804688</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>261.35107421875</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>260.6065979003906</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>260.532470703125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>260.8139343261719</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>260.9932556152344</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>261.124755859375</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>254.6183624267578</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>251.7195892333984</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>250.4863739013672</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>250.6835327148438</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>248.9410705566406</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>249.2370452880859</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>250.8951110839844</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>251.4345703125</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>254.6775207519531</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>253.8204345703125</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>252.5419311523438</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>251.1430206298828</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>252.3477172851562</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>249.7351379394531</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>239.2732086181641</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>229.5758972167969</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>223.5596618652344</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>212.4998474121094</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>201.1185302734375</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>192.2340393066406</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>181.7406311035156</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>173.2967834472656</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>167.2677764892578</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>165.3038635253906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>349.6825256347656</v>
+        <v>307.2351989746094</v>
       </c>
       <c r="B3" t="n">
-        <v>339.1994934082031</v>
+        <v>304.9579772949219</v>
       </c>
       <c r="C3" t="n">
-        <v>332.552490234375</v>
+        <v>307.3253784179688</v>
       </c>
       <c r="D3" t="n">
-        <v>329.494384765625</v>
+        <v>310.2570495605469</v>
       </c>
       <c r="E3" t="n">
-        <v>330.8469543457031</v>
+        <v>312.2498474121094</v>
       </c>
       <c r="F3" t="n">
-        <v>334.4168701171875</v>
+        <v>311.3042602539062</v>
       </c>
       <c r="G3" t="n">
-        <v>335.0645141601562</v>
+        <v>312.1044311523438</v>
       </c>
       <c r="H3" t="n">
-        <v>332.0855407714844</v>
+        <v>312.1570129394531</v>
       </c>
       <c r="I3" t="n">
-        <v>327.3163757324219</v>
+        <v>311.4254150390625</v>
       </c>
       <c r="J3" t="n">
-        <v>319.4744262695312</v>
+        <v>310.5581359863281</v>
       </c>
       <c r="K3" t="n">
-        <v>308.1900329589844</v>
+        <v>312.3690490722656</v>
       </c>
       <c r="L3" t="n">
-        <v>303.9081726074219</v>
+        <v>313.4253540039062</v>
       </c>
       <c r="M3" t="n">
-        <v>301.7745971679688</v>
+        <v>313.982421875</v>
       </c>
       <c r="N3" t="n">
-        <v>299.6445617675781</v>
+        <v>313.3922119140625</v>
       </c>
       <c r="O3" t="n">
-        <v>297.8288879394531</v>
+        <v>312.7738647460938</v>
       </c>
       <c r="P3" t="n">
-        <v>293.3588562011719</v>
+        <v>311.27734375</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.4780578613281</v>
+        <v>309.3497314453125</v>
       </c>
       <c r="R3" t="n">
-        <v>281.743408203125</v>
+        <v>305.7169494628906</v>
       </c>
       <c r="S3" t="n">
-        <v>274.8561096191406</v>
+        <v>303.3630981445312</v>
       </c>
       <c r="T3" t="n">
-        <v>268.8353576660156</v>
+        <v>301.0335693359375</v>
       </c>
       <c r="U3" t="n">
-        <v>265.0999755859375</v>
+        <v>299.4370727539062</v>
       </c>
       <c r="V3" t="n">
-        <v>261.2299499511719</v>
+        <v>298.6581115722656</v>
       </c>
       <c r="W3" t="n">
-        <v>258.1783752441406</v>
+        <v>300.216796875</v>
       </c>
       <c r="X3" t="n">
-        <v>256.5425415039062</v>
+        <v>301.20166015625</v>
       </c>
       <c r="Y3" t="n">
-        <v>254.2414245605469</v>
+        <v>303.94921875</v>
       </c>
       <c r="Z3" t="n">
-        <v>251.7876434326172</v>
+        <v>306.3989868164062</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.5317993164062</v>
+        <v>310.2651977539062</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.4965057373047</v>
+        <v>311.2204284667969</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.9523620605469</v>
+        <v>313.9319763183594</v>
       </c>
       <c r="AD3" t="n">
-        <v>243.5078735351562</v>
+        <v>314.3738708496094</v>
       </c>
       <c r="AE3" t="n">
-        <v>244.1627349853516</v>
+        <v>315.2025146484375</v>
       </c>
       <c r="AF3" t="n">
-        <v>244.5787506103516</v>
+        <v>316.3851318359375</v>
       </c>
       <c r="AG3" t="n">
-        <v>244.2180023193359</v>
+        <v>316.3758239746094</v>
       </c>
       <c r="AH3" t="n">
-        <v>243.8116760253906</v>
+        <v>316.1633605957031</v>
       </c>
       <c r="AI3" t="n">
-        <v>242.9769592285156</v>
+        <v>315.0947570800781</v>
       </c>
       <c r="AJ3" t="n">
-        <v>242.0506439208984</v>
+        <v>313.5896301269531</v>
       </c>
       <c r="AK3" t="n">
-        <v>240.837646484375</v>
+        <v>312.4586486816406</v>
       </c>
       <c r="AL3" t="n">
-        <v>239.9870300292969</v>
+        <v>311.4013366699219</v>
       </c>
       <c r="AM3" t="n">
-        <v>239.2405853271484</v>
+        <v>310.4419250488281</v>
       </c>
       <c r="AN3" t="n">
-        <v>238.5770874023438</v>
+        <v>309.9629516601562</v>
       </c>
       <c r="AO3" t="n">
-        <v>237.8357849121094</v>
+        <v>309.5136108398438</v>
       </c>
       <c r="AP3" t="n">
-        <v>236.7827911376953</v>
+        <v>309.2253723144531</v>
       </c>
       <c r="AQ3" t="n">
-        <v>234.70849609375</v>
+        <v>308.8982238769531</v>
       </c>
       <c r="AR3" t="n">
-        <v>233.5514678955078</v>
+        <v>308.817138671875</v>
       </c>
       <c r="AS3" t="n">
-        <v>232.5024871826172</v>
+        <v>308.5718078613281</v>
       </c>
       <c r="AT3" t="n">
-        <v>232.0918579101562</v>
+        <v>309.7474365234375</v>
       </c>
       <c r="AU3" t="n">
-        <v>232.0266571044922</v>
+        <v>311.0304870605469</v>
       </c>
       <c r="AV3" t="n">
-        <v>231.7095489501953</v>
+        <v>311.7523193359375</v>
       </c>
       <c r="AW3" t="n">
-        <v>232.6848754882812</v>
+        <v>312.7095336914062</v>
       </c>
       <c r="AX3" t="n">
-        <v>234.7928161621094</v>
+        <v>313.4072265625</v>
       </c>
       <c r="AY3" t="n">
-        <v>242.1420745849609</v>
+        <v>313.8623657226562</v>
       </c>
       <c r="AZ3" t="n">
-        <v>246.4831848144531</v>
+        <v>314.1011352539062</v>
       </c>
       <c r="BA3" t="n">
-        <v>251.9102325439453</v>
+        <v>314.2879028320312</v>
       </c>
       <c r="BB3" t="n">
-        <v>251.74267578125</v>
+        <v>314.3950805664062</v>
       </c>
       <c r="BC3" t="n">
-        <v>252.1215209960938</v>
+        <v>314.2130737304688</v>
       </c>
       <c r="BD3" t="n">
-        <v>252.4591827392578</v>
+        <v>313.7326965332031</v>
       </c>
       <c r="BE3" t="n">
-        <v>252.0386047363281</v>
+        <v>313.2921142578125</v>
       </c>
       <c r="BF3" t="n">
-        <v>252.9568786621094</v>
+        <v>313.2705078125</v>
       </c>
       <c r="BG3" t="n">
-        <v>253.5644226074219</v>
+        <v>313.0762023925781</v>
       </c>
       <c r="BH3" t="n">
-        <v>253.3155670166016</v>
+        <v>313.2496643066406</v>
       </c>
       <c r="BI3" t="n">
-        <v>253.2759399414062</v>
+        <v>313.5932922363281</v>
       </c>
       <c r="BJ3" t="n">
-        <v>251.9314422607422</v>
+        <v>313.191162109375</v>
       </c>
       <c r="BK3" t="n">
-        <v>252.0458831787109</v>
+        <v>312.41552734375</v>
       </c>
       <c r="BL3" t="n">
-        <v>250.8173217773438</v>
+        <v>311.9564819335938</v>
       </c>
       <c r="BM3" t="n">
-        <v>250.8195343017578</v>
+        <v>312.4413146972656</v>
       </c>
       <c r="BN3" t="n">
-        <v>251.0232086181641</v>
+        <v>313.1287231445312</v>
       </c>
       <c r="BO3" t="n">
-        <v>251.6645965576172</v>
+        <v>312.6911926269531</v>
       </c>
       <c r="BP3" t="n">
-        <v>251.8236694335938</v>
+        <v>312.1531982421875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>251.3809814453125</v>
+        <v>311.6222534179688</v>
       </c>
       <c r="BR3" t="n">
-        <v>251.1920013427734</v>
+        <v>311.5021667480469</v>
       </c>
       <c r="BS3" t="n">
-        <v>251.1636810302734</v>
+        <v>311.9344177246094</v>
       </c>
       <c r="BT3" t="n">
-        <v>251.6309814453125</v>
+        <v>312.0245666503906</v>
       </c>
       <c r="BU3" t="n">
-        <v>252.1412353515625</v>
+        <v>312.4098510742188</v>
       </c>
       <c r="BV3" t="n">
-        <v>252.6523895263672</v>
+        <v>312.7718811035156</v>
       </c>
       <c r="BW3" t="n">
-        <v>253.177978515625</v>
+        <v>313.1820678710938</v>
       </c>
       <c r="BX3" t="n">
-        <v>253.6695098876953</v>
+        <v>313.5012512207031</v>
       </c>
       <c r="BY3" t="n">
-        <v>254.0225067138672</v>
+        <v>313.6911926269531</v>
       </c>
       <c r="BZ3" t="n">
-        <v>254.3368225097656</v>
+        <v>313.9569702148438</v>
       </c>
       <c r="CA3" t="n">
-        <v>254.5973052978516</v>
+        <v>314.2298583984375</v>
       </c>
       <c r="CB3" t="n">
-        <v>254.822509765625</v>
+        <v>314.3017578125</v>
       </c>
       <c r="CC3" t="n">
-        <v>254.8782653808594</v>
+        <v>314.3454895019531</v>
       </c>
       <c r="CD3" t="n">
-        <v>254.4638366699219</v>
+        <v>314.3429870605469</v>
       </c>
       <c r="CE3" t="n">
-        <v>252.5366516113281</v>
+        <v>314.350830078125</v>
       </c>
       <c r="CF3" t="n">
-        <v>250.5150299072266</v>
+        <v>314.3506164550781</v>
       </c>
       <c r="CG3" t="n">
-        <v>247.8699951171875</v>
+        <v>314.3673400878906</v>
       </c>
       <c r="CH3" t="n">
-        <v>245.1520385742188</v>
+        <v>314.3286743164062</v>
       </c>
       <c r="CI3" t="n">
-        <v>244.1705169677734</v>
+        <v>314.3570556640625</v>
       </c>
       <c r="CJ3" t="n">
-        <v>243.7426452636719</v>
+        <v>314.3709411621094</v>
       </c>
       <c r="CK3" t="n">
-        <v>243.5333404541016</v>
+        <v>314.3640441894531</v>
       </c>
       <c r="CL3" t="n">
-        <v>243.7794952392578</v>
+        <v>314.3478393554688</v>
       </c>
       <c r="CM3" t="n">
-        <v>244.5121459960938</v>
+        <v>314.1414794921875</v>
       </c>
       <c r="CN3" t="n">
-        <v>245.2776947021484</v>
+        <v>313.8707580566406</v>
       </c>
       <c r="CO3" t="n">
-        <v>246.0020751953125</v>
+        <v>313.6234436035156</v>
       </c>
       <c r="CP3" t="n">
-        <v>246.6584014892578</v>
+        <v>313.4928894042969</v>
       </c>
       <c r="CQ3" t="n">
-        <v>247.2756042480469</v>
+        <v>312.4570922851562</v>
       </c>
       <c r="CR3" t="n">
-        <v>248.6060943603516</v>
+        <v>312.8111267089844</v>
       </c>
       <c r="CS3" t="n">
-        <v>250.62890625</v>
+        <v>313.2779541015625</v>
       </c>
       <c r="CT3" t="n">
-        <v>253.0643157958984</v>
+        <v>314.4390563964844</v>
       </c>
       <c r="CU3" t="n">
-        <v>255.5051116943359</v>
+        <v>315.1138916015625</v>
       </c>
       <c r="CV3" t="n">
-        <v>255.8968200683594</v>
+        <v>315.4032897949219</v>
       </c>
       <c r="CW3" t="n">
-        <v>256.4329223632812</v>
+        <v>315.0408325195312</v>
       </c>
       <c r="CX3" t="n">
-        <v>257.1025085449219</v>
+        <v>314.8110961914062</v>
       </c>
       <c r="CY3" t="n">
-        <v>258.87158203125</v>
+        <v>314.9671630859375</v>
       </c>
       <c r="CZ3" t="n">
-        <v>259.0997009277344</v>
+        <v>315.0719909667969</v>
       </c>
       <c r="DA3" t="n">
-        <v>258.2679748535156</v>
+        <v>315.1775817871094</v>
       </c>
       <c r="DB3" t="n">
-        <v>257.9964294433594</v>
+        <v>314.4071655273438</v>
       </c>
       <c r="DC3" t="n">
-        <v>256.9644775390625</v>
+        <v>313.5894470214844</v>
       </c>
       <c r="DD3" t="n">
-        <v>257.7154846191406</v>
+        <v>312.9491577148438</v>
       </c>
       <c r="DE3" t="n">
-        <v>258.4803466796875</v>
+        <v>312.4286193847656</v>
       </c>
       <c r="DF3" t="n">
-        <v>259.2941589355469</v>
+        <v>312.01123046875</v>
       </c>
       <c r="DG3" t="n">
-        <v>259.7821960449219</v>
+        <v>311.7039489746094</v>
       </c>
       <c r="DH3" t="n">
-        <v>260.2998657226562</v>
+        <v>311.5790100097656</v>
       </c>
       <c r="DI3" t="n">
-        <v>261.0126342773438</v>
+        <v>312.5355529785156</v>
       </c>
       <c r="DJ3" t="n">
-        <v>261.2759704589844</v>
+        <v>313.2713623046875</v>
       </c>
       <c r="DK3" t="n">
-        <v>262.1565551757812</v>
+        <v>312.1350708007812</v>
       </c>
       <c r="DL3" t="n">
-        <v>263.8930969238281</v>
+        <v>312.7372131347656</v>
       </c>
       <c r="DM3" t="n">
-        <v>264.8828125</v>
+        <v>315.1574401855469</v>
       </c>
       <c r="DN3" t="n">
-        <v>263.85546875</v>
+        <v>315.4412841796875</v>
       </c>
       <c r="DO3" t="n">
-        <v>262.92919921875</v>
+        <v>315.8745727539062</v>
       </c>
       <c r="DP3" t="n">
-        <v>265.6026000976562</v>
+        <v>315.3672790527344</v>
       </c>
       <c r="DQ3" t="n">
-        <v>266.9103393554688</v>
+        <v>314.9356994628906</v>
       </c>
       <c r="DR3" t="n">
-        <v>267.3616027832031</v>
+        <v>314.6146850585938</v>
       </c>
       <c r="DS3" t="n">
-        <v>267.6299133300781</v>
+        <v>314.4192810058594</v>
       </c>
       <c r="DT3" t="n">
-        <v>266.9467468261719</v>
+        <v>314.2229614257812</v>
       </c>
       <c r="DU3" t="n">
-        <v>265.3639221191406</v>
+        <v>314.1408081054688</v>
       </c>
       <c r="DV3" t="n">
-        <v>258.6221618652344</v>
+        <v>314.1105651855469</v>
       </c>
       <c r="DW3" t="n">
-        <v>252.2704467773438</v>
+        <v>314.1178894042969</v>
       </c>
       <c r="DX3" t="n">
-        <v>249.3257293701172</v>
+        <v>314.1070861816406</v>
       </c>
       <c r="DY3" t="n">
-        <v>247.2268829345703</v>
+        <v>314.0720520019531</v>
       </c>
       <c r="DZ3" t="n">
-        <v>245.5736389160156</v>
+        <v>314.0728759765625</v>
       </c>
       <c r="EA3" t="n">
-        <v>245.24267578125</v>
+        <v>314.0791015625</v>
       </c>
       <c r="EB3" t="n">
-        <v>244.9957122802734</v>
+        <v>314.0625305175781</v>
       </c>
       <c r="EC3" t="n">
-        <v>244.7652893066406</v>
+        <v>314.0426635742188</v>
       </c>
       <c r="ED3" t="n">
-        <v>244.2140350341797</v>
+        <v>313.953857421875</v>
       </c>
       <c r="EE3" t="n">
-        <v>243.8491363525391</v>
+        <v>313.887451171875</v>
       </c>
       <c r="EF3" t="n">
-        <v>243.3211364746094</v>
+        <v>313.6859436035156</v>
       </c>
       <c r="EG3" t="n">
-        <v>241.5270385742188</v>
+        <v>313.55029296875</v>
       </c>
       <c r="EH3" t="n">
-        <v>239.6520385742188</v>
+        <v>313.4014892578125</v>
       </c>
       <c r="EI3" t="n">
-        <v>240.9808197021484</v>
+        <v>312.7882995605469</v>
       </c>
       <c r="EJ3" t="n">
-        <v>244.3806304931641</v>
+        <v>312.2014770507812</v>
       </c>
       <c r="EK3" t="n">
-        <v>246.0181274414062</v>
+        <v>312.2418212890625</v>
       </c>
       <c r="EL3" t="n">
-        <v>244.7829437255859</v>
+        <v>312.4286193847656</v>
       </c>
       <c r="EM3" t="n">
-        <v>247.1611175537109</v>
+        <v>314.2548522949219</v>
       </c>
       <c r="EN3" t="n">
-        <v>249.4311370849609</v>
+        <v>314.6252746582031</v>
       </c>
       <c r="EO3" t="n">
-        <v>251.5316162109375</v>
+        <v>316.897705078125</v>
       </c>
       <c r="EP3" t="n">
-        <v>253.0314483642578</v>
+        <v>317.0014343261719</v>
       </c>
       <c r="EQ3" t="n">
-        <v>257.7010192871094</v>
+        <v>316.6361389160156</v>
       </c>
       <c r="ER3" t="n">
-        <v>259.5787963867188</v>
+        <v>317.000732421875</v>
       </c>
       <c r="ES3" t="n">
-        <v>260.2242126464844</v>
+        <v>316.9162292480469</v>
       </c>
       <c r="ET3" t="n">
-        <v>261.7635192871094</v>
+        <v>317.1511840820312</v>
       </c>
       <c r="EU3" t="n">
-        <v>261.6863403320312</v>
+        <v>317.1854553222656</v>
       </c>
       <c r="EV3" t="n">
-        <v>263.6308898925781</v>
+        <v>317.1927185058594</v>
       </c>
       <c r="EW3" t="n">
-        <v>266.1509704589844</v>
+        <v>316.8517761230469</v>
       </c>
       <c r="EX3" t="n">
-        <v>267.2985534667969</v>
+        <v>316.3598022460938</v>
       </c>
       <c r="EY3" t="n">
-        <v>269.8281555175781</v>
+        <v>316.0143432617188</v>
       </c>
       <c r="EZ3" t="n">
-        <v>272.5479431152344</v>
+        <v>314.8666076660156</v>
       </c>
       <c r="FA3" t="n">
-        <v>272.4419860839844</v>
+        <v>314.0580139160156</v>
       </c>
       <c r="FB3" t="n">
-        <v>272.1329650878906</v>
+        <v>314.5788269042969</v>
       </c>
       <c r="FC3" t="n">
-        <v>273.9759826660156</v>
+        <v>316.0722961425781</v>
       </c>
       <c r="FD3" t="n">
-        <v>281.9873352050781</v>
+        <v>315.3753356933594</v>
       </c>
       <c r="FE3" t="n">
-        <v>291.5988159179688</v>
+        <v>315.0007934570312</v>
       </c>
       <c r="FF3" t="n">
-        <v>301.4199523925781</v>
+        <v>314.974365234375</v>
       </c>
       <c r="FG3" t="n">
-        <v>305.1807250976562</v>
+        <v>315.082763671875</v>
       </c>
       <c r="FH3" t="n">
-        <v>316.2585754394531</v>
+        <v>315.057373046875</v>
       </c>
       <c r="FI3" t="n">
-        <v>321.1327209472656</v>
+        <v>314.9477233886719</v>
       </c>
       <c r="FJ3" t="n">
-        <v>338.5572204589844</v>
+        <v>314.7706604003906</v>
       </c>
       <c r="FK3" t="n">
-        <v>352.3481750488281</v>
+        <v>314.7015991210938</v>
       </c>
       <c r="FL3" t="n">
-        <v>369.5881958007812</v>
+        <v>314.901123046875</v>
       </c>
       <c r="FM3" t="n">
-        <v>374.9102172851562</v>
+        <v>315.13037109375</v>
       </c>
       <c r="FN3" t="n">
-        <v>385.2264099121094</v>
+        <v>315.4501037597656</v>
       </c>
       <c r="FO3" t="n">
-        <v>403.8152160644531</v>
+        <v>315.5116271972656</v>
       </c>
       <c r="FP3" t="n">
-        <v>418.937744140625</v>
+        <v>315.5528869628906</v>
       </c>
       <c r="FQ3" t="n">
-        <v>359.0025939941406</v>
+        <v>315.5296936035156</v>
       </c>
       <c r="FR3" t="n">
-        <v>419.7373962402344</v>
+        <v>315.3768310546875</v>
       </c>
       <c r="FS3" t="n">
-        <v>416.4208984375</v>
+        <v>315.0675659179688</v>
       </c>
       <c r="FT3" t="n">
-        <v>409.4580078125</v>
+        <v>314.1756896972656</v>
       </c>
       <c r="FU3" t="n">
-        <v>400.4405822753906</v>
+        <v>311.9212341308594</v>
       </c>
       <c r="FV3" t="n">
-        <v>398.7196044921875</v>
+        <v>312.2489013671875</v>
       </c>
       <c r="FW3" t="n">
-        <v>398.449462890625</v>
+        <v>312.3662414550781</v>
       </c>
       <c r="FX3" t="n">
-        <v>397.388671875</v>
+        <v>313.7946472167969</v>
       </c>
       <c r="FY3" t="n">
-        <v>396.9559631347656</v>
+        <v>316.0720520019531</v>
       </c>
       <c r="FZ3" t="n">
-        <v>397.169189453125</v>
+        <v>316.9781188964844</v>
       </c>
       <c r="GA3" t="n">
-        <v>395.6047668457031</v>
+        <v>317.74609375</v>
       </c>
       <c r="GB3" t="n">
-        <v>394.6175842285156</v>
+        <v>317.90771484375</v>
       </c>
       <c r="GC3" t="n">
-        <v>393.1078186035156</v>
+        <v>318.4132080078125</v>
       </c>
       <c r="GD3" t="n">
-        <v>387.7812805175781</v>
+        <v>318.3627319335938</v>
       </c>
       <c r="GE3" t="n">
-        <v>390.8984069824219</v>
+        <v>318.2721557617188</v>
       </c>
       <c r="GF3" t="n">
-        <v>396.3269653320312</v>
+        <v>316.7771606445312</v>
       </c>
       <c r="GG3" t="n">
-        <v>401.7510070800781</v>
+        <v>316.4164123535156</v>
       </c>
       <c r="GH3" t="n">
-        <v>399.9597473144531</v>
+        <v>315.8024597167969</v>
       </c>
       <c r="GI3" t="n">
-        <v>405.2320251464844</v>
+        <v>315.40576171875</v>
       </c>
       <c r="GJ3" t="n">
-        <v>414.0364379882812</v>
+        <v>315.5458679199219</v>
       </c>
       <c r="GK3" t="n">
-        <v>432.8536071777344</v>
+        <v>313.455322265625</v>
       </c>
       <c r="GL3" t="n">
-        <v>441.8209228515625</v>
+        <v>313.5511169433594</v>
       </c>
       <c r="GM3" t="n">
-        <v>436.2975463867188</v>
+        <v>316.5365295410156</v>
       </c>
       <c r="GN3" t="n">
-        <v>430.7391662597656</v>
+        <v>317.2821960449219</v>
       </c>
       <c r="GO3" t="n">
-        <v>428.2393188476562</v>
+        <v>317.2991638183594</v>
       </c>
       <c r="GP3" t="n">
-        <v>422.0842590332031</v>
+        <v>317.0664978027344</v>
       </c>
       <c r="GQ3" t="n">
-        <v>421.4637145996094</v>
+        <v>316.7083435058594</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>316.6179809570312</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>316.3729553222656</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>316.2796325683594</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>316.2510375976562</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>316.0700073242188</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>316.0726013183594</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>316.0509948730469</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>316.0278625488281</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>315.9541931152344</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>315.889892578125</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>315.8270263671875</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>314.1405944824219</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>312.5552062988281</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>314.0466613769531</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>314.3262939453125</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>313.1709594726562</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>316.3546752929688</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>317.2855529785156</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>317.3289489746094</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>317.2876281738281</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>317.346435546875</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>317.3589477539062</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>317.3863525390625</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>317.4385681152344</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>317.4167175292969</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>316.9503784179688</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>315.2539672851562</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>316.5997924804688</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>317.4910278320312</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>315.6480102539062</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>315.6422424316406</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>315.4839172363281</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>315.5538024902344</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>315.3494567871094</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>314.9819946289062</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>314.5958862304688</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>314.6556091308594</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>314.906494140625</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>315.1759338378906</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>315.3195190429688</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>315.3789367675781</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>315.3800048828125</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>315.19482421875</v>
+      </c>
+      <c r="II3" t="n">
+        <v>315.1380310058594</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>315.0630187988281</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>312.6838684082031</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>312.9203491210938</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>315.6633605957031</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>315.9221496582031</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>316.553955078125</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>316.74755859375</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>317.0361938476562</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>317.3133850097656</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>317.65283203125</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>317.8357849121094</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>317.9078979492188</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>317.545654296875</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>314.2360229492188</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>315.0110473632812</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>317.4422912597656</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>316.6245422363281</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>315.6549682617188</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>315.108642578125</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>314.8648681640625</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>315.6325988769531</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>315.9278564453125</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>315.9493103027344</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>316.0361022949219</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>316.085205078125</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>316.1178894042969</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>316.0349731445312</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>315.9715576171875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>315.8567810058594</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>316.7010803222656</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>317.4468078613281</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>315.5431518554688</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>315.1097106933594</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>313.8111877441406</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>314.3607482910156</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>316.0476379394531</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>317.0804748535156</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>317.4255981445312</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>317.7361450195312</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>318.1378479003906</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>318.7240905761719</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>319.3262023925781</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>319.2020568847656</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>316.8993530273438</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>317.0711975097656</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>318.0107727050781</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>319.3902282714844</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>319.3908081054688</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>319.6199340820312</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>317.6367797851562</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>316.8963623046875</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>316.1322937011719</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>315.771728515625</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>319.4325866699219</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>324.9483947753906</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>328.5804748535156</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>327.4058837890625</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>319.4385681152344</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>314.8031921386719</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>313.4487915039062</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>310.7523803710938</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>305.5582885742188</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>306.0208129882812</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>312.3410339355469</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>319.1633911132812</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>326.0684814453125</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>335.2225341796875</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>337.4587097167969</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>337.9403076171875</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>341.3581848144531</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>345.9142456054688</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>348.5510559082031</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>350.7057495117188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1351.5439453125</v>
+        <v>638.1121826171875</v>
       </c>
       <c r="B4" t="n">
-        <v>1373.525268554688</v>
+        <v>661.4761962890625</v>
       </c>
       <c r="C4" t="n">
-        <v>1387.51220703125</v>
+        <v>686.9324951171875</v>
       </c>
       <c r="D4" t="n">
-        <v>1393.222045898438</v>
+        <v>722.3341674804688</v>
       </c>
       <c r="E4" t="n">
-        <v>1388.05419921875</v>
+        <v>764.548095703125</v>
       </c>
       <c r="F4" t="n">
-        <v>1380.536743164062</v>
+        <v>814.6478881835938</v>
       </c>
       <c r="G4" t="n">
-        <v>1378.118408203125</v>
+        <v>867.4486083984375</v>
       </c>
       <c r="H4" t="n">
-        <v>1376.602905273438</v>
+        <v>920.3443603515625</v>
       </c>
       <c r="I4" t="n">
-        <v>1383.926879882812</v>
+        <v>977.7334594726562</v>
       </c>
       <c r="J4" t="n">
-        <v>1395.822265625</v>
+        <v>1043.200927734375</v>
       </c>
       <c r="K4" t="n">
-        <v>1419.42529296875</v>
+        <v>1102.54736328125</v>
       </c>
       <c r="L4" t="n">
-        <v>1434.069458007812</v>
+        <v>1162.653564453125</v>
       </c>
       <c r="M4" t="n">
-        <v>1436.23046875</v>
+        <v>1226.534423828125</v>
       </c>
       <c r="N4" t="n">
-        <v>1432.119262695312</v>
+        <v>1286.088623046875</v>
       </c>
       <c r="O4" t="n">
-        <v>1421.71142578125</v>
+        <v>1331.511108398438</v>
       </c>
       <c r="P4" t="n">
-        <v>1416.606079101562</v>
+        <v>1385.564575195312</v>
       </c>
       <c r="Q4" t="n">
-        <v>1426.035400390625</v>
+        <v>1427.496948242188</v>
       </c>
       <c r="R4" t="n">
-        <v>1439.989990234375</v>
+        <v>1477.53369140625</v>
       </c>
       <c r="S4" t="n">
-        <v>1462.708129882812</v>
+        <v>1514.290161132812</v>
       </c>
       <c r="T4" t="n">
-        <v>1464.538940429688</v>
+        <v>1556.15234375</v>
       </c>
       <c r="U4" t="n">
-        <v>1464.87451171875</v>
+        <v>1593.6943359375</v>
       </c>
       <c r="V4" t="n">
-        <v>1462.947143554688</v>
+        <v>1619.211791992188</v>
       </c>
       <c r="W4" t="n">
-        <v>1462.71923828125</v>
+        <v>1648.617797851562</v>
       </c>
       <c r="X4" t="n">
-        <v>1465.6171875</v>
+        <v>1679.682250976562</v>
       </c>
       <c r="Y4" t="n">
-        <v>1471.40234375</v>
+        <v>1695.471069335938</v>
       </c>
       <c r="Z4" t="n">
-        <v>1472.904174804688</v>
+        <v>1714.671752929688</v>
       </c>
       <c r="AA4" t="n">
-        <v>1474.556030273438</v>
+        <v>1725.515991210938</v>
       </c>
       <c r="AB4" t="n">
-        <v>1473.666625976562</v>
+        <v>1741.835083007812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1471.15625</v>
+        <v>1754.467163085938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1467.29052734375</v>
+        <v>1787.50390625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1459.164306640625</v>
+        <v>1813.248657226562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1445.733764648438</v>
+        <v>1829.713500976562</v>
       </c>
       <c r="AG4" t="n">
-        <v>1436.837524414062</v>
+        <v>1849.577026367188</v>
       </c>
       <c r="AH4" t="n">
-        <v>1429.048461914062</v>
+        <v>1871.449340820312</v>
       </c>
       <c r="AI4" t="n">
-        <v>1426.301879882812</v>
+        <v>1891.961669921875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1423.249389648438</v>
+        <v>1919.84228515625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1423.694458007812</v>
+        <v>1939.011474609375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1425.1884765625</v>
+        <v>1959.840209960938</v>
       </c>
       <c r="AM4" t="n">
-        <v>1427.854248046875</v>
+        <v>1978.518432617188</v>
       </c>
       <c r="AN4" t="n">
-        <v>1429.723999023438</v>
+        <v>1980.152465820312</v>
       </c>
       <c r="AO4" t="n">
-        <v>1432.706298828125</v>
+        <v>1985.554443359375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1435.62939453125</v>
+        <v>1990.8525390625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1437.683715820312</v>
+        <v>1994.911499023438</v>
       </c>
       <c r="AR4" t="n">
-        <v>1435.83349609375</v>
+        <v>2000.140258789062</v>
       </c>
       <c r="AS4" t="n">
-        <v>1433.656127929688</v>
+        <v>1994.934326171875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1432.26220703125</v>
+        <v>1993.847045898438</v>
       </c>
       <c r="AU4" t="n">
-        <v>1431.95947265625</v>
+        <v>1992.97412109375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1431.240356445312</v>
+        <v>1992.700927734375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1432.166015625</v>
+        <v>1992.809692382812</v>
       </c>
       <c r="AX4" t="n">
-        <v>1433.466186523438</v>
+        <v>1993.45458984375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1419.130126953125</v>
+        <v>1995.46728515625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1389.392944335938</v>
+        <v>1998.7548828125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1372.482421875</v>
+        <v>2006.452026367188</v>
       </c>
       <c r="BB4" t="n">
-        <v>1375.691772460938</v>
+        <v>2020.999877929688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1377.86669921875</v>
+        <v>2023.066772460938</v>
       </c>
       <c r="BD4" t="n">
-        <v>1376.978881835938</v>
+        <v>2024.65478515625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1377.887939453125</v>
+        <v>2024.51513671875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1379.777709960938</v>
+        <v>2024.63525390625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1380.026245117188</v>
+        <v>2024.953125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1380.326293945312</v>
+        <v>2026.772338867188</v>
       </c>
       <c r="BI4" t="n">
-        <v>1381.192626953125</v>
+        <v>2027.910766601562</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1382.827514648438</v>
+        <v>2025.470458984375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1388.789916992188</v>
+        <v>2017.734497070312</v>
       </c>
       <c r="BL4" t="n">
-        <v>1400.058959960938</v>
+        <v>2014.192016601562</v>
       </c>
       <c r="BM4" t="n">
-        <v>1405.573974609375</v>
+        <v>2023.1357421875</v>
       </c>
       <c r="BN4" t="n">
-        <v>1406.728637695312</v>
+        <v>2052.8056640625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1406.470458984375</v>
+        <v>2066.001708984375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1406.982421875</v>
+        <v>2080.21630859375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1406.875122070312</v>
+        <v>2085.355712890625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1406.563842773438</v>
+        <v>2084.101806640625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1406.156616210938</v>
+        <v>2082.29345703125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1405.703125</v>
+        <v>2081.98046875</v>
       </c>
       <c r="BU4" t="n">
-        <v>1403.905639648438</v>
+        <v>2080.36376953125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1400.554077148438</v>
+        <v>2079.013916015625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1393.706787109375</v>
+        <v>2077.236083984375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1385.549560546875</v>
+        <v>2074.99365234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1381.190307617188</v>
+        <v>2070.01806640625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1377.768310546875</v>
+        <v>2070.00244140625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1378.09912109375</v>
+        <v>2068.43310546875</v>
       </c>
       <c r="CB4" t="n">
-        <v>1378.218383789062</v>
+        <v>2067.11572265625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1376.664306640625</v>
+        <v>2065.931640625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1373.111083984375</v>
+        <v>2064.26708984375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1365.782592773438</v>
+        <v>2062.390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1347.871215820312</v>
+        <v>2059.700927734375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1337.163208007812</v>
+        <v>2056.18994140625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1337.571655273438</v>
+        <v>2051.162841796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1336.673217773438</v>
+        <v>2051.34765625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1334.25390625</v>
+        <v>2051.529541015625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1330.35986328125</v>
+        <v>2051.14306640625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1325.135498046875</v>
+        <v>2050.572265625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1324.594848632812</v>
+        <v>2049.715087890625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1323.998046875</v>
+        <v>2042.932250976562</v>
       </c>
       <c r="CO4" t="n">
-        <v>1323.150390625</v>
+        <v>2028.863037109375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1321.4267578125</v>
+        <v>2012.952270507812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1316.31982421875</v>
+        <v>1992.063598632812</v>
       </c>
       <c r="CR4" t="n">
-        <v>1300.870483398438</v>
+        <v>1996.671508789062</v>
       </c>
       <c r="CS4" t="n">
-        <v>1302.346801757812</v>
+        <v>1997.427612304688</v>
       </c>
       <c r="CT4" t="n">
-        <v>1305.700073242188</v>
+        <v>2010.32080078125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1310.503173828125</v>
+        <v>2013.707275390625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1316.771606445312</v>
+        <v>2017.67822265625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1321.35205078125</v>
+        <v>2014.2587890625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1325.029052734375</v>
+        <v>2010.46484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1327.16357421875</v>
+        <v>2012.380615234375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1326.724853515625</v>
+        <v>2012.917358398438</v>
       </c>
       <c r="DA4" t="n">
-        <v>1326.3408203125</v>
+        <v>2013.39453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1325.673461914062</v>
+        <v>2015.478149414062</v>
       </c>
       <c r="DC4" t="n">
-        <v>1324.706298828125</v>
+        <v>2016.021240234375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1324.537841796875</v>
+        <v>2016.398681640625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1326.087524414062</v>
+        <v>2016.252319335938</v>
       </c>
       <c r="DF4" t="n">
-        <v>1328.62890625</v>
+        <v>2015.557739257812</v>
       </c>
       <c r="DG4" t="n">
-        <v>1332.203857421875</v>
+        <v>2014.829345703125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1337.403930664062</v>
+        <v>2015.992431640625</v>
       </c>
       <c r="DI4" t="n">
-        <v>1338.923950195312</v>
+        <v>2014.814575195312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1338.565185546875</v>
+        <v>2012.886474609375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1337.56982421875</v>
+        <v>1988.913330078125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1332.622802734375</v>
+        <v>1986.982299804688</v>
       </c>
       <c r="DM4" t="n">
-        <v>1327.483032226562</v>
+        <v>2016.051391601562</v>
       </c>
       <c r="DN4" t="n">
-        <v>1317.469482421875</v>
+        <v>2044.518798828125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1314.898315429688</v>
+        <v>2049.123779296875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1311.550903320312</v>
+        <v>2052.418701171875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1311.395141601562</v>
+        <v>2052.074462890625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1311.876831054688</v>
+        <v>2052.8466796875</v>
       </c>
       <c r="DS4" t="n">
-        <v>1313.92041015625</v>
+        <v>2053.809326171875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1315.404052734375</v>
+        <v>2056.25830078125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1317.086547851562</v>
+        <v>2056.270263671875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1323.392700195312</v>
+        <v>2057.55029296875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1328.648193359375</v>
+        <v>2057.4228515625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1331.253295898438</v>
+        <v>2057.299560546875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1330.629150390625</v>
+        <v>2057.5009765625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1328.307373046875</v>
+        <v>2057.23681640625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1326.58544921875</v>
+        <v>2055.338623046875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1316.546630859375</v>
+        <v>2053.3935546875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1309.923095703125</v>
+        <v>2053.252197265625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1306.198852539062</v>
+        <v>2052.61279296875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1305.836181640625</v>
+        <v>2052.651611328125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1305.51611328125</v>
+        <v>2052.834716796875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1303.527099609375</v>
+        <v>2052.92529296875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1299.598876953125</v>
+        <v>2052.90185546875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1290.029296875</v>
+        <v>2025.88720703125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1276.887573242188</v>
+        <v>2007.002685546875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1250.185546875</v>
+        <v>1991.483032226562</v>
       </c>
       <c r="EL4" t="n">
-        <v>1241.788208007812</v>
+        <v>1995.09619140625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1209.832153320312</v>
+        <v>2001.62109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1193.79052734375</v>
+        <v>1993.5556640625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1176.454223632812</v>
+        <v>2019.507202148438</v>
       </c>
       <c r="EP4" t="n">
-        <v>1167.182495117188</v>
+        <v>2016.08349609375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1127.831787109375</v>
+        <v>2020.756591796875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1120.378540039062</v>
+        <v>2019.49755859375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1092.902587890625</v>
+        <v>2019.481079101562</v>
       </c>
       <c r="ET4" t="n">
-        <v>1086.190673828125</v>
+        <v>2019.919189453125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1074.322387695312</v>
+        <v>2020.052490234375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1064.909545898438</v>
+        <v>2020.198852539062</v>
       </c>
       <c r="EW4" t="n">
-        <v>1051.342163085938</v>
+        <v>2020.268310546875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1043.703125</v>
+        <v>2016.135986328125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1029.7529296875</v>
+        <v>2009.402709960938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1029.428344726562</v>
+        <v>1993.297119140625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1026.676879882812</v>
+        <v>1993.603515625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1020.533569335938</v>
+        <v>2013.411010742188</v>
       </c>
       <c r="FC4" t="n">
-        <v>1002.182800292969</v>
+        <v>2042.684204101562</v>
       </c>
       <c r="FD4" t="n">
-        <v>978.8416137695312</v>
+        <v>2048.75390625</v>
       </c>
       <c r="FE4" t="n">
-        <v>952.77587890625</v>
+        <v>2051.8486328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>945.772705078125</v>
+        <v>2054.615966796875</v>
       </c>
       <c r="FG4" t="n">
-        <v>948.447265625</v>
+        <v>2058.361083984375</v>
       </c>
       <c r="FH4" t="n">
-        <v>948.45263671875</v>
+        <v>2062.1171875</v>
       </c>
       <c r="FI4" t="n">
-        <v>947.2767944335938</v>
+        <v>2061.5703125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>947.5999755859375</v>
+        <v>2061.971435546875</v>
       </c>
       <c r="FK4" t="n">
-        <v>948.1640625</v>
+        <v>2061.295166015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>941.1270141601562</v>
+        <v>2059.711181640625</v>
       </c>
       <c r="FM4" t="n">
-        <v>939.7852783203125</v>
+        <v>2058.794189453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>940.5250854492188</v>
+        <v>2056.62060546875</v>
       </c>
       <c r="FO4" t="n">
-        <v>941.4332885742188</v>
+        <v>2056.45654296875</v>
       </c>
       <c r="FP4" t="n">
-        <v>657.2060546875</v>
+        <v>2054.871826171875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>626.40625</v>
+        <v>2055.0283203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>915.0899047851562</v>
+        <v>2054.5029296875</v>
       </c>
       <c r="FS4" t="n">
-        <v>907.2576293945312</v>
+        <v>2054.014404296875</v>
       </c>
       <c r="FT4" t="n">
-        <v>906.3604125976562</v>
+        <v>2045.128540039062</v>
       </c>
       <c r="FU4" t="n">
-        <v>909.7110595703125</v>
+        <v>2000.800170898438</v>
       </c>
       <c r="FV4" t="n">
-        <v>911.9867553710938</v>
+        <v>1999.286987304688</v>
       </c>
       <c r="FW4" t="n">
-        <v>915.9392700195312</v>
+        <v>1989.7509765625</v>
       </c>
       <c r="FX4" t="n">
-        <v>916.0606689453125</v>
+        <v>1999.932983398438</v>
       </c>
       <c r="FY4" t="n">
-        <v>916.2247924804688</v>
+        <v>2005.469970703125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>916.4579467773438</v>
+        <v>2003.772705078125</v>
       </c>
       <c r="GA4" t="n">
-        <v>917.2552490234375</v>
+        <v>2010.5595703125</v>
       </c>
       <c r="GB4" t="n">
-        <v>919.2490234375</v>
+        <v>2010.3046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>921.70703125</v>
+        <v>2012.374877929688</v>
       </c>
       <c r="GD4" t="n">
-        <v>918.6327514648438</v>
+        <v>2013.016723632812</v>
       </c>
       <c r="GE4" t="n">
-        <v>903.905029296875</v>
+        <v>2015.266967773438</v>
       </c>
       <c r="GF4" t="n">
-        <v>865.5609741210938</v>
+        <v>2018.031005859375</v>
       </c>
       <c r="GG4" t="n">
-        <v>717.336669921875</v>
+        <v>2019.0498046875</v>
       </c>
       <c r="GH4" t="n">
-        <v>879.525390625</v>
+        <v>2020.485595703125</v>
       </c>
       <c r="GI4" t="n">
-        <v>867.1778564453125</v>
+        <v>2020.870849609375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>861.1141357421875</v>
+        <v>2014.73291015625</v>
       </c>
       <c r="GK4" t="n">
-        <v>852.077880859375</v>
+        <v>1977.392456054688</v>
       </c>
       <c r="GL4" t="n">
-        <v>825.5328979492188</v>
+        <v>1973.310791015625</v>
       </c>
       <c r="GM4" t="n">
-        <v>838.7572631835938</v>
+        <v>2011.226318359375</v>
       </c>
       <c r="GN4" t="n">
-        <v>831.3522338867188</v>
+        <v>2038.761474609375</v>
       </c>
       <c r="GO4" t="n">
-        <v>830.56689453125</v>
+        <v>2051.8017578125</v>
       </c>
       <c r="GP4" t="n">
-        <v>794.6765747070312</v>
+        <v>2056.056640625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>784.9254150390625</v>
+        <v>2058.48291015625</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2059.418212890625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2059.4677734375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2059.81884765625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2059.76416015625</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2059.995849609375</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2059.948974609375</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2058.50146484375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2056.631103515625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2050.7197265625</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2045.904907226562</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2042.724243164062</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2003.575073242188</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1968.435302734375</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1977.6669921875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1981.898559570312</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1973.313354492188</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1999.8134765625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2012.116821289062</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2011.409790039062</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2010.659423828125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2010.010864257812</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2009.63720703125</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2009.177612304688</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2010.024780273438</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2009.6650390625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2000.212280273438</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1978.796630859375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1984.152587890625</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2023.369384765625</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2054.003173828125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2052.336181640625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2053.75830078125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2054.6552734375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2057.170166015625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2059.7607421875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2060.67431640625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2061.0087890625</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2060.61474609375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2060.14697265625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2058.629638671875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2056.169921875</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2051.402099609375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2039.658081054688</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2039.203369140625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2034.03271484375</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1987.388549804688</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1977.740112304688</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1984.489868164062</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1990.677124023438</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1996.22412109375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1996.544799804688</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1997.421752929688</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1998.567993164062</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2001.411010742188</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2002.77392578125</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2002.2900390625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1995.86279296875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1973.896240234375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1987.81982421875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2033.075317382812</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2035.357666015625</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2039.33642578125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2042.11474609375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2047.261596679688</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2054.451904296875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2052.3291015625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2050.267578125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2049.715087890625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2047.597778320312</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2042.912719726562</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2038.064331054688</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2035.00830078125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2031.779418945312</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2025.813598632812</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2023.170166015625</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1981.939086914062</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1967.227416992188</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1962.549438476562</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1977.800415039062</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1990.408935546875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2001.503295898438</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2001.17138671875</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2000.892944335938</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2000.2060546875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1995.677734375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1987.900146484375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1974.703002929688</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1968.43896484375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1968.20068359375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1968.229614257812</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1968.191772460938</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1968.761962890625</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1966.65625</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1962.769653320312</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1963.468872070312</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1964.399536132812</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1956.644897460938</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1893.189575195312</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1806.84619140625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1720.6455078125</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1655.138305664062</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1551.5029296875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1483.467651367188</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1435.774780273438</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1367.705078125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1298.348510742188</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1242.5498046875</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1133.401245117188</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1048.484375</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>980.7337646484375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>882.45263671875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>817.961669921875</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>768.36328125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>712.0521240234375</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>684.619873046875</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>672.6207275390625</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>663.6376342773438</v>
       </c>
     </row>
   </sheetData>

--- a/right_elbow_Data.xlsx
+++ b/right_elbow_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>257.7055053710938</v>
+        <v>193.5715026855469</v>
       </c>
       <c r="B2" t="n">
-        <v>253.0250854492188</v>
+        <v>192.1494750976562</v>
       </c>
       <c r="C2" t="n">
-        <v>250.7761840820312</v>
+        <v>191.6423645019531</v>
       </c>
       <c r="D2" t="n">
-        <v>246.8639831542969</v>
+        <v>194.2988433837891</v>
       </c>
       <c r="E2" t="n">
-        <v>241.8086090087891</v>
+        <v>195.6823425292969</v>
       </c>
       <c r="F2" t="n">
-        <v>240.9812622070312</v>
+        <v>193.9034881591797</v>
       </c>
       <c r="G2" t="n">
-        <v>240.3161010742188</v>
+        <v>188.7976684570312</v>
       </c>
       <c r="H2" t="n">
-        <v>241.8267059326172</v>
+        <v>185.1504821777344</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1151733398438</v>
+        <v>183.8155822753906</v>
       </c>
       <c r="J2" t="n">
-        <v>247.7204742431641</v>
+        <v>184.1605834960938</v>
       </c>
       <c r="K2" t="n">
-        <v>249.9178924560547</v>
+        <v>185.6830596923828</v>
       </c>
       <c r="L2" t="n">
-        <v>250.6766052246094</v>
+        <v>189.4013214111328</v>
       </c>
       <c r="M2" t="n">
-        <v>251.9295043945312</v>
+        <v>193.548095703125</v>
       </c>
       <c r="N2" t="n">
-        <v>255.1872863769531</v>
+        <v>198.6000366210938</v>
       </c>
       <c r="O2" t="n">
-        <v>257.8246765136719</v>
+        <v>203.0635833740234</v>
       </c>
       <c r="P2" t="n">
-        <v>260.4279479980469</v>
+        <v>206.7459869384766</v>
       </c>
       <c r="Q2" t="n">
-        <v>262.3348693847656</v>
+        <v>209.1101379394531</v>
       </c>
       <c r="R2" t="n">
-        <v>264.7005615234375</v>
+        <v>212.9709777832031</v>
       </c>
       <c r="S2" t="n">
-        <v>266.2544555664062</v>
+        <v>215.3915100097656</v>
       </c>
       <c r="T2" t="n">
-        <v>267.9283447265625</v>
+        <v>218.8035430908203</v>
       </c>
       <c r="U2" t="n">
-        <v>269.1888122558594</v>
+        <v>221.3896484375</v>
       </c>
       <c r="V2" t="n">
-        <v>269.8617858886719</v>
+        <v>223.7077941894531</v>
       </c>
       <c r="W2" t="n">
-        <v>270.0166320800781</v>
+        <v>227.6049194335938</v>
       </c>
       <c r="X2" t="n">
-        <v>270.5193786621094</v>
+        <v>232.7377624511719</v>
       </c>
       <c r="Y2" t="n">
-        <v>270.1707458496094</v>
+        <v>239.4260559082031</v>
       </c>
       <c r="Z2" t="n">
-        <v>268.8285217285156</v>
+        <v>242.305419921875</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.5216979980469</v>
+        <v>245.5353546142578</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.1139831542969</v>
+        <v>249.3642883300781</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.6865234375</v>
+        <v>255.59228515625</v>
       </c>
       <c r="AD2" t="n">
-        <v>263.4825439453125</v>
+        <v>259.0874938964844</v>
       </c>
       <c r="AE2" t="n">
-        <v>263.5019226074219</v>
+        <v>260.6414794921875</v>
       </c>
       <c r="AF2" t="n">
-        <v>263.4335021972656</v>
+        <v>261.9582214355469</v>
       </c>
       <c r="AG2" t="n">
-        <v>262.90478515625</v>
+        <v>262.6164245605469</v>
       </c>
       <c r="AH2" t="n">
-        <v>262.8795776367188</v>
+        <v>264.0752258300781</v>
       </c>
       <c r="AI2" t="n">
-        <v>263.6607360839844</v>
+        <v>263.6307678222656</v>
       </c>
       <c r="AJ2" t="n">
-        <v>264.6100463867188</v>
+        <v>263.4490966796875</v>
       </c>
       <c r="AK2" t="n">
-        <v>265.2211303710938</v>
+        <v>262.5320129394531</v>
       </c>
       <c r="AL2" t="n">
-        <v>265.8197631835938</v>
+        <v>260.9186706542969</v>
       </c>
       <c r="AM2" t="n">
-        <v>266.281005859375</v>
+        <v>259.4476623535156</v>
       </c>
       <c r="AN2" t="n">
-        <v>266.2658996582031</v>
+        <v>259.8901977539062</v>
       </c>
       <c r="AO2" t="n">
-        <v>266.5885620117188</v>
+        <v>260.1517333984375</v>
       </c>
       <c r="AP2" t="n">
-        <v>267.0514221191406</v>
+        <v>261.8009338378906</v>
       </c>
       <c r="AQ2" t="n">
-        <v>268.5718383789062</v>
+        <v>263.6896667480469</v>
       </c>
       <c r="AR2" t="n">
-        <v>272.2530822753906</v>
+        <v>263.59521484375</v>
       </c>
       <c r="AS2" t="n">
-        <v>274.6510925292969</v>
+        <v>262.1168212890625</v>
       </c>
       <c r="AT2" t="n">
-        <v>276.1906127929688</v>
+        <v>260.3040161132812</v>
       </c>
       <c r="AU2" t="n">
-        <v>277.33544921875</v>
+        <v>258.1427001953125</v>
       </c>
       <c r="AV2" t="n">
-        <v>277.3873291015625</v>
+        <v>256.5694274902344</v>
       </c>
       <c r="AW2" t="n">
-        <v>277.7505187988281</v>
+        <v>255.7498474121094</v>
       </c>
       <c r="AX2" t="n">
-        <v>279.116455078125</v>
+        <v>255.4490966796875</v>
       </c>
       <c r="AY2" t="n">
-        <v>280.4249267578125</v>
+        <v>254.8288269042969</v>
       </c>
       <c r="AZ2" t="n">
-        <v>280.8465576171875</v>
+        <v>254.9748077392578</v>
       </c>
       <c r="BA2" t="n">
-        <v>281.0392456054688</v>
+        <v>255.2236633300781</v>
       </c>
       <c r="BB2" t="n">
-        <v>280.7303161621094</v>
+        <v>254.960205078125</v>
       </c>
       <c r="BC2" t="n">
-        <v>280.0540161132812</v>
+        <v>254.6418609619141</v>
       </c>
       <c r="BD2" t="n">
-        <v>278.9457702636719</v>
+        <v>253.9662933349609</v>
       </c>
       <c r="BE2" t="n">
-        <v>277.4399108886719</v>
+        <v>254.4813232421875</v>
       </c>
       <c r="BF2" t="n">
-        <v>277.6558532714844</v>
+        <v>255.1575012207031</v>
       </c>
       <c r="BG2" t="n">
-        <v>277.9383239746094</v>
+        <v>256.0456237792969</v>
       </c>
       <c r="BH2" t="n">
-        <v>278.3520202636719</v>
+        <v>257.32275390625</v>
       </c>
       <c r="BI2" t="n">
-        <v>278.5394287109375</v>
+        <v>261.0372924804688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>278.4121398925781</v>
+        <v>261.9990844726562</v>
       </c>
       <c r="BK2" t="n">
-        <v>278.5762329101562</v>
+        <v>261.2829284667969</v>
       </c>
       <c r="BL2" t="n">
-        <v>278.6890869140625</v>
+        <v>262.3550415039062</v>
       </c>
       <c r="BM2" t="n">
-        <v>278.6032409667969</v>
+        <v>265.12451171875</v>
       </c>
       <c r="BN2" t="n">
-        <v>277.6873168945312</v>
+        <v>269.8321533203125</v>
       </c>
       <c r="BO2" t="n">
-        <v>275.2444458007812</v>
+        <v>271.8873291015625</v>
       </c>
       <c r="BP2" t="n">
-        <v>274.4277038574219</v>
+        <v>272.7076416015625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>273.9771728515625</v>
+        <v>273.3004455566406</v>
       </c>
       <c r="BR2" t="n">
-        <v>273.7274169921875</v>
+        <v>273.5543212890625</v>
       </c>
       <c r="BS2" t="n">
-        <v>274.03515625</v>
+        <v>273.41748046875</v>
       </c>
       <c r="BT2" t="n">
-        <v>273.8095092773438</v>
+        <v>273.4460754394531</v>
       </c>
       <c r="BU2" t="n">
-        <v>273.6255493164062</v>
+        <v>273.3504638671875</v>
       </c>
       <c r="BV2" t="n">
-        <v>273.4604187011719</v>
+        <v>272.3519592285156</v>
       </c>
       <c r="BW2" t="n">
-        <v>273.2242431640625</v>
+        <v>271.5457153320312</v>
       </c>
       <c r="BX2" t="n">
-        <v>272.9908447265625</v>
+        <v>271.4012756347656</v>
       </c>
       <c r="BY2" t="n">
-        <v>272.8614807128906</v>
+        <v>271.2516174316406</v>
       </c>
       <c r="BZ2" t="n">
-        <v>272.7474365234375</v>
+        <v>271.1311950683594</v>
       </c>
       <c r="CA2" t="n">
-        <v>272.563720703125</v>
+        <v>270.6883850097656</v>
       </c>
       <c r="CB2" t="n">
-        <v>272.4671630859375</v>
+        <v>269.9576110839844</v>
       </c>
       <c r="CC2" t="n">
-        <v>272.3953857421875</v>
+        <v>269.4739379882812</v>
       </c>
       <c r="CD2" t="n">
-        <v>272.2556762695312</v>
+        <v>267.7182312011719</v>
       </c>
       <c r="CE2" t="n">
-        <v>272.1106567382812</v>
+        <v>265.697021484375</v>
       </c>
       <c r="CF2" t="n">
-        <v>271.9782104492188</v>
+        <v>263.8504028320312</v>
       </c>
       <c r="CG2" t="n">
-        <v>272.0011596679688</v>
+        <v>263.203369140625</v>
       </c>
       <c r="CH2" t="n">
-        <v>272.0212707519531</v>
+        <v>263.138427734375</v>
       </c>
       <c r="CI2" t="n">
-        <v>272.0730590820312</v>
+        <v>263.4576110839844</v>
       </c>
       <c r="CJ2" t="n">
-        <v>272.1170043945312</v>
+        <v>262.9833679199219</v>
       </c>
       <c r="CK2" t="n">
-        <v>272.2073669433594</v>
+        <v>263.3000793457031</v>
       </c>
       <c r="CL2" t="n">
-        <v>272.2538452148438</v>
+        <v>263.4770812988281</v>
       </c>
       <c r="CM2" t="n">
-        <v>272.0929870605469</v>
+        <v>263.1030578613281</v>
       </c>
       <c r="CN2" t="n">
-        <v>272.1138610839844</v>
+        <v>262.6838684082031</v>
       </c>
       <c r="CO2" t="n">
-        <v>272.5322265625</v>
+        <v>261.6557922363281</v>
       </c>
       <c r="CP2" t="n">
-        <v>274.1631774902344</v>
+        <v>259.9893493652344</v>
       </c>
       <c r="CQ2" t="n">
-        <v>276.7183837890625</v>
+        <v>263.3225708007812</v>
       </c>
       <c r="CR2" t="n">
-        <v>277.4955749511719</v>
+        <v>261.6902770996094</v>
       </c>
       <c r="CS2" t="n">
-        <v>277.5102233886719</v>
+        <v>254.7114868164062</v>
       </c>
       <c r="CT2" t="n">
-        <v>276.9941711425781</v>
+        <v>262.2431030273438</v>
       </c>
       <c r="CU2" t="n">
-        <v>277.025634765625</v>
+        <v>261.8517761230469</v>
       </c>
       <c r="CV2" t="n">
-        <v>276.9966735839844</v>
+        <v>262.4674377441406</v>
       </c>
       <c r="CW2" t="n">
-        <v>276.98486328125</v>
+        <v>261.1203918457031</v>
       </c>
       <c r="CX2" t="n">
-        <v>276.9525451660156</v>
+        <v>261.511474609375</v>
       </c>
       <c r="CY2" t="n">
-        <v>276.9291381835938</v>
+        <v>261.2187805175781</v>
       </c>
       <c r="CZ2" t="n">
-        <v>276.9907531738281</v>
+        <v>260.9738464355469</v>
       </c>
       <c r="DA2" t="n">
-        <v>276.9908752441406</v>
+        <v>261.1588745117188</v>
       </c>
       <c r="DB2" t="n">
-        <v>277.4953002929688</v>
+        <v>264.1412963867188</v>
       </c>
       <c r="DC2" t="n">
-        <v>277.5482788085938</v>
+        <v>264.8007202148438</v>
       </c>
       <c r="DD2" t="n">
-        <v>277.7080383300781</v>
+        <v>264.5635986328125</v>
       </c>
       <c r="DE2" t="n">
-        <v>277.8197021484375</v>
+        <v>264.3124084472656</v>
       </c>
       <c r="DF2" t="n">
-        <v>277.9063720703125</v>
+        <v>265.1024780273438</v>
       </c>
       <c r="DG2" t="n">
-        <v>277.9497985839844</v>
+        <v>265.2973022460938</v>
       </c>
       <c r="DH2" t="n">
-        <v>277.9740295410156</v>
+        <v>264.3598022460938</v>
       </c>
       <c r="DI2" t="n">
-        <v>277.7702026367188</v>
+        <v>260.8656616210938</v>
       </c>
       <c r="DJ2" t="n">
-        <v>277.6083068847656</v>
+        <v>261.2737426757812</v>
       </c>
       <c r="DK2" t="n">
-        <v>277.4147033691406</v>
+        <v>261.355712890625</v>
       </c>
       <c r="DL2" t="n">
-        <v>276.776611328125</v>
+        <v>261.3865966796875</v>
       </c>
       <c r="DM2" t="n">
-        <v>275.2669982910156</v>
+        <v>261.5101928710938</v>
       </c>
       <c r="DN2" t="n">
-        <v>269.4002685546875</v>
+        <v>261.6750183105469</v>
       </c>
       <c r="DO2" t="n">
-        <v>269.7355346679688</v>
+        <v>261.721435546875</v>
       </c>
       <c r="DP2" t="n">
-        <v>270.5004272460938</v>
+        <v>261.673828125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>270.8736267089844</v>
+        <v>261.5957336425781</v>
       </c>
       <c r="DR2" t="n">
-        <v>270.7584838867188</v>
+        <v>261.595703125</v>
       </c>
       <c r="DS2" t="n">
-        <v>270.6361694335938</v>
+        <v>261.6647033691406</v>
       </c>
       <c r="DT2" t="n">
-        <v>270.5363159179688</v>
+        <v>261.6745910644531</v>
       </c>
       <c r="DU2" t="n">
-        <v>270.4235229492188</v>
+        <v>261.6667175292969</v>
       </c>
       <c r="DV2" t="n">
-        <v>270.46533203125</v>
+        <v>261.6614990234375</v>
       </c>
       <c r="DW2" t="n">
-        <v>270.4726867675781</v>
+        <v>261.649169921875</v>
       </c>
       <c r="DX2" t="n">
-        <v>270.4811706542969</v>
+        <v>261.6529235839844</v>
       </c>
       <c r="DY2" t="n">
-        <v>270.4734802246094</v>
+        <v>261.6466064453125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>270.4600219726562</v>
+        <v>261.5710754394531</v>
       </c>
       <c r="EA2" t="n">
-        <v>270.4472351074219</v>
+        <v>261.5262451171875</v>
       </c>
       <c r="EB2" t="n">
-        <v>270.4216918945312</v>
+        <v>262.6613159179688</v>
       </c>
       <c r="EC2" t="n">
-        <v>270.4228820800781</v>
+        <v>264.6817016601562</v>
       </c>
       <c r="ED2" t="n">
-        <v>270.4472045898438</v>
+        <v>265.8852233886719</v>
       </c>
       <c r="EE2" t="n">
-        <v>270.4699096679688</v>
+        <v>265.5994567871094</v>
       </c>
       <c r="EF2" t="n">
-        <v>270.5183715820312</v>
+        <v>265.1739501953125</v>
       </c>
       <c r="EG2" t="n">
-        <v>270.548828125</v>
+        <v>265.2632751464844</v>
       </c>
       <c r="EH2" t="n">
-        <v>270.5545959472656</v>
+        <v>264.7624816894531</v>
       </c>
       <c r="EI2" t="n">
-        <v>270.614013671875</v>
+        <v>263.8902282714844</v>
       </c>
       <c r="EJ2" t="n">
-        <v>271.2332153320312</v>
+        <v>263.1946105957031</v>
       </c>
       <c r="EK2" t="n">
-        <v>274.4745483398438</v>
+        <v>263.4338073730469</v>
       </c>
       <c r="EL2" t="n">
-        <v>272.7780151367188</v>
+        <v>263.9158020019531</v>
       </c>
       <c r="EM2" t="n">
-        <v>271.9857177734375</v>
+        <v>265.0906066894531</v>
       </c>
       <c r="EN2" t="n">
-        <v>272.6620178222656</v>
+        <v>265.0512390136719</v>
       </c>
       <c r="EO2" t="n">
-        <v>274.7066650390625</v>
+        <v>265.1289367675781</v>
       </c>
       <c r="EP2" t="n">
-        <v>274.3931884765625</v>
+        <v>264.3470764160156</v>
       </c>
       <c r="EQ2" t="n">
-        <v>273.8747863769531</v>
+        <v>262.9135437011719</v>
       </c>
       <c r="ER2" t="n">
-        <v>273.0120239257812</v>
+        <v>260.7693176269531</v>
       </c>
       <c r="ES2" t="n">
-        <v>273.0086059570312</v>
+        <v>260.4484252929688</v>
       </c>
       <c r="ET2" t="n">
-        <v>272.9073181152344</v>
+        <v>259.9972229003906</v>
       </c>
       <c r="EU2" t="n">
-        <v>272.8969421386719</v>
+        <v>260.0719909667969</v>
       </c>
       <c r="EV2" t="n">
-        <v>272.8686828613281</v>
+        <v>260.5070495605469</v>
       </c>
       <c r="EW2" t="n">
-        <v>272.9498596191406</v>
+        <v>260.5679321289062</v>
       </c>
       <c r="EX2" t="n">
-        <v>273.2693176269531</v>
+        <v>260.6591796875</v>
       </c>
       <c r="EY2" t="n">
-        <v>273.0997619628906</v>
+        <v>260.7111206054688</v>
       </c>
       <c r="EZ2" t="n">
-        <v>273.0717163085938</v>
+        <v>260.7678833007812</v>
       </c>
       <c r="FA2" t="n">
-        <v>273.2989196777344</v>
+        <v>260.7764587402344</v>
       </c>
       <c r="FB2" t="n">
-        <v>273.150146484375</v>
+        <v>260.7540283203125</v>
       </c>
       <c r="FC2" t="n">
-        <v>271.1586303710938</v>
+        <v>260.746826171875</v>
       </c>
       <c r="FD2" t="n">
-        <v>270.1625061035156</v>
+        <v>260.7430419921875</v>
       </c>
       <c r="FE2" t="n">
-        <v>270.4196166992188</v>
+        <v>260.6731872558594</v>
       </c>
       <c r="FF2" t="n">
-        <v>270.5930786132812</v>
+        <v>260.1646423339844</v>
       </c>
       <c r="FG2" t="n">
-        <v>270.5788879394531</v>
+        <v>260.0337829589844</v>
       </c>
       <c r="FH2" t="n">
-        <v>270.4188537597656</v>
+        <v>276.2464599609375</v>
       </c>
       <c r="FI2" t="n">
-        <v>270.1096801757812</v>
+        <v>276.2713012695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>269.5884094238281</v>
+        <v>276.2843627929688</v>
       </c>
       <c r="FK2" t="n">
-        <v>269.3074035644531</v>
+        <v>265.3158874511719</v>
       </c>
       <c r="FL2" t="n">
-        <v>269.28759765625</v>
+        <v>265.38037109375</v>
       </c>
       <c r="FM2" t="n">
-        <v>269.2377319335938</v>
+        <v>265.3301391601562</v>
       </c>
       <c r="FN2" t="n">
-        <v>269.1837768554688</v>
+        <v>265.2299499511719</v>
       </c>
       <c r="FO2" t="n">
-        <v>269.1486206054688</v>
+        <v>265.18505859375</v>
       </c>
       <c r="FP2" t="n">
-        <v>269.11572265625</v>
+        <v>264.6246948242188</v>
       </c>
       <c r="FQ2" t="n">
-        <v>269.1012268066406</v>
+        <v>265.242919921875</v>
       </c>
       <c r="FR2" t="n">
-        <v>269.013427734375</v>
+        <v>265.9786682128906</v>
       </c>
       <c r="FS2" t="n">
-        <v>268.9532775878906</v>
+        <v>265.72900390625</v>
       </c>
       <c r="FT2" t="n">
-        <v>268.7427673339844</v>
+        <v>261.957275390625</v>
       </c>
       <c r="FU2" t="n">
-        <v>268.6820983886719</v>
+        <v>259.3960266113281</v>
       </c>
       <c r="FV2" t="n">
-        <v>270.0812683105469</v>
+        <v>259.2388610839844</v>
       </c>
       <c r="FW2" t="n">
-        <v>273.7738952636719</v>
+        <v>259.1358642578125</v>
       </c>
       <c r="FX2" t="n">
-        <v>273.4412231445312</v>
+        <v>259.0238342285156</v>
       </c>
       <c r="FY2" t="n">
-        <v>273.263671875</v>
+        <v>259.0400390625</v>
       </c>
       <c r="FZ2" t="n">
-        <v>273.0673828125</v>
+        <v>259.0723266601562</v>
       </c>
       <c r="GA2" t="n">
-        <v>273.0663452148438</v>
+        <v>259.1171875</v>
       </c>
       <c r="GB2" t="n">
-        <v>273.0599670410156</v>
+        <v>259.10302734375</v>
       </c>
       <c r="GC2" t="n">
-        <v>272.9784240722656</v>
+        <v>259.1471557617188</v>
       </c>
       <c r="GD2" t="n">
-        <v>272.8522033691406</v>
+        <v>259.1415710449219</v>
       </c>
       <c r="GE2" t="n">
-        <v>272.5121154785156</v>
+        <v>259.1497802734375</v>
       </c>
       <c r="GF2" t="n">
-        <v>272.2630615234375</v>
+        <v>259.1737976074219</v>
       </c>
       <c r="GG2" t="n">
-        <v>272.0155944824219</v>
+        <v>259.0667419433594</v>
       </c>
       <c r="GH2" t="n">
-        <v>271.9386596679688</v>
+        <v>258.9083862304688</v>
       </c>
       <c r="GI2" t="n">
-        <v>272.2841491699219</v>
+        <v>275.1412353515625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>272.4911804199219</v>
+        <v>275.0853576660156</v>
       </c>
       <c r="GK2" t="n">
-        <v>272.8847045898438</v>
+        <v>262.8108825683594</v>
       </c>
       <c r="GL2" t="n">
-        <v>273.1951293945312</v>
+        <v>262.7629699707031</v>
       </c>
       <c r="GM2" t="n">
-        <v>271.7875061035156</v>
+        <v>262.7442016601562</v>
       </c>
       <c r="GN2" t="n">
-        <v>269.4079284667969</v>
+        <v>262.8552856445312</v>
       </c>
       <c r="GO2" t="n">
-        <v>267.3047485351562</v>
+        <v>262.8562622070312</v>
       </c>
       <c r="GP2" t="n">
-        <v>268.2278747558594</v>
+        <v>262.8704833984375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>267.8243713378906</v>
+        <v>262.9859313964844</v>
       </c>
       <c r="GR2" t="n">
-        <v>267.9534301757812</v>
+        <v>263.047607421875</v>
       </c>
       <c r="GS2" t="n">
-        <v>268.0794677734375</v>
+        <v>263.6432800292969</v>
       </c>
       <c r="GT2" t="n">
-        <v>268.0787963867188</v>
+        <v>265.154296875</v>
       </c>
       <c r="GU2" t="n">
-        <v>268.0775451660156</v>
+        <v>265.0520629882812</v>
       </c>
       <c r="GV2" t="n">
-        <v>268.1161804199219</v>
+        <v>264.5149841308594</v>
       </c>
       <c r="GW2" t="n">
-        <v>268.1224060058594</v>
+        <v>261.3257141113281</v>
       </c>
       <c r="GX2" t="n">
-        <v>268.1150207519531</v>
+        <v>259.2948608398438</v>
       </c>
       <c r="GY2" t="n">
-        <v>268.1022338867188</v>
+        <v>258.5212707519531</v>
       </c>
       <c r="GZ2" t="n">
-        <v>268.0652465820312</v>
+        <v>258.9899597167969</v>
       </c>
       <c r="HA2" t="n">
-        <v>267.9863586425781</v>
+        <v>258.8460083007812</v>
       </c>
       <c r="HB2" t="n">
-        <v>267.9609680175781</v>
+        <v>258.9320983886719</v>
       </c>
       <c r="HC2" t="n">
-        <v>267.8991088867188</v>
+        <v>258.9363098144531</v>
       </c>
       <c r="HD2" t="n">
-        <v>271.9273986816406</v>
+        <v>258.9130554199219</v>
       </c>
       <c r="HE2" t="n">
-        <v>274.210205078125</v>
+        <v>258.9006042480469</v>
       </c>
       <c r="HF2" t="n">
-        <v>275.6421813964844</v>
+        <v>258.9028015136719</v>
       </c>
       <c r="HG2" t="n">
-        <v>275.42236328125</v>
+        <v>258.8821105957031</v>
       </c>
       <c r="HH2" t="n">
-        <v>275.5644226074219</v>
+        <v>258.9800720214844</v>
       </c>
       <c r="HI2" t="n">
-        <v>275.0167541503906</v>
+        <v>258.97216796875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>273.2196655273438</v>
+        <v>259.1153259277344</v>
       </c>
       <c r="HK2" t="n">
-        <v>272.3620300292969</v>
+        <v>259.3240966796875</v>
       </c>
       <c r="HL2" t="n">
-        <v>272.4150390625</v>
+        <v>259.6067810058594</v>
       </c>
       <c r="HM2" t="n">
-        <v>272.4349670410156</v>
+        <v>262.7498474121094</v>
       </c>
       <c r="HN2" t="n">
-        <v>272.5311279296875</v>
+        <v>264.0474548339844</v>
       </c>
       <c r="HO2" t="n">
-        <v>272.5146484375</v>
+        <v>264.0039978027344</v>
       </c>
       <c r="HP2" t="n">
-        <v>272.4966125488281</v>
+        <v>263.5528564453125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>272.7897338867188</v>
+        <v>262.3063659667969</v>
       </c>
       <c r="HR2" t="n">
-        <v>272.5860900878906</v>
+        <v>262.2893371582031</v>
       </c>
       <c r="HS2" t="n">
-        <v>272.8076477050781</v>
+        <v>262.7910461425781</v>
       </c>
       <c r="HT2" t="n">
-        <v>271.1062622070312</v>
+        <v>263.9000549316406</v>
       </c>
       <c r="HU2" t="n">
-        <v>266.9995727539062</v>
+        <v>264.4854736328125</v>
       </c>
       <c r="HV2" t="n">
-        <v>268.1903991699219</v>
+        <v>265.2908630371094</v>
       </c>
       <c r="HW2" t="n">
-        <v>268.0177612304688</v>
+        <v>259.3434143066406</v>
       </c>
       <c r="HX2" t="n">
-        <v>268.2217407226562</v>
+        <v>258.50390625</v>
       </c>
       <c r="HY2" t="n">
-        <v>268.2251281738281</v>
+        <v>258.2373046875</v>
       </c>
       <c r="HZ2" t="n">
-        <v>267.7993774414062</v>
+        <v>258.591552734375</v>
       </c>
       <c r="IA2" t="n">
-        <v>267.0224609375</v>
+        <v>257.6405639648438</v>
       </c>
       <c r="IB2" t="n">
-        <v>267.1528625488281</v>
+        <v>257.3236389160156</v>
       </c>
       <c r="IC2" t="n">
-        <v>267.3158569335938</v>
+        <v>257.2994995117188</v>
       </c>
       <c r="ID2" t="n">
-        <v>267.6051940917969</v>
+        <v>257.2854309082031</v>
       </c>
       <c r="IE2" t="n">
-        <v>267.659912109375</v>
+        <v>257.4016723632812</v>
       </c>
       <c r="IF2" t="n">
-        <v>267.6251831054688</v>
+        <v>257.2731628417969</v>
       </c>
       <c r="IG2" t="n">
-        <v>267.5709228515625</v>
+        <v>256.9418334960938</v>
       </c>
       <c r="IH2" t="n">
-        <v>267.4290466308594</v>
+        <v>257.3669128417969</v>
       </c>
       <c r="II2" t="n">
-        <v>267.407958984375</v>
+        <v>260.0354614257812</v>
       </c>
       <c r="IJ2" t="n">
-        <v>267.3519592285156</v>
+        <v>260.4223327636719</v>
       </c>
       <c r="IK2" t="n">
-        <v>267.7748107910156</v>
+        <v>260.2521362304688</v>
       </c>
       <c r="IL2" t="n">
-        <v>271.0679931640625</v>
+        <v>261.2961730957031</v>
       </c>
       <c r="IM2" t="n">
-        <v>272.6802673339844</v>
+        <v>264.5777893066406</v>
       </c>
       <c r="IN2" t="n">
-        <v>271.8683776855469</v>
+        <v>264.5413208007812</v>
       </c>
       <c r="IO2" t="n">
-        <v>272.2813110351562</v>
+        <v>262.4980773925781</v>
       </c>
       <c r="IP2" t="n">
-        <v>272.2587585449219</v>
+        <v>261.9388427734375</v>
       </c>
       <c r="IQ2" t="n">
-        <v>272.2212524414062</v>
+        <v>263.5849914550781</v>
       </c>
       <c r="IR2" t="n">
-        <v>271.7301025390625</v>
+        <v>264.4464416503906</v>
       </c>
       <c r="IS2" t="n">
-        <v>270.6943664550781</v>
+        <v>264.2935791015625</v>
       </c>
       <c r="IT2" t="n">
-        <v>270.7117309570312</v>
+        <v>260.3184509277344</v>
       </c>
       <c r="IU2" t="n">
-        <v>270.8048095703125</v>
+        <v>259.9327087402344</v>
       </c>
       <c r="IV2" t="n">
-        <v>268.1710510253906</v>
+        <v>258.2050170898438</v>
       </c>
       <c r="IW2" t="n">
-        <v>270.7098388671875</v>
+        <v>257.3886108398438</v>
       </c>
       <c r="IX2" t="n">
-        <v>271.1082763671875</v>
+        <v>257.7094421386719</v>
       </c>
       <c r="IY2" t="n">
-        <v>267.8302612304688</v>
+        <v>257.1404418945312</v>
       </c>
       <c r="IZ2" t="n">
-        <v>266.2067565917969</v>
+        <v>257.1161804199219</v>
       </c>
       <c r="JA2" t="n">
-        <v>267.0726013183594</v>
+        <v>257.4314880371094</v>
       </c>
       <c r="JB2" t="n">
-        <v>267.2239990234375</v>
+        <v>257.59814453125</v>
       </c>
       <c r="JC2" t="n">
-        <v>267.1524353027344</v>
+        <v>257.6180419921875</v>
       </c>
       <c r="JD2" t="n">
-        <v>266.8303833007812</v>
+        <v>258.1144104003906</v>
       </c>
       <c r="JE2" t="n">
-        <v>266.3459167480469</v>
+        <v>259.8812561035156</v>
       </c>
       <c r="JF2" t="n">
-        <v>266.0680236816406</v>
+        <v>260.9777526855469</v>
       </c>
       <c r="JG2" t="n">
-        <v>265.8497619628906</v>
+        <v>264.0068054199219</v>
       </c>
       <c r="JH2" t="n">
-        <v>265.8126831054688</v>
+        <v>263.7256164550781</v>
       </c>
       <c r="JI2" t="n">
-        <v>265.7261657714844</v>
+        <v>264.182861328125</v>
       </c>
       <c r="JJ2" t="n">
-        <v>265.6964111328125</v>
+        <v>263.081298828125</v>
       </c>
       <c r="JK2" t="n">
-        <v>265.7280883789062</v>
+        <v>263.3126831054688</v>
       </c>
       <c r="JL2" t="n">
-        <v>265.5630493164062</v>
+        <v>264.0342712402344</v>
       </c>
       <c r="JM2" t="n">
-        <v>264.3649291992188</v>
+        <v>263.6600036621094</v>
       </c>
       <c r="JN2" t="n">
-        <v>264.3987121582031</v>
+        <v>259.7171325683594</v>
       </c>
       <c r="JO2" t="n">
-        <v>264.9129333496094</v>
+        <v>257.4938659667969</v>
       </c>
       <c r="JP2" t="n">
-        <v>270.8323669433594</v>
+        <v>256.9964294433594</v>
       </c>
       <c r="JQ2" t="n">
-        <v>271.3414306640625</v>
+        <v>257.1310119628906</v>
       </c>
       <c r="JR2" t="n">
-        <v>269.5320129394531</v>
+        <v>257.0456848144531</v>
       </c>
       <c r="JS2" t="n">
-        <v>270.5933532714844</v>
+        <v>256.8008422851562</v>
       </c>
       <c r="JT2" t="n">
-        <v>268.7724914550781</v>
+        <v>256.9334106445312</v>
       </c>
       <c r="JU2" t="n">
-        <v>268.7311401367188</v>
+        <v>256.5673217773438</v>
       </c>
       <c r="JV2" t="n">
-        <v>268.6313781738281</v>
+        <v>256.4416198730469</v>
       </c>
       <c r="JW2" t="n">
-        <v>268.4969177246094</v>
+        <v>256.4525146484375</v>
       </c>
       <c r="JX2" t="n">
-        <v>268.1370849609375</v>
+        <v>256.4211120605469</v>
       </c>
       <c r="JY2" t="n">
-        <v>267.5412902832031</v>
+        <v>256.26123046875</v>
       </c>
       <c r="JZ2" t="n">
-        <v>265.8107299804688</v>
+        <v>255.8963317871094</v>
       </c>
       <c r="KA2" t="n">
-        <v>261.35107421875</v>
+        <v>256.811279296875</v>
       </c>
       <c r="KB2" t="n">
-        <v>260.6065979003906</v>
+        <v>260.4126892089844</v>
       </c>
       <c r="KC2" t="n">
-        <v>260.532470703125</v>
+        <v>262.2184753417969</v>
       </c>
       <c r="KD2" t="n">
-        <v>260.8139343261719</v>
+        <v>263.7395324707031</v>
       </c>
       <c r="KE2" t="n">
-        <v>260.9932556152344</v>
+        <v>267.89208984375</v>
       </c>
       <c r="KF2" t="n">
-        <v>261.124755859375</v>
+        <v>269.9243469238281</v>
       </c>
       <c r="KG2" t="n">
-        <v>254.6183624267578</v>
+        <v>269.9651794433594</v>
       </c>
       <c r="KH2" t="n">
-        <v>251.7195892333984</v>
+        <v>269.4494018554688</v>
       </c>
       <c r="KI2" t="n">
-        <v>250.4863739013672</v>
+        <v>269.0707092285156</v>
       </c>
       <c r="KJ2" t="n">
-        <v>250.6835327148438</v>
+        <v>269.07763671875</v>
       </c>
       <c r="KK2" t="n">
-        <v>248.9410705566406</v>
+        <v>268.9479675292969</v>
       </c>
       <c r="KL2" t="n">
-        <v>249.2370452880859</v>
+        <v>268.852294921875</v>
       </c>
       <c r="KM2" t="n">
-        <v>250.8951110839844</v>
+        <v>269.3313598632812</v>
       </c>
       <c r="KN2" t="n">
-        <v>251.4345703125</v>
+        <v>269.7328186035156</v>
       </c>
       <c r="KO2" t="n">
-        <v>254.6775207519531</v>
+        <v>270.3099670410156</v>
       </c>
       <c r="KP2" t="n">
-        <v>253.8204345703125</v>
+        <v>271.9478149414062</v>
       </c>
       <c r="KQ2" t="n">
-        <v>252.5419311523438</v>
+        <v>273.4699096679688</v>
       </c>
       <c r="KR2" t="n">
-        <v>251.1430206298828</v>
+        <v>280.6529235839844</v>
       </c>
       <c r="KS2" t="n">
-        <v>252.3477172851562</v>
+        <v>281.5703430175781</v>
       </c>
       <c r="KT2" t="n">
-        <v>249.7351379394531</v>
+        <v>279.3472900390625</v>
       </c>
       <c r="KU2" t="n">
-        <v>239.2732086181641</v>
+        <v>277.5128173828125</v>
       </c>
       <c r="KV2" t="n">
-        <v>229.5758972167969</v>
+        <v>274.9524230957031</v>
       </c>
       <c r="KW2" t="n">
-        <v>223.5596618652344</v>
+        <v>271.5574035644531</v>
       </c>
       <c r="KX2" t="n">
-        <v>212.4998474121094</v>
+        <v>264.7330322265625</v>
       </c>
       <c r="KY2" t="n">
-        <v>201.1185302734375</v>
+        <v>253.3848876953125</v>
       </c>
       <c r="KZ2" t="n">
-        <v>192.2340393066406</v>
+        <v>246.5237731933594</v>
       </c>
       <c r="LA2" t="n">
-        <v>181.7406311035156</v>
+        <v>238.2126770019531</v>
       </c>
       <c r="LB2" t="n">
-        <v>173.2967834472656</v>
+        <v>227.4282531738281</v>
       </c>
       <c r="LC2" t="n">
-        <v>167.2677764892578</v>
+        <v>218.7356872558594</v>
       </c>
       <c r="LD2" t="n">
-        <v>165.3038635253906</v>
+        <v>218.9418334960938</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>218.4284057617188</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>210.4009704589844</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>204.5740509033203</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>187.7254486083984</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>163.9771270751953</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>130.8207855224609</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>96.99021911621094</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>49.81220245361328</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>18.97352027893066</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>16.95210266113281</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>44.07650756835938</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>42.07501983642578</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>25.221435546875</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>30.29644775390625</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>62.26984405517578</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>50.73677825927734</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>49.64272308349609</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>46.42642974853516</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>50.57433700561523</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>24.49617767333984</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>-28.92389297485352</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>-22.03662490844727</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>-8.118328094482422</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>-29.37731552124023</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>-86.71720886230469</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>-217.4753570556641</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>-208.7648010253906</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>-177.9287414550781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>307.2351989746094</v>
+        <v>313.3070678710938</v>
       </c>
       <c r="B3" t="n">
-        <v>304.9579772949219</v>
+        <v>308.4874572753906</v>
       </c>
       <c r="C3" t="n">
-        <v>307.3253784179688</v>
+        <v>304.7961730957031</v>
       </c>
       <c r="D3" t="n">
-        <v>310.2570495605469</v>
+        <v>302.5904541015625</v>
       </c>
       <c r="E3" t="n">
-        <v>312.2498474121094</v>
+        <v>302.1756286621094</v>
       </c>
       <c r="F3" t="n">
-        <v>311.3042602539062</v>
+        <v>301.3789672851562</v>
       </c>
       <c r="G3" t="n">
-        <v>312.1044311523438</v>
+        <v>301.2256469726562</v>
       </c>
       <c r="H3" t="n">
-        <v>312.1570129394531</v>
+        <v>300.34521484375</v>
       </c>
       <c r="I3" t="n">
-        <v>311.4254150390625</v>
+        <v>299.1655883789062</v>
       </c>
       <c r="J3" t="n">
-        <v>310.5581359863281</v>
+        <v>297.6053466796875</v>
       </c>
       <c r="K3" t="n">
-        <v>312.3690490722656</v>
+        <v>295.3827209472656</v>
       </c>
       <c r="L3" t="n">
-        <v>313.4253540039062</v>
+        <v>292.9388122558594</v>
       </c>
       <c r="M3" t="n">
-        <v>313.982421875</v>
+        <v>288.1198120117188</v>
       </c>
       <c r="N3" t="n">
-        <v>313.3922119140625</v>
+        <v>282.8999633789062</v>
       </c>
       <c r="O3" t="n">
-        <v>312.7738647460938</v>
+        <v>279.6468505859375</v>
       </c>
       <c r="P3" t="n">
-        <v>311.27734375</v>
+        <v>277.6083374023438</v>
       </c>
       <c r="Q3" t="n">
-        <v>309.3497314453125</v>
+        <v>276.0125427246094</v>
       </c>
       <c r="R3" t="n">
-        <v>305.7169494628906</v>
+        <v>274.68505859375</v>
       </c>
       <c r="S3" t="n">
-        <v>303.3630981445312</v>
+        <v>274.1458129882812</v>
       </c>
       <c r="T3" t="n">
-        <v>301.0335693359375</v>
+        <v>273.2285461425781</v>
       </c>
       <c r="U3" t="n">
-        <v>299.4370727539062</v>
+        <v>272.98876953125</v>
       </c>
       <c r="V3" t="n">
-        <v>298.6581115722656</v>
+        <v>273.0153198242188</v>
       </c>
       <c r="W3" t="n">
-        <v>300.216796875</v>
+        <v>272.8955993652344</v>
       </c>
       <c r="X3" t="n">
-        <v>301.20166015625</v>
+        <v>274.27783203125</v>
       </c>
       <c r="Y3" t="n">
-        <v>303.94921875</v>
+        <v>274.7723999023438</v>
       </c>
       <c r="Z3" t="n">
-        <v>306.3989868164062</v>
+        <v>273.9643859863281</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.2651977539062</v>
+        <v>275.638916015625</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.2204284667969</v>
+        <v>276.3662719726562</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.9319763183594</v>
+        <v>276.6690368652344</v>
       </c>
       <c r="AD3" t="n">
-        <v>314.3738708496094</v>
+        <v>275.8193969726562</v>
       </c>
       <c r="AE3" t="n">
-        <v>315.2025146484375</v>
+        <v>275.7521057128906</v>
       </c>
       <c r="AF3" t="n">
-        <v>316.3851318359375</v>
+        <v>274.7846374511719</v>
       </c>
       <c r="AG3" t="n">
-        <v>316.3758239746094</v>
+        <v>271.4612731933594</v>
       </c>
       <c r="AH3" t="n">
-        <v>316.1633605957031</v>
+        <v>267.4035034179688</v>
       </c>
       <c r="AI3" t="n">
-        <v>315.0947570800781</v>
+        <v>265.5051879882812</v>
       </c>
       <c r="AJ3" t="n">
-        <v>313.5896301269531</v>
+        <v>263.854248046875</v>
       </c>
       <c r="AK3" t="n">
-        <v>312.4586486816406</v>
+        <v>262.7423706054688</v>
       </c>
       <c r="AL3" t="n">
-        <v>311.4013366699219</v>
+        <v>261.325439453125</v>
       </c>
       <c r="AM3" t="n">
-        <v>310.4419250488281</v>
+        <v>259.5583190917969</v>
       </c>
       <c r="AN3" t="n">
-        <v>309.9629516601562</v>
+        <v>258.5712890625</v>
       </c>
       <c r="AO3" t="n">
-        <v>309.5136108398438</v>
+        <v>258.0596618652344</v>
       </c>
       <c r="AP3" t="n">
-        <v>309.2253723144531</v>
+        <v>257.6539611816406</v>
       </c>
       <c r="AQ3" t="n">
-        <v>308.8982238769531</v>
+        <v>258.406494140625</v>
       </c>
       <c r="AR3" t="n">
-        <v>308.817138671875</v>
+        <v>259.8649291992188</v>
       </c>
       <c r="AS3" t="n">
-        <v>308.5718078613281</v>
+        <v>261.2690734863281</v>
       </c>
       <c r="AT3" t="n">
-        <v>309.7474365234375</v>
+        <v>261.9208984375</v>
       </c>
       <c r="AU3" t="n">
-        <v>311.0304870605469</v>
+        <v>263.1359252929688</v>
       </c>
       <c r="AV3" t="n">
-        <v>311.7523193359375</v>
+        <v>263.5999755859375</v>
       </c>
       <c r="AW3" t="n">
-        <v>312.7095336914062</v>
+        <v>263.9973449707031</v>
       </c>
       <c r="AX3" t="n">
-        <v>313.4072265625</v>
+        <v>263.1264953613281</v>
       </c>
       <c r="AY3" t="n">
-        <v>313.8623657226562</v>
+        <v>262.1249084472656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>314.1011352539062</v>
+        <v>261.1904907226562</v>
       </c>
       <c r="BA3" t="n">
-        <v>314.2879028320312</v>
+        <v>259.3371887207031</v>
       </c>
       <c r="BB3" t="n">
-        <v>314.3950805664062</v>
+        <v>258.8169250488281</v>
       </c>
       <c r="BC3" t="n">
-        <v>314.2130737304688</v>
+        <v>257.7653198242188</v>
       </c>
       <c r="BD3" t="n">
-        <v>313.7326965332031</v>
+        <v>258.348388671875</v>
       </c>
       <c r="BE3" t="n">
-        <v>313.2921142578125</v>
+        <v>257.6628723144531</v>
       </c>
       <c r="BF3" t="n">
-        <v>313.2705078125</v>
+        <v>257.5667724609375</v>
       </c>
       <c r="BG3" t="n">
-        <v>313.0762023925781</v>
+        <v>257.4708862304688</v>
       </c>
       <c r="BH3" t="n">
-        <v>313.2496643066406</v>
+        <v>257.4090881347656</v>
       </c>
       <c r="BI3" t="n">
-        <v>313.5932922363281</v>
+        <v>257.2750854492188</v>
       </c>
       <c r="BJ3" t="n">
-        <v>313.191162109375</v>
+        <v>255.8012542724609</v>
       </c>
       <c r="BK3" t="n">
-        <v>312.41552734375</v>
+        <v>257.1100158691406</v>
       </c>
       <c r="BL3" t="n">
-        <v>311.9564819335938</v>
+        <v>258.4697265625</v>
       </c>
       <c r="BM3" t="n">
-        <v>312.4413146972656</v>
+        <v>258.9111328125</v>
       </c>
       <c r="BN3" t="n">
-        <v>313.1287231445312</v>
+        <v>259.5567016601562</v>
       </c>
       <c r="BO3" t="n">
-        <v>312.6911926269531</v>
+        <v>258.8883056640625</v>
       </c>
       <c r="BP3" t="n">
-        <v>312.1531982421875</v>
+        <v>257.6909484863281</v>
       </c>
       <c r="BQ3" t="n">
-        <v>311.6222534179688</v>
+        <v>256.2236328125</v>
       </c>
       <c r="BR3" t="n">
-        <v>311.5021667480469</v>
+        <v>255.5558471679688</v>
       </c>
       <c r="BS3" t="n">
-        <v>311.9344177246094</v>
+        <v>255.2502288818359</v>
       </c>
       <c r="BT3" t="n">
-        <v>312.0245666503906</v>
+        <v>255.1273193359375</v>
       </c>
       <c r="BU3" t="n">
-        <v>312.4098510742188</v>
+        <v>255.1155548095703</v>
       </c>
       <c r="BV3" t="n">
-        <v>312.7718811035156</v>
+        <v>256.4747924804688</v>
       </c>
       <c r="BW3" t="n">
-        <v>313.1820678710938</v>
+        <v>257.7957458496094</v>
       </c>
       <c r="BX3" t="n">
-        <v>313.5012512207031</v>
+        <v>258.4964904785156</v>
       </c>
       <c r="BY3" t="n">
-        <v>313.6911926269531</v>
+        <v>258.9967956542969</v>
       </c>
       <c r="BZ3" t="n">
-        <v>313.9569702148438</v>
+        <v>259.447021484375</v>
       </c>
       <c r="CA3" t="n">
-        <v>314.2298583984375</v>
+        <v>260.080810546875</v>
       </c>
       <c r="CB3" t="n">
-        <v>314.3017578125</v>
+        <v>260.4931640625</v>
       </c>
       <c r="CC3" t="n">
-        <v>314.3454895019531</v>
+        <v>261.1487426757812</v>
       </c>
       <c r="CD3" t="n">
-        <v>314.3429870605469</v>
+        <v>262.2761535644531</v>
       </c>
       <c r="CE3" t="n">
-        <v>314.350830078125</v>
+        <v>262.3178100585938</v>
       </c>
       <c r="CF3" t="n">
-        <v>314.3506164550781</v>
+        <v>262.2186279296875</v>
       </c>
       <c r="CG3" t="n">
-        <v>314.3673400878906</v>
+        <v>262.2933654785156</v>
       </c>
       <c r="CH3" t="n">
-        <v>314.3286743164062</v>
+        <v>262.3114624023438</v>
       </c>
       <c r="CI3" t="n">
-        <v>314.3570556640625</v>
+        <v>262.0091857910156</v>
       </c>
       <c r="CJ3" t="n">
-        <v>314.3709411621094</v>
+        <v>261.71728515625</v>
       </c>
       <c r="CK3" t="n">
-        <v>314.3640441894531</v>
+        <v>261.7877197265625</v>
       </c>
       <c r="CL3" t="n">
-        <v>314.3478393554688</v>
+        <v>261.7074279785156</v>
       </c>
       <c r="CM3" t="n">
-        <v>314.1414794921875</v>
+        <v>261.7586059570312</v>
       </c>
       <c r="CN3" t="n">
-        <v>313.8707580566406</v>
+        <v>261.7661437988281</v>
       </c>
       <c r="CO3" t="n">
-        <v>313.6234436035156</v>
+        <v>261.7002258300781</v>
       </c>
       <c r="CP3" t="n">
-        <v>313.4928894042969</v>
+        <v>261.4872131347656</v>
       </c>
       <c r="CQ3" t="n">
-        <v>312.4570922851562</v>
+        <v>260.4593811035156</v>
       </c>
       <c r="CR3" t="n">
-        <v>312.8111267089844</v>
+        <v>261.4444885253906</v>
       </c>
       <c r="CS3" t="n">
-        <v>313.2779541015625</v>
+        <v>259.2030029296875</v>
       </c>
       <c r="CT3" t="n">
-        <v>314.4390563964844</v>
+        <v>260.6640625</v>
       </c>
       <c r="CU3" t="n">
-        <v>315.1138916015625</v>
+        <v>261.130615234375</v>
       </c>
       <c r="CV3" t="n">
-        <v>315.4032897949219</v>
+        <v>260.3649291992188</v>
       </c>
       <c r="CW3" t="n">
-        <v>315.0408325195312</v>
+        <v>261.8363342285156</v>
       </c>
       <c r="CX3" t="n">
-        <v>314.8110961914062</v>
+        <v>261.5850830078125</v>
       </c>
       <c r="CY3" t="n">
-        <v>314.9671630859375</v>
+        <v>261.8185729980469</v>
       </c>
       <c r="CZ3" t="n">
-        <v>315.0719909667969</v>
+        <v>262.0386657714844</v>
       </c>
       <c r="DA3" t="n">
-        <v>315.1775817871094</v>
+        <v>262.3255615234375</v>
       </c>
       <c r="DB3" t="n">
-        <v>314.4071655273438</v>
+        <v>262.2190551757812</v>
       </c>
       <c r="DC3" t="n">
-        <v>313.5894470214844</v>
+        <v>262.5010375976562</v>
       </c>
       <c r="DD3" t="n">
-        <v>312.9491577148438</v>
+        <v>262.6166381835938</v>
       </c>
       <c r="DE3" t="n">
-        <v>312.4286193847656</v>
+        <v>262.72509765625</v>
       </c>
       <c r="DF3" t="n">
-        <v>312.01123046875</v>
+        <v>263.2781982421875</v>
       </c>
       <c r="DG3" t="n">
-        <v>311.7039489746094</v>
+        <v>263.4156188964844</v>
       </c>
       <c r="DH3" t="n">
-        <v>311.5790100097656</v>
+        <v>263.2082824707031</v>
       </c>
       <c r="DI3" t="n">
-        <v>312.5355529785156</v>
+        <v>262.2853393554688</v>
       </c>
       <c r="DJ3" t="n">
-        <v>313.2713623046875</v>
+        <v>262.3391723632812</v>
       </c>
       <c r="DK3" t="n">
-        <v>312.1350708007812</v>
+        <v>262.3094482421875</v>
       </c>
       <c r="DL3" t="n">
-        <v>312.7372131347656</v>
+        <v>262.3168334960938</v>
       </c>
       <c r="DM3" t="n">
-        <v>315.1574401855469</v>
+        <v>262.3380737304688</v>
       </c>
       <c r="DN3" t="n">
-        <v>315.4412841796875</v>
+        <v>262.3093872070312</v>
       </c>
       <c r="DO3" t="n">
-        <v>315.8745727539062</v>
+        <v>262.2937927246094</v>
       </c>
       <c r="DP3" t="n">
-        <v>315.3672790527344</v>
+        <v>262.2992858886719</v>
       </c>
       <c r="DQ3" t="n">
-        <v>314.9356994628906</v>
+        <v>262.3085632324219</v>
       </c>
       <c r="DR3" t="n">
-        <v>314.6146850585938</v>
+        <v>262.3154296875</v>
       </c>
       <c r="DS3" t="n">
-        <v>314.4192810058594</v>
+        <v>262.3182373046875</v>
       </c>
       <c r="DT3" t="n">
-        <v>314.2229614257812</v>
+        <v>262.3237609863281</v>
       </c>
       <c r="DU3" t="n">
-        <v>314.1408081054688</v>
+        <v>262.3255310058594</v>
       </c>
       <c r="DV3" t="n">
-        <v>314.1105651855469</v>
+        <v>262.3266296386719</v>
       </c>
       <c r="DW3" t="n">
-        <v>314.1178894042969</v>
+        <v>262.3284912109375</v>
       </c>
       <c r="DX3" t="n">
-        <v>314.1070861816406</v>
+        <v>262.3297424316406</v>
       </c>
       <c r="DY3" t="n">
-        <v>314.0720520019531</v>
+        <v>262.3321838378906</v>
       </c>
       <c r="DZ3" t="n">
-        <v>314.0728759765625</v>
+        <v>262.3482360839844</v>
       </c>
       <c r="EA3" t="n">
-        <v>314.0791015625</v>
+        <v>262.3810729980469</v>
       </c>
       <c r="EB3" t="n">
-        <v>314.0625305175781</v>
+        <v>262.3232727050781</v>
       </c>
       <c r="EC3" t="n">
-        <v>314.0426635742188</v>
+        <v>262.5868225097656</v>
       </c>
       <c r="ED3" t="n">
-        <v>313.953857421875</v>
+        <v>262.7023315429688</v>
       </c>
       <c r="EE3" t="n">
-        <v>313.887451171875</v>
+        <v>262.8956909179688</v>
       </c>
       <c r="EF3" t="n">
-        <v>313.6859436035156</v>
+        <v>262.4457702636719</v>
       </c>
       <c r="EG3" t="n">
-        <v>313.55029296875</v>
+        <v>262.5543823242188</v>
       </c>
       <c r="EH3" t="n">
-        <v>313.4014892578125</v>
+        <v>262.3538513183594</v>
       </c>
       <c r="EI3" t="n">
-        <v>312.7882995605469</v>
+        <v>262.0817565917969</v>
       </c>
       <c r="EJ3" t="n">
-        <v>312.2014770507812</v>
+        <v>261.8021850585938</v>
       </c>
       <c r="EK3" t="n">
-        <v>312.2418212890625</v>
+        <v>261.9476928710938</v>
       </c>
       <c r="EL3" t="n">
-        <v>312.4286193847656</v>
+        <v>262.1820983886719</v>
       </c>
       <c r="EM3" t="n">
-        <v>314.2548522949219</v>
+        <v>262.6277770996094</v>
       </c>
       <c r="EN3" t="n">
-        <v>314.6252746582031</v>
+        <v>262.6590881347656</v>
       </c>
       <c r="EO3" t="n">
-        <v>316.897705078125</v>
+        <v>262.9150085449219</v>
       </c>
       <c r="EP3" t="n">
-        <v>317.0014343261719</v>
+        <v>262.9266052246094</v>
       </c>
       <c r="EQ3" t="n">
-        <v>316.6361389160156</v>
+        <v>262.6378784179688</v>
       </c>
       <c r="ER3" t="n">
-        <v>317.000732421875</v>
+        <v>262.0323181152344</v>
       </c>
       <c r="ES3" t="n">
-        <v>316.9162292480469</v>
+        <v>261.8038635253906</v>
       </c>
       <c r="ET3" t="n">
-        <v>317.1511840820312</v>
+        <v>261.5960693359375</v>
       </c>
       <c r="EU3" t="n">
-        <v>317.1854553222656</v>
+        <v>261.7328186035156</v>
       </c>
       <c r="EV3" t="n">
-        <v>317.1927185058594</v>
+        <v>261.8052368164062</v>
       </c>
       <c r="EW3" t="n">
-        <v>316.8517761230469</v>
+        <v>261.8075866699219</v>
       </c>
       <c r="EX3" t="n">
-        <v>316.3598022460938</v>
+        <v>261.8084716796875</v>
       </c>
       <c r="EY3" t="n">
-        <v>316.0143432617188</v>
+        <v>261.8350524902344</v>
       </c>
       <c r="EZ3" t="n">
-        <v>314.8666076660156</v>
+        <v>261.8555603027344</v>
       </c>
       <c r="FA3" t="n">
-        <v>314.0580139160156</v>
+        <v>261.863525390625</v>
       </c>
       <c r="FB3" t="n">
-        <v>314.5788269042969</v>
+        <v>261.8619995117188</v>
       </c>
       <c r="FC3" t="n">
-        <v>316.0722961425781</v>
+        <v>261.861328125</v>
       </c>
       <c r="FD3" t="n">
-        <v>315.3753356933594</v>
+        <v>261.8607177734375</v>
       </c>
       <c r="FE3" t="n">
-        <v>315.0007934570312</v>
+        <v>261.8861694335938</v>
       </c>
       <c r="FF3" t="n">
-        <v>314.974365234375</v>
+        <v>261.9071350097656</v>
       </c>
       <c r="FG3" t="n">
-        <v>315.082763671875</v>
+        <v>261.781494140625</v>
       </c>
       <c r="FH3" t="n">
-        <v>315.057373046875</v>
+        <v>264.135986328125</v>
       </c>
       <c r="FI3" t="n">
-        <v>314.9477233886719</v>
+        <v>264.128173828125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>314.7706604003906</v>
+        <v>264.125244140625</v>
       </c>
       <c r="FK3" t="n">
-        <v>314.7015991210938</v>
+        <v>262.7250366210938</v>
       </c>
       <c r="FL3" t="n">
-        <v>314.901123046875</v>
+        <v>262.8167724609375</v>
       </c>
       <c r="FM3" t="n">
-        <v>315.13037109375</v>
+        <v>262.8463134765625</v>
       </c>
       <c r="FN3" t="n">
-        <v>315.4501037597656</v>
+        <v>262.7041625976562</v>
       </c>
       <c r="FO3" t="n">
-        <v>315.5116271972656</v>
+        <v>262.2499694824219</v>
       </c>
       <c r="FP3" t="n">
-        <v>315.5528869628906</v>
+        <v>262.5624389648438</v>
       </c>
       <c r="FQ3" t="n">
-        <v>315.5296936035156</v>
+        <v>262.9632263183594</v>
       </c>
       <c r="FR3" t="n">
-        <v>315.3768310546875</v>
+        <v>263.16015625</v>
       </c>
       <c r="FS3" t="n">
-        <v>315.0675659179688</v>
+        <v>263.1175842285156</v>
       </c>
       <c r="FT3" t="n">
-        <v>314.1756896972656</v>
+        <v>262.366455078125</v>
       </c>
       <c r="FU3" t="n">
-        <v>311.9212341308594</v>
+        <v>261.446044921875</v>
       </c>
       <c r="FV3" t="n">
-        <v>312.2489013671875</v>
+        <v>261.4209289550781</v>
       </c>
       <c r="FW3" t="n">
-        <v>312.3662414550781</v>
+        <v>261.2780456542969</v>
       </c>
       <c r="FX3" t="n">
-        <v>313.7946472167969</v>
+        <v>261.220703125</v>
       </c>
       <c r="FY3" t="n">
-        <v>316.0720520019531</v>
+        <v>261.2733459472656</v>
       </c>
       <c r="FZ3" t="n">
-        <v>316.9781188964844</v>
+        <v>261.3292541503906</v>
       </c>
       <c r="GA3" t="n">
-        <v>317.74609375</v>
+        <v>261.36962890625</v>
       </c>
       <c r="GB3" t="n">
-        <v>317.90771484375</v>
+        <v>261.4251098632812</v>
       </c>
       <c r="GC3" t="n">
-        <v>318.4132080078125</v>
+        <v>261.4186401367188</v>
       </c>
       <c r="GD3" t="n">
-        <v>318.3627319335938</v>
+        <v>261.5113220214844</v>
       </c>
       <c r="GE3" t="n">
-        <v>318.2721557617188</v>
+        <v>261.5476989746094</v>
       </c>
       <c r="GF3" t="n">
-        <v>316.7771606445312</v>
+        <v>261.6125183105469</v>
       </c>
       <c r="GG3" t="n">
-        <v>316.4164123535156</v>
+        <v>261.845703125</v>
       </c>
       <c r="GH3" t="n">
-        <v>315.8024597167969</v>
+        <v>262.1100769042969</v>
       </c>
       <c r="GI3" t="n">
-        <v>315.40576171875</v>
+        <v>264.4588623046875</v>
       </c>
       <c r="GJ3" t="n">
-        <v>315.5458679199219</v>
+        <v>264.4888610839844</v>
       </c>
       <c r="GK3" t="n">
-        <v>313.455322265625</v>
+        <v>262.6326904296875</v>
       </c>
       <c r="GL3" t="n">
-        <v>313.5511169433594</v>
+        <v>262.7262878417969</v>
       </c>
       <c r="GM3" t="n">
-        <v>316.5365295410156</v>
+        <v>262.7383117675781</v>
       </c>
       <c r="GN3" t="n">
-        <v>317.2821960449219</v>
+        <v>262.9886474609375</v>
       </c>
       <c r="GO3" t="n">
-        <v>317.2991638183594</v>
+        <v>263.0389404296875</v>
       </c>
       <c r="GP3" t="n">
-        <v>317.0664978027344</v>
+        <v>263.02197265625</v>
       </c>
       <c r="GQ3" t="n">
-        <v>316.7083435058594</v>
+        <v>263.0830993652344</v>
       </c>
       <c r="GR3" t="n">
-        <v>316.6179809570312</v>
+        <v>263.1163635253906</v>
       </c>
       <c r="GS3" t="n">
-        <v>316.3729553222656</v>
+        <v>263.1450805664062</v>
       </c>
       <c r="GT3" t="n">
-        <v>316.2796325683594</v>
+        <v>263.6380310058594</v>
       </c>
       <c r="GU3" t="n">
-        <v>316.2510375976562</v>
+        <v>263.5803833007812</v>
       </c>
       <c r="GV3" t="n">
-        <v>316.0700073242188</v>
+        <v>263.4909973144531</v>
       </c>
       <c r="GW3" t="n">
-        <v>316.0726013183594</v>
+        <v>262.8177490234375</v>
       </c>
       <c r="GX3" t="n">
-        <v>316.0509948730469</v>
+        <v>262.143310546875</v>
       </c>
       <c r="GY3" t="n">
-        <v>316.0278625488281</v>
+        <v>261.7406311035156</v>
       </c>
       <c r="GZ3" t="n">
-        <v>315.9541931152344</v>
+        <v>261.4408569335938</v>
       </c>
       <c r="HA3" t="n">
-        <v>315.889892578125</v>
+        <v>261.4388732910156</v>
       </c>
       <c r="HB3" t="n">
-        <v>315.8270263671875</v>
+        <v>261.3410949707031</v>
       </c>
       <c r="HC3" t="n">
-        <v>314.1405944824219</v>
+        <v>261.2977294921875</v>
       </c>
       <c r="HD3" t="n">
-        <v>312.5552062988281</v>
+        <v>261.2827453613281</v>
       </c>
       <c r="HE3" t="n">
-        <v>314.0466613769531</v>
+        <v>261.2852172851562</v>
       </c>
       <c r="HF3" t="n">
-        <v>314.3262939453125</v>
+        <v>261.2449035644531</v>
       </c>
       <c r="HG3" t="n">
-        <v>313.1709594726562</v>
+        <v>261.2742004394531</v>
       </c>
       <c r="HH3" t="n">
-        <v>316.3546752929688</v>
+        <v>261.253662109375</v>
       </c>
       <c r="HI3" t="n">
-        <v>317.2855529785156</v>
+        <v>261.2747802734375</v>
       </c>
       <c r="HJ3" t="n">
-        <v>317.3289489746094</v>
+        <v>261.2999877929688</v>
       </c>
       <c r="HK3" t="n">
-        <v>317.2876281738281</v>
+        <v>261.3636779785156</v>
       </c>
       <c r="HL3" t="n">
-        <v>317.346435546875</v>
+        <v>261.7127990722656</v>
       </c>
       <c r="HM3" t="n">
-        <v>317.3589477539062</v>
+        <v>262.5400695800781</v>
       </c>
       <c r="HN3" t="n">
-        <v>317.3863525390625</v>
+        <v>262.6135864257812</v>
       </c>
       <c r="HO3" t="n">
-        <v>317.4385681152344</v>
+        <v>262.5573120117188</v>
       </c>
       <c r="HP3" t="n">
-        <v>317.4167175292969</v>
+        <v>262.4190063476562</v>
       </c>
       <c r="HQ3" t="n">
-        <v>316.9503784179688</v>
+        <v>261.7768859863281</v>
       </c>
       <c r="HR3" t="n">
-        <v>315.2539672851562</v>
+        <v>261.6232299804688</v>
       </c>
       <c r="HS3" t="n">
-        <v>316.5997924804688</v>
+        <v>261.7438659667969</v>
       </c>
       <c r="HT3" t="n">
-        <v>317.4910278320312</v>
+        <v>262.1340026855469</v>
       </c>
       <c r="HU3" t="n">
-        <v>315.6480102539062</v>
+        <v>262.2975158691406</v>
       </c>
       <c r="HV3" t="n">
-        <v>315.6422424316406</v>
+        <v>262.5257263183594</v>
       </c>
       <c r="HW3" t="n">
-        <v>315.4839172363281</v>
+        <v>261.1014709472656</v>
       </c>
       <c r="HX3" t="n">
-        <v>315.5538024902344</v>
+        <v>260.7250366210938</v>
       </c>
       <c r="HY3" t="n">
-        <v>315.3494567871094</v>
+        <v>260.3782958984375</v>
       </c>
       <c r="HZ3" t="n">
-        <v>314.9819946289062</v>
+        <v>259.2200622558594</v>
       </c>
       <c r="IA3" t="n">
-        <v>314.5958862304688</v>
+        <v>259.7020263671875</v>
       </c>
       <c r="IB3" t="n">
-        <v>314.6556091308594</v>
+        <v>260.412109375</v>
       </c>
       <c r="IC3" t="n">
-        <v>314.906494140625</v>
+        <v>260.4545288085938</v>
       </c>
       <c r="ID3" t="n">
-        <v>315.1759338378906</v>
+        <v>260.498046875</v>
       </c>
       <c r="IE3" t="n">
-        <v>315.3195190429688</v>
+        <v>260.4714965820312</v>
       </c>
       <c r="IF3" t="n">
-        <v>315.3789367675781</v>
+        <v>260.5774536132812</v>
       </c>
       <c r="IG3" t="n">
-        <v>315.3800048828125</v>
+        <v>260.7289733886719</v>
       </c>
       <c r="IH3" t="n">
-        <v>315.19482421875</v>
+        <v>261.0956726074219</v>
       </c>
       <c r="II3" t="n">
-        <v>315.1380310058594</v>
+        <v>261.7235107421875</v>
       </c>
       <c r="IJ3" t="n">
-        <v>315.0630187988281</v>
+        <v>262.1781005859375</v>
       </c>
       <c r="IK3" t="n">
-        <v>312.6838684082031</v>
+        <v>261.82177734375</v>
       </c>
       <c r="IL3" t="n">
-        <v>312.9203491210938</v>
+        <v>262.0100402832031</v>
       </c>
       <c r="IM3" t="n">
-        <v>315.6633605957031</v>
+        <v>262.555908203125</v>
       </c>
       <c r="IN3" t="n">
-        <v>315.9221496582031</v>
+        <v>262.6737670898438</v>
       </c>
       <c r="IO3" t="n">
-        <v>316.553955078125</v>
+        <v>262.145263671875</v>
       </c>
       <c r="IP3" t="n">
-        <v>316.74755859375</v>
+        <v>261.8980712890625</v>
       </c>
       <c r="IQ3" t="n">
-        <v>317.0361938476562</v>
+        <v>262.3975830078125</v>
       </c>
       <c r="IR3" t="n">
-        <v>317.3133850097656</v>
+        <v>262.5640563964844</v>
       </c>
       <c r="IS3" t="n">
-        <v>317.65283203125</v>
+        <v>262.591064453125</v>
       </c>
       <c r="IT3" t="n">
-        <v>317.8357849121094</v>
+        <v>261.8823852539062</v>
       </c>
       <c r="IU3" t="n">
-        <v>317.9078979492188</v>
+        <v>261.781982421875</v>
       </c>
       <c r="IV3" t="n">
-        <v>317.545654296875</v>
+        <v>261.2695922851562</v>
       </c>
       <c r="IW3" t="n">
-        <v>314.2360229492188</v>
+        <v>260.23779296875</v>
       </c>
       <c r="IX3" t="n">
-        <v>315.0110473632812</v>
+        <v>260.048583984375</v>
       </c>
       <c r="IY3" t="n">
-        <v>317.4422912597656</v>
+        <v>260.5560302734375</v>
       </c>
       <c r="IZ3" t="n">
-        <v>316.6245422363281</v>
+        <v>260.7181701660156</v>
       </c>
       <c r="JA3" t="n">
-        <v>315.6549682617188</v>
+        <v>260.9408569335938</v>
       </c>
       <c r="JB3" t="n">
-        <v>315.108642578125</v>
+        <v>260.9522705078125</v>
       </c>
       <c r="JC3" t="n">
-        <v>314.8648681640625</v>
+        <v>261.0981140136719</v>
       </c>
       <c r="JD3" t="n">
-        <v>315.6325988769531</v>
+        <v>261.3256225585938</v>
       </c>
       <c r="JE3" t="n">
-        <v>315.9278564453125</v>
+        <v>262.1275024414062</v>
       </c>
       <c r="JF3" t="n">
-        <v>315.9493103027344</v>
+        <v>262.5320739746094</v>
       </c>
       <c r="JG3" t="n">
-        <v>316.0361022949219</v>
+        <v>263.0476684570312</v>
       </c>
       <c r="JH3" t="n">
-        <v>316.085205078125</v>
+        <v>262.6968078613281</v>
       </c>
       <c r="JI3" t="n">
-        <v>316.1178894042969</v>
+        <v>262.9619750976562</v>
       </c>
       <c r="JJ3" t="n">
-        <v>316.0349731445312</v>
+        <v>262.4869689941406</v>
       </c>
       <c r="JK3" t="n">
-        <v>315.9715576171875</v>
+        <v>262.3288269042969</v>
       </c>
       <c r="JL3" t="n">
-        <v>315.8567810058594</v>
+        <v>262.8711853027344</v>
       </c>
       <c r="JM3" t="n">
-        <v>316.7010803222656</v>
+        <v>263.1881408691406</v>
       </c>
       <c r="JN3" t="n">
-        <v>317.4468078613281</v>
+        <v>262.1979675292969</v>
       </c>
       <c r="JO3" t="n">
-        <v>315.5431518554688</v>
+        <v>261.5010375976562</v>
       </c>
       <c r="JP3" t="n">
-        <v>315.1097106933594</v>
+        <v>260.3788146972656</v>
       </c>
       <c r="JQ3" t="n">
-        <v>313.8111877441406</v>
+        <v>259.8472900390625</v>
       </c>
       <c r="JR3" t="n">
-        <v>314.3607482910156</v>
+        <v>259.4057312011719</v>
       </c>
       <c r="JS3" t="n">
-        <v>316.0476379394531</v>
+        <v>259.3433227539062</v>
       </c>
       <c r="JT3" t="n">
-        <v>317.0804748535156</v>
+        <v>258.9053039550781</v>
       </c>
       <c r="JU3" t="n">
-        <v>317.4255981445312</v>
+        <v>259.657958984375</v>
       </c>
       <c r="JV3" t="n">
-        <v>317.7361450195312</v>
+        <v>259.78515625</v>
       </c>
       <c r="JW3" t="n">
-        <v>318.1378479003906</v>
+        <v>259.7633056640625</v>
       </c>
       <c r="JX3" t="n">
-        <v>318.7240905761719</v>
+        <v>259.7877807617188</v>
       </c>
       <c r="JY3" t="n">
-        <v>319.3262023925781</v>
+        <v>259.9403686523438</v>
       </c>
       <c r="JZ3" t="n">
-        <v>319.2020568847656</v>
+        <v>260.3402404785156</v>
       </c>
       <c r="KA3" t="n">
-        <v>316.8993530273438</v>
+        <v>261.3292541503906</v>
       </c>
       <c r="KB3" t="n">
-        <v>317.0711975097656</v>
+        <v>262.381103515625</v>
       </c>
       <c r="KC3" t="n">
-        <v>318.0107727050781</v>
+        <v>261.9178466796875</v>
       </c>
       <c r="KD3" t="n">
-        <v>319.3902282714844</v>
+        <v>262.0246276855469</v>
       </c>
       <c r="KE3" t="n">
-        <v>319.3908081054688</v>
+        <v>262.9469604492188</v>
       </c>
       <c r="KF3" t="n">
-        <v>319.6199340820312</v>
+        <v>263.2803649902344</v>
       </c>
       <c r="KG3" t="n">
-        <v>317.6367797851562</v>
+        <v>263.2029113769531</v>
       </c>
       <c r="KH3" t="n">
-        <v>316.8963623046875</v>
+        <v>263.0695495605469</v>
       </c>
       <c r="KI3" t="n">
-        <v>316.1322937011719</v>
+        <v>263.0022277832031</v>
       </c>
       <c r="KJ3" t="n">
-        <v>315.771728515625</v>
+        <v>263.0115356445312</v>
       </c>
       <c r="KK3" t="n">
-        <v>319.4325866699219</v>
+        <v>263.018310546875</v>
       </c>
       <c r="KL3" t="n">
-        <v>324.9483947753906</v>
+        <v>263.0754699707031</v>
       </c>
       <c r="KM3" t="n">
-        <v>328.5804748535156</v>
+        <v>263.2286682128906</v>
       </c>
       <c r="KN3" t="n">
-        <v>327.4058837890625</v>
+        <v>263.3460693359375</v>
       </c>
       <c r="KO3" t="n">
-        <v>319.4385681152344</v>
+        <v>263.7789001464844</v>
       </c>
       <c r="KP3" t="n">
-        <v>314.8031921386719</v>
+        <v>264.6990966796875</v>
       </c>
       <c r="KQ3" t="n">
-        <v>313.4487915039062</v>
+        <v>265.1770629882812</v>
       </c>
       <c r="KR3" t="n">
-        <v>310.7523803710938</v>
+        <v>266.232421875</v>
       </c>
       <c r="KS3" t="n">
-        <v>305.5582885742188</v>
+        <v>263.110107421875</v>
       </c>
       <c r="KT3" t="n">
-        <v>306.0208129882812</v>
+        <v>267.3498840332031</v>
       </c>
       <c r="KU3" t="n">
-        <v>312.3410339355469</v>
+        <v>273.951904296875</v>
       </c>
       <c r="KV3" t="n">
-        <v>319.1633911132812</v>
+        <v>281.5791625976562</v>
       </c>
       <c r="KW3" t="n">
-        <v>326.0684814453125</v>
+        <v>285.4508972167969</v>
       </c>
       <c r="KX3" t="n">
-        <v>335.2225341796875</v>
+        <v>284.9505310058594</v>
       </c>
       <c r="KY3" t="n">
-        <v>337.4587097167969</v>
+        <v>283.92578125</v>
       </c>
       <c r="KZ3" t="n">
-        <v>337.9403076171875</v>
+        <v>281.5878295898438</v>
       </c>
       <c r="LA3" t="n">
-        <v>341.3581848144531</v>
+        <v>280.6908874511719</v>
       </c>
       <c r="LB3" t="n">
-        <v>345.9142456054688</v>
+        <v>287.854736328125</v>
       </c>
       <c r="LC3" t="n">
-        <v>348.5510559082031</v>
+        <v>299.1569519042969</v>
       </c>
       <c r="LD3" t="n">
-        <v>350.7057495117188</v>
+        <v>307.1519165039062</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>311.5044860839844</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>314.0977783203125</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>318.3202514648438</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>332.1369323730469</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>351.10888671875</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>372.2787780761719</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>391.3361206054688</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>423.8028869628906</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>465.073974609375</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>460.6694030761719</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>447.9511108398438</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>439.9842224121094</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>436.8240051269531</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>439.8889465332031</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>451.8488464355469</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>463.3214111328125</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>468.2142028808594</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>468.70751953125</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>476.1255798339844</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>505.4755249023438</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>540.5545043945312</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>523.127197265625</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>498.7085266113281</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>502.0718688964844</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>521.6419677734375</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>548.952880859375</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>554.6834106445312</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>563.423095703125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>638.1121826171875</v>
+        <v>807.8681640625</v>
       </c>
       <c r="B4" t="n">
-        <v>661.4761962890625</v>
+        <v>833.9871215820312</v>
       </c>
       <c r="C4" t="n">
-        <v>686.9324951171875</v>
+        <v>860.072509765625</v>
       </c>
       <c r="D4" t="n">
-        <v>722.3341674804688</v>
+        <v>882.7291259765625</v>
       </c>
       <c r="E4" t="n">
-        <v>764.548095703125</v>
+        <v>906.1065063476562</v>
       </c>
       <c r="F4" t="n">
-        <v>814.6478881835938</v>
+        <v>923.7704467773438</v>
       </c>
       <c r="G4" t="n">
-        <v>867.4486083984375</v>
+        <v>941.3584594726562</v>
       </c>
       <c r="H4" t="n">
-        <v>920.3443603515625</v>
+        <v>970.1146850585938</v>
       </c>
       <c r="I4" t="n">
-        <v>977.7334594726562</v>
+        <v>993.3201293945312</v>
       </c>
       <c r="J4" t="n">
-        <v>1043.200927734375</v>
+        <v>1018.607177734375</v>
       </c>
       <c r="K4" t="n">
-        <v>1102.54736328125</v>
+        <v>1052.922607421875</v>
       </c>
       <c r="L4" t="n">
-        <v>1162.653564453125</v>
+        <v>1088.665771484375</v>
       </c>
       <c r="M4" t="n">
-        <v>1226.534423828125</v>
+        <v>1123.70556640625</v>
       </c>
       <c r="N4" t="n">
-        <v>1286.088623046875</v>
+        <v>1162.922973632812</v>
       </c>
       <c r="O4" t="n">
-        <v>1331.511108398438</v>
+        <v>1199.88427734375</v>
       </c>
       <c r="P4" t="n">
-        <v>1385.564575195312</v>
+        <v>1234.52001953125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1427.496948242188</v>
+        <v>1256.663452148438</v>
       </c>
       <c r="R4" t="n">
-        <v>1477.53369140625</v>
+        <v>1302.269165039062</v>
       </c>
       <c r="S4" t="n">
-        <v>1514.290161132812</v>
+        <v>1332.635986328125</v>
       </c>
       <c r="T4" t="n">
-        <v>1556.15234375</v>
+        <v>1377.102416992188</v>
       </c>
       <c r="U4" t="n">
-        <v>1593.6943359375</v>
+        <v>1411.078125</v>
       </c>
       <c r="V4" t="n">
-        <v>1619.211791992188</v>
+        <v>1438.035522460938</v>
       </c>
       <c r="W4" t="n">
-        <v>1648.617797851562</v>
+        <v>1472.793334960938</v>
       </c>
       <c r="X4" t="n">
-        <v>1679.682250976562</v>
+        <v>1492.0517578125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1695.471069335938</v>
+        <v>1523.027587890625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1714.671752929688</v>
+        <v>1575.814208984375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1725.515991210938</v>
+        <v>1606.11669921875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1741.835083007812</v>
+        <v>1641.501342773438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1754.467163085938</v>
+        <v>1681.910888671875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1787.50390625</v>
+        <v>1723.913696289062</v>
       </c>
       <c r="AE4" t="n">
-        <v>1813.248657226562</v>
+        <v>1746.766967773438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1829.713500976562</v>
+        <v>1749.674926757812</v>
       </c>
       <c r="AG4" t="n">
-        <v>1849.577026367188</v>
+        <v>1767.19091796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1871.449340820312</v>
+        <v>1799.482055664062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1891.961669921875</v>
+        <v>1812.724609375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1919.84228515625</v>
+        <v>1834.816040039062</v>
       </c>
       <c r="AK4" t="n">
-        <v>1939.011474609375</v>
+        <v>1842.104858398438</v>
       </c>
       <c r="AL4" t="n">
-        <v>1959.840209960938</v>
+        <v>1853.234130859375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1978.518432617188</v>
+        <v>1869.39453125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1980.152465820312</v>
+        <v>1897.292114257812</v>
       </c>
       <c r="AO4" t="n">
-        <v>1985.554443359375</v>
+        <v>1927.801513671875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1990.8525390625</v>
+        <v>1968.140625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1994.911499023438</v>
+        <v>1995.791015625</v>
       </c>
       <c r="AR4" t="n">
-        <v>2000.140258789062</v>
+        <v>2005.288818359375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1994.934326171875</v>
+        <v>2014.053466796875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1993.847045898438</v>
+        <v>2012.636596679688</v>
       </c>
       <c r="AU4" t="n">
-        <v>1992.97412109375</v>
+        <v>2013.740478515625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1992.700927734375</v>
+        <v>2017.572265625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1992.809692382812</v>
+        <v>2031.202026367188</v>
       </c>
       <c r="AX4" t="n">
-        <v>1993.45458984375</v>
+        <v>2072.040283203125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1995.46728515625</v>
+        <v>2113.7060546875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1998.7548828125</v>
+        <v>2151.156494140625</v>
       </c>
       <c r="BA4" t="n">
-        <v>2006.452026367188</v>
+        <v>2179.474853515625</v>
       </c>
       <c r="BB4" t="n">
-        <v>2020.999877929688</v>
+        <v>2191.167724609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2023.066772460938</v>
+        <v>2201.116943359375</v>
       </c>
       <c r="BD4" t="n">
-        <v>2024.65478515625</v>
+        <v>2193.33837890625</v>
       </c>
       <c r="BE4" t="n">
-        <v>2024.51513671875</v>
+        <v>2201.932373046875</v>
       </c>
       <c r="BF4" t="n">
-        <v>2024.63525390625</v>
+        <v>2220.42724609375</v>
       </c>
       <c r="BG4" t="n">
-        <v>2024.953125</v>
+        <v>2238.052734375</v>
       </c>
       <c r="BH4" t="n">
-        <v>2026.772338867188</v>
+        <v>2244.643798828125</v>
       </c>
       <c r="BI4" t="n">
-        <v>2027.910766601562</v>
+        <v>2274.382080078125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2025.470458984375</v>
+        <v>2299.64306640625</v>
       </c>
       <c r="BK4" t="n">
-        <v>2017.734497070312</v>
+        <v>2276.344482421875</v>
       </c>
       <c r="BL4" t="n">
-        <v>2014.192016601562</v>
+        <v>2232.54345703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2023.1357421875</v>
+        <v>2205.55712890625</v>
       </c>
       <c r="BN4" t="n">
-        <v>2052.8056640625</v>
+        <v>2227.572509765625</v>
       </c>
       <c r="BO4" t="n">
-        <v>2066.001708984375</v>
+        <v>2278.580078125</v>
       </c>
       <c r="BP4" t="n">
-        <v>2080.21630859375</v>
+        <v>2317.9248046875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2085.355712890625</v>
+        <v>2338.815673828125</v>
       </c>
       <c r="BR4" t="n">
-        <v>2084.101806640625</v>
+        <v>2344.563720703125</v>
       </c>
       <c r="BS4" t="n">
-        <v>2082.29345703125</v>
+        <v>2341.816162109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>2081.98046875</v>
+        <v>2335.9990234375</v>
       </c>
       <c r="BU4" t="n">
-        <v>2080.36376953125</v>
+        <v>2329.34814453125</v>
       </c>
       <c r="BV4" t="n">
-        <v>2079.013916015625</v>
+        <v>2300.970703125</v>
       </c>
       <c r="BW4" t="n">
-        <v>2077.236083984375</v>
+        <v>2258.900390625</v>
       </c>
       <c r="BX4" t="n">
-        <v>2074.99365234375</v>
+        <v>2261.256103515625</v>
       </c>
       <c r="BY4" t="n">
-        <v>2070.01806640625</v>
+        <v>2260.02978515625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2070.00244140625</v>
+        <v>2256.79541015625</v>
       </c>
       <c r="CA4" t="n">
-        <v>2068.43310546875</v>
+        <v>2238.38818359375</v>
       </c>
       <c r="CB4" t="n">
-        <v>2067.11572265625</v>
+        <v>2208.20166015625</v>
       </c>
       <c r="CC4" t="n">
-        <v>2065.931640625</v>
+        <v>2200.397216796875</v>
       </c>
       <c r="CD4" t="n">
-        <v>2064.26708984375</v>
+        <v>2201.591796875</v>
       </c>
       <c r="CE4" t="n">
-        <v>2062.390625</v>
+        <v>2203.193359375</v>
       </c>
       <c r="CF4" t="n">
-        <v>2059.700927734375</v>
+        <v>2206.408447265625</v>
       </c>
       <c r="CG4" t="n">
-        <v>2056.18994140625</v>
+        <v>2215.69189453125</v>
       </c>
       <c r="CH4" t="n">
-        <v>2051.162841796875</v>
+        <v>2238.73095703125</v>
       </c>
       <c r="CI4" t="n">
-        <v>2051.34765625</v>
+        <v>2250.765380859375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2051.529541015625</v>
+        <v>2249.5947265625</v>
       </c>
       <c r="CK4" t="n">
-        <v>2051.14306640625</v>
+        <v>2258.515625</v>
       </c>
       <c r="CL4" t="n">
-        <v>2050.572265625</v>
+        <v>2268.94677734375</v>
       </c>
       <c r="CM4" t="n">
-        <v>2049.715087890625</v>
+        <v>2268.427978515625</v>
       </c>
       <c r="CN4" t="n">
-        <v>2042.932250976562</v>
+        <v>2268.689453125</v>
       </c>
       <c r="CO4" t="n">
-        <v>2028.863037109375</v>
+        <v>2263.575439453125</v>
       </c>
       <c r="CP4" t="n">
-        <v>2012.952270507812</v>
+        <v>2256.0517578125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1992.063598632812</v>
+        <v>2321.58203125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1996.671508789062</v>
+        <v>2286.4638671875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1997.427612304688</v>
+        <v>2190.45556640625</v>
       </c>
       <c r="CT4" t="n">
-        <v>2010.32080078125</v>
+        <v>2313.592041015625</v>
       </c>
       <c r="CU4" t="n">
-        <v>2013.707275390625</v>
+        <v>2302.813720703125</v>
       </c>
       <c r="CV4" t="n">
-        <v>2017.67822265625</v>
+        <v>2318.618408203125</v>
       </c>
       <c r="CW4" t="n">
-        <v>2014.2587890625</v>
+        <v>2278.679931640625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2010.46484375</v>
+        <v>2291.828125</v>
       </c>
       <c r="CY4" t="n">
-        <v>2012.380615234375</v>
+        <v>2282.71044921875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2012.917358398438</v>
+        <v>2271.35791015625</v>
       </c>
       <c r="DA4" t="n">
-        <v>2013.39453125</v>
+        <v>2256.17138671875</v>
       </c>
       <c r="DB4" t="n">
-        <v>2015.478149414062</v>
+        <v>2194.18701171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>2016.021240234375</v>
+        <v>2197.965087890625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2016.398681640625</v>
+        <v>2201.878173828125</v>
       </c>
       <c r="DE4" t="n">
-        <v>2016.252319335938</v>
+        <v>2206.97900390625</v>
       </c>
       <c r="DF4" t="n">
-        <v>2015.557739257812</v>
+        <v>2226.4130859375</v>
       </c>
       <c r="DG4" t="n">
-        <v>2014.829345703125</v>
+        <v>2249.20654296875</v>
       </c>
       <c r="DH4" t="n">
-        <v>2015.992431640625</v>
+        <v>2247.314208984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>2014.814575195312</v>
+        <v>2248.48828125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2012.886474609375</v>
+        <v>2250.070068359375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1988.913330078125</v>
+        <v>2252.95849609375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1986.982299804688</v>
+        <v>2252.929931640625</v>
       </c>
       <c r="DM4" t="n">
-        <v>2016.051391601562</v>
+        <v>2255.11767578125</v>
       </c>
       <c r="DN4" t="n">
-        <v>2044.518798828125</v>
+        <v>2262.912841796875</v>
       </c>
       <c r="DO4" t="n">
-        <v>2049.123779296875</v>
+        <v>2265.118896484375</v>
       </c>
       <c r="DP4" t="n">
-        <v>2052.418701171875</v>
+        <v>2263.74951171875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2052.074462890625</v>
+        <v>2261.2412109375</v>
       </c>
       <c r="DR4" t="n">
-        <v>2052.8466796875</v>
+        <v>2260.669677734375</v>
       </c>
       <c r="DS4" t="n">
-        <v>2053.809326171875</v>
+        <v>2262.1513671875</v>
       </c>
       <c r="DT4" t="n">
-        <v>2056.25830078125</v>
+        <v>2261.944580078125</v>
       </c>
       <c r="DU4" t="n">
-        <v>2056.270263671875</v>
+        <v>2261.6435546875</v>
       </c>
       <c r="DV4" t="n">
-        <v>2057.55029296875</v>
+        <v>2261.480224609375</v>
       </c>
       <c r="DW4" t="n">
-        <v>2057.4228515625</v>
+        <v>2261.046142578125</v>
       </c>
       <c r="DX4" t="n">
-        <v>2057.299560546875</v>
+        <v>2261.06396484375</v>
       </c>
       <c r="DY4" t="n">
-        <v>2057.5009765625</v>
+        <v>2260.707275390625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2057.23681640625</v>
+        <v>2256.820068359375</v>
       </c>
       <c r="EA4" t="n">
-        <v>2055.338623046875</v>
+        <v>2243.478271484375</v>
       </c>
       <c r="EB4" t="n">
-        <v>2053.3935546875</v>
+        <v>2217.49755859375</v>
       </c>
       <c r="EC4" t="n">
-        <v>2053.252197265625</v>
+        <v>2214.723876953125</v>
       </c>
       <c r="ED4" t="n">
-        <v>2052.61279296875</v>
+        <v>2215.464111328125</v>
       </c>
       <c r="EE4" t="n">
-        <v>2052.651611328125</v>
+        <v>2214.978515625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2052.834716796875</v>
+        <v>2211.14599609375</v>
       </c>
       <c r="EG4" t="n">
-        <v>2052.92529296875</v>
+        <v>2211.0908203125</v>
       </c>
       <c r="EH4" t="n">
-        <v>2052.90185546875</v>
+        <v>2208.29931640625</v>
       </c>
       <c r="EI4" t="n">
-        <v>2025.88720703125</v>
+        <v>2204.856689453125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2007.002685546875</v>
+        <v>2201.881591796875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1991.483032226562</v>
+        <v>2204.7822265625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1995.09619140625</v>
+        <v>2208.680908203125</v>
       </c>
       <c r="EM4" t="n">
-        <v>2001.62109375</v>
+        <v>2215.93505859375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1993.5556640625</v>
+        <v>2217.4755859375</v>
       </c>
       <c r="EO4" t="n">
-        <v>2019.507202148438</v>
+        <v>2228.5849609375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2016.08349609375</v>
+        <v>2241.98583984375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2020.756591796875</v>
+        <v>2251.13037109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>2019.49755859375</v>
+        <v>2260.615966796875</v>
       </c>
       <c r="ES4" t="n">
-        <v>2019.481079101562</v>
+        <v>2272.449951171875</v>
       </c>
       <c r="ET4" t="n">
-        <v>2019.919189453125</v>
+        <v>2276.580810546875</v>
       </c>
       <c r="EU4" t="n">
-        <v>2020.052490234375</v>
+        <v>2268.41357421875</v>
       </c>
       <c r="EV4" t="n">
-        <v>2020.198852539062</v>
+        <v>2273.564208984375</v>
       </c>
       <c r="EW4" t="n">
-        <v>2020.268310546875</v>
+        <v>2274.2958984375</v>
       </c>
       <c r="EX4" t="n">
-        <v>2016.135986328125</v>
+        <v>2275.86865234375</v>
       </c>
       <c r="EY4" t="n">
-        <v>2009.402709960938</v>
+        <v>2275.339111328125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1993.297119140625</v>
+        <v>2275.49560546875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1993.603515625</v>
+        <v>2275.541015625</v>
       </c>
       <c r="FB4" t="n">
-        <v>2013.411010742188</v>
+        <v>2275.45654296875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2042.684204101562</v>
+        <v>2275.443603515625</v>
       </c>
       <c r="FD4" t="n">
-        <v>2048.75390625</v>
+        <v>2275.434326171875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2051.8486328125</v>
+        <v>2272.626953125</v>
       </c>
       <c r="FF4" t="n">
-        <v>2054.615966796875</v>
+        <v>2248.490234375</v>
       </c>
       <c r="FG4" t="n">
-        <v>2058.361083984375</v>
+        <v>2234.66845703125</v>
       </c>
       <c r="FH4" t="n">
-        <v>2062.1171875</v>
+        <v>2275.868896484375</v>
       </c>
       <c r="FI4" t="n">
-        <v>2061.5703125</v>
+        <v>2276.85546875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2061.971435546875</v>
+        <v>2276.973876953125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2061.295166015625</v>
+        <v>2219.291015625</v>
       </c>
       <c r="FL4" t="n">
-        <v>2059.711181640625</v>
+        <v>2219.78369140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2058.794189453125</v>
+        <v>2219.396484375</v>
       </c>
       <c r="FN4" t="n">
-        <v>2056.62060546875</v>
+        <v>2214.98046875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2056.45654296875</v>
+        <v>2209.586669921875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2054.871826171875</v>
+        <v>2220.70703125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2055.0283203125</v>
+        <v>2231.38623046875</v>
       </c>
       <c r="FR4" t="n">
-        <v>2054.5029296875</v>
+        <v>2234.600341796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2054.014404296875</v>
+        <v>2234.974853515625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2045.128540039062</v>
+        <v>2241.779296875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2000.800170898438</v>
+        <v>2279.745849609375</v>
       </c>
       <c r="FV4" t="n">
-        <v>1999.286987304688</v>
+        <v>2280.53271484375</v>
       </c>
       <c r="FW4" t="n">
-        <v>1989.7509765625</v>
+        <v>2286.636474609375</v>
       </c>
       <c r="FX4" t="n">
-        <v>1999.932983398438</v>
+        <v>2286.05859375</v>
       </c>
       <c r="FY4" t="n">
-        <v>2005.469970703125</v>
+        <v>2286.04541015625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2003.772705078125</v>
+        <v>2287.19775390625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2010.5595703125</v>
+        <v>2288.1904296875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2010.3046875</v>
+        <v>2286.816650390625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2012.374877929688</v>
+        <v>2286.43603515625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2013.016723632812</v>
+        <v>2286.49072265625</v>
       </c>
       <c r="GE4" t="n">
-        <v>2015.266967773438</v>
+        <v>2287.004638671875</v>
       </c>
       <c r="GF4" t="n">
-        <v>2018.031005859375</v>
+        <v>2287.349365234375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2019.0498046875</v>
+        <v>2279.83251953125</v>
       </c>
       <c r="GH4" t="n">
-        <v>2020.485595703125</v>
+        <v>2251.123291015625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2020.870849609375</v>
+        <v>2277.9814453125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2014.73291015625</v>
+        <v>2277.945068359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>1977.392456054688</v>
+        <v>2211.52880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>1973.310791015625</v>
+        <v>2213.544677734375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2011.226318359375</v>
+        <v>2213.53759765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2038.761474609375</v>
+        <v>2220.5390625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2051.8017578125</v>
+        <v>2221.94384765625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2056.056640625</v>
+        <v>2220.546142578125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2058.48291015625</v>
+        <v>2222.1923828125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2059.418212890625</v>
+        <v>2223.494140625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2059.4677734375</v>
+        <v>2224.860107421875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2059.81884765625</v>
+        <v>2232.41259765625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2059.76416015625</v>
+        <v>2233.792724609375</v>
       </c>
       <c r="GV4" t="n">
-        <v>2059.995849609375</v>
+        <v>2235.298095703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2059.948974609375</v>
+        <v>2254.51708984375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2058.50146484375</v>
+        <v>2264.837646484375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2056.631103515625</v>
+        <v>2275.839111328125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2050.7197265625</v>
+        <v>2293.2744140625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2045.904907226562</v>
+        <v>2287.21240234375</v>
       </c>
       <c r="HB4" t="n">
-        <v>2042.724243164062</v>
+        <v>2290.022705078125</v>
       </c>
       <c r="HC4" t="n">
-        <v>2003.575073242188</v>
+        <v>2289.35009765625</v>
       </c>
       <c r="HD4" t="n">
-        <v>1968.435302734375</v>
+        <v>2288.31689453125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1977.6669921875</v>
+        <v>2287.5673828125</v>
       </c>
       <c r="HF4" t="n">
-        <v>1981.898559570312</v>
+        <v>2286.3896484375</v>
       </c>
       <c r="HG4" t="n">
-        <v>1973.313354492188</v>
+        <v>2285.067626953125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1999.8134765625</v>
+        <v>2289.65234375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2012.116821289062</v>
+        <v>2289.162841796875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2011.409790039062</v>
+        <v>2292.05712890625</v>
       </c>
       <c r="HK4" t="n">
-        <v>2010.659423828125</v>
+        <v>2289.21875</v>
       </c>
       <c r="HL4" t="n">
-        <v>2010.010864257812</v>
+        <v>2271.39990234375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2009.63720703125</v>
+        <v>2275.85400390625</v>
       </c>
       <c r="HN4" t="n">
-        <v>2009.177612304688</v>
+        <v>2237.959716796875</v>
       </c>
       <c r="HO4" t="n">
-        <v>2010.024780273438</v>
+        <v>2237.98828125</v>
       </c>
       <c r="HP4" t="n">
-        <v>2009.6650390625</v>
+        <v>2236.436767578125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2000.212280273438</v>
+        <v>2223.58544921875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1978.796630859375</v>
+        <v>2226.61181640625</v>
       </c>
       <c r="HS4" t="n">
-        <v>1984.152587890625</v>
+        <v>2238.88134765625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2023.369384765625</v>
+        <v>2242.1875</v>
       </c>
       <c r="HU4" t="n">
-        <v>2054.003173828125</v>
+        <v>2242.67138671875</v>
       </c>
       <c r="HV4" t="n">
-        <v>2052.336181640625</v>
+        <v>2247.4423828125</v>
       </c>
       <c r="HW4" t="n">
-        <v>2053.75830078125</v>
+        <v>2251.70751953125</v>
       </c>
       <c r="HX4" t="n">
-        <v>2054.6552734375</v>
+        <v>2292.830810546875</v>
       </c>
       <c r="HY4" t="n">
-        <v>2057.170166015625</v>
+        <v>2302.8251953125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2059.7607421875</v>
+        <v>2339.61083984375</v>
       </c>
       <c r="IA4" t="n">
-        <v>2060.67431640625</v>
+        <v>2319.904296875</v>
       </c>
       <c r="IB4" t="n">
-        <v>2061.0087890625</v>
+        <v>2303.182861328125</v>
       </c>
       <c r="IC4" t="n">
-        <v>2060.61474609375</v>
+        <v>2303.0771484375</v>
       </c>
       <c r="ID4" t="n">
-        <v>2060.14697265625</v>
+        <v>2302.41357421875</v>
       </c>
       <c r="IE4" t="n">
-        <v>2058.629638671875</v>
+        <v>2306.474365234375</v>
       </c>
       <c r="IF4" t="n">
-        <v>2056.169921875</v>
+        <v>2300.8642578125</v>
       </c>
       <c r="IG4" t="n">
-        <v>2051.402099609375</v>
+        <v>2286.096435546875</v>
       </c>
       <c r="IH4" t="n">
-        <v>2039.658081054688</v>
+        <v>2275.3271484375</v>
       </c>
       <c r="II4" t="n">
-        <v>2039.203369140625</v>
+        <v>2292.2470703125</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2034.03271484375</v>
+        <v>2263.5478515625</v>
       </c>
       <c r="IK4" t="n">
-        <v>1987.388549804688</v>
+        <v>2236.314453125</v>
       </c>
       <c r="IL4" t="n">
-        <v>1977.740112304688</v>
+        <v>2231.287353515625</v>
       </c>
       <c r="IM4" t="n">
-        <v>1984.489868164062</v>
+        <v>2227.0068359375</v>
       </c>
       <c r="IN4" t="n">
-        <v>1990.677124023438</v>
+        <v>2226.7626953125</v>
       </c>
       <c r="IO4" t="n">
-        <v>1996.22412109375</v>
+        <v>2219.937255859375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1996.544799804688</v>
+        <v>2225.149658203125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1997.421752929688</v>
+        <v>2230.756591796875</v>
       </c>
       <c r="IR4" t="n">
-        <v>1998.567993164062</v>
+        <v>2232.51171875</v>
       </c>
       <c r="IS4" t="n">
-        <v>2001.411010742188</v>
+        <v>2234.962646484375</v>
       </c>
       <c r="IT4" t="n">
-        <v>2002.77392578125</v>
+        <v>2247.12109375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2002.2900390625</v>
+        <v>2275.834228515625</v>
       </c>
       <c r="IV4" t="n">
-        <v>1995.86279296875</v>
+        <v>2275.99609375</v>
       </c>
       <c r="IW4" t="n">
-        <v>1973.896240234375</v>
+        <v>2305.554931640625</v>
       </c>
       <c r="IX4" t="n">
-        <v>1987.81982421875</v>
+        <v>2313.416259765625</v>
       </c>
       <c r="IY4" t="n">
-        <v>2033.075317382812</v>
+        <v>2292.4306640625</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2035.357666015625</v>
+        <v>2285.31396484375</v>
       </c>
       <c r="JA4" t="n">
-        <v>2039.33642578125</v>
+        <v>2279.95361328125</v>
       </c>
       <c r="JB4" t="n">
-        <v>2042.11474609375</v>
+        <v>2282.37939453125</v>
       </c>
       <c r="JC4" t="n">
-        <v>2047.261596679688</v>
+        <v>2280.078369140625</v>
       </c>
       <c r="JD4" t="n">
-        <v>2054.451904296875</v>
+        <v>2279.994384765625</v>
       </c>
       <c r="JE4" t="n">
-        <v>2052.3291015625</v>
+        <v>2266.3955078125</v>
       </c>
       <c r="JF4" t="n">
-        <v>2050.267578125</v>
+        <v>2240.5234375</v>
       </c>
       <c r="JG4" t="n">
-        <v>2049.715087890625</v>
+        <v>2231.849365234375</v>
       </c>
       <c r="JH4" t="n">
-        <v>2047.597778320312</v>
+        <v>2217.6142578125</v>
       </c>
       <c r="JI4" t="n">
-        <v>2042.912719726562</v>
+        <v>2225.392822265625</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2038.064331054688</v>
+        <v>2215.25830078125</v>
       </c>
       <c r="JK4" t="n">
-        <v>2035.00830078125</v>
+        <v>2213.8984375</v>
       </c>
       <c r="JL4" t="n">
-        <v>2031.779418945312</v>
+        <v>2217.34326171875</v>
       </c>
       <c r="JM4" t="n">
-        <v>2025.813598632812</v>
+        <v>2252.4775390625</v>
       </c>
       <c r="JN4" t="n">
-        <v>2023.170166015625</v>
+        <v>2255.565673828125</v>
       </c>
       <c r="JO4" t="n">
-        <v>1981.939086914062</v>
+        <v>2258.795166015625</v>
       </c>
       <c r="JP4" t="n">
-        <v>1967.227416992188</v>
+        <v>2303.60107421875</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1962.549438476562</v>
+        <v>2316.02490234375</v>
       </c>
       <c r="JR4" t="n">
-        <v>1977.800415039062</v>
+        <v>2326.82958984375</v>
       </c>
       <c r="JS4" t="n">
-        <v>1990.408935546875</v>
+        <v>2324.367919921875</v>
       </c>
       <c r="JT4" t="n">
-        <v>2001.503295898438</v>
+        <v>2325.76025390625</v>
       </c>
       <c r="JU4" t="n">
-        <v>2001.17138671875</v>
+        <v>2315.269287109375</v>
       </c>
       <c r="JV4" t="n">
-        <v>2000.892944335938</v>
+        <v>2311.2236328125</v>
       </c>
       <c r="JW4" t="n">
-        <v>2000.2060546875</v>
+        <v>2311.31884765625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1995.677734375</v>
+        <v>2310.67919921875</v>
       </c>
       <c r="JY4" t="n">
-        <v>1987.900146484375</v>
+        <v>2305.6123046875</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1974.703002929688</v>
+        <v>2290.227783203125</v>
       </c>
       <c r="KA4" t="n">
-        <v>1968.43896484375</v>
+        <v>2261.282958984375</v>
       </c>
       <c r="KB4" t="n">
-        <v>1968.20068359375</v>
+        <v>2241.09619140625</v>
       </c>
       <c r="KC4" t="n">
-        <v>1968.229614257812</v>
+        <v>2241.13818359375</v>
       </c>
       <c r="KD4" t="n">
-        <v>1968.191772460938</v>
+        <v>2239.9013671875</v>
       </c>
       <c r="KE4" t="n">
-        <v>1968.761962890625</v>
+        <v>2241.3515625</v>
       </c>
       <c r="KF4" t="n">
-        <v>1966.65625</v>
+        <v>2245.718505859375</v>
       </c>
       <c r="KG4" t="n">
-        <v>1962.769653320312</v>
+        <v>2250.810791015625</v>
       </c>
       <c r="KH4" t="n">
-        <v>1963.468872070312</v>
+        <v>2250.23828125</v>
       </c>
       <c r="KI4" t="n">
-        <v>1964.399536132812</v>
+        <v>2248.598388671875</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1956.644897460938</v>
+        <v>2248.131591796875</v>
       </c>
       <c r="KK4" t="n">
-        <v>1893.189575195312</v>
+        <v>2246.590087890625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1806.84619140625</v>
+        <v>2242.86083984375</v>
       </c>
       <c r="KM4" t="n">
-        <v>1720.6455078125</v>
+        <v>2238.805908203125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1655.138305664062</v>
+        <v>2240.419677734375</v>
       </c>
       <c r="KO4" t="n">
-        <v>1551.5029296875</v>
+        <v>2244.048095703125</v>
       </c>
       <c r="KP4" t="n">
-        <v>1483.467651367188</v>
+        <v>2244.4716796875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1435.774780273438</v>
+        <v>2244.709716796875</v>
       </c>
       <c r="KR4" t="n">
-        <v>1367.705078125</v>
+        <v>2248.71142578125</v>
       </c>
       <c r="KS4" t="n">
-        <v>1298.348510742188</v>
+        <v>2230.4931640625</v>
       </c>
       <c r="KT4" t="n">
-        <v>1242.5498046875</v>
+        <v>2138.264404296875</v>
       </c>
       <c r="KU4" t="n">
-        <v>1133.401245117188</v>
+        <v>2061.998046875</v>
       </c>
       <c r="KV4" t="n">
-        <v>1048.484375</v>
+        <v>1958.466674804688</v>
       </c>
       <c r="KW4" t="n">
-        <v>980.7337646484375</v>
+        <v>1838.402587890625</v>
       </c>
       <c r="KX4" t="n">
-        <v>882.45263671875</v>
+        <v>1706.522827148438</v>
       </c>
       <c r="KY4" t="n">
-        <v>817.961669921875</v>
+        <v>1620.919799804688</v>
       </c>
       <c r="KZ4" t="n">
-        <v>768.36328125</v>
+        <v>1492.898803710938</v>
       </c>
       <c r="LA4" t="n">
-        <v>712.0521240234375</v>
+        <v>1381.426513671875</v>
       </c>
       <c r="LB4" t="n">
-        <v>684.619873046875</v>
+        <v>1278.822875976562</v>
       </c>
       <c r="LC4" t="n">
-        <v>672.6207275390625</v>
+        <v>1171.710693359375</v>
       </c>
       <c r="LD4" t="n">
-        <v>663.6376342773438</v>
+        <v>1076.625244140625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>997.4219970703125</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>917.9793090820312</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>867.1101684570312</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>772.4307861328125</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>690.4141845703125</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>599.845458984375</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>526.052978515625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>447.2201232910156</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>403.799560546875</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>379.9676818847656</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>361.4381103515625</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>364.7968139648438</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>347.0513305664062</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>344.3382263183594</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>346.5302429199219</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>319.7775268554688</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>301.1350402832031</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>294.1839599609375</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>304.122314453125</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>289.6903076171875</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>264.0321655273438</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>267.0641174316406</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>274.3338012695312</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>262.7952575683594</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>237.2407836914062</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>197.552734375</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>189.0489501953125</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>193.65625</v>
       </c>
     </row>
   </sheetData>
